--- a/data_merged_analysis.xlsx
+++ b/data_merged_analysis.xlsx
@@ -1056,13 +1056,13 @@
         <v>0.0008426374552348852</v>
       </c>
       <c r="BH2" t="n">
-        <v>312.1666666666667</v>
+        <v>267.0947151681538</v>
       </c>
       <c r="BI2" t="n">
         <v>6732.833333333333</v>
       </c>
       <c r="BJ2" t="n">
-        <v>29.21666666666667</v>
+        <v>28.97007607776839</v>
       </c>
       <c r="BK2" t="n">
         <v>1950430</v>
@@ -1247,13 +1247,13 @@
         <v>0.0007251631617113851</v>
       </c>
       <c r="BH3" t="n">
-        <v>237.6666666666667</v>
+        <v>241.3359375</v>
       </c>
       <c r="BI3" t="n">
         <v>6651.333333333333</v>
       </c>
       <c r="BJ3" t="n">
-        <v>21.2</v>
+        <v>21.33226744186047</v>
       </c>
       <c r="BK3" t="n">
         <v>569512</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="BH4" t="n">
-        <v>208</v>
+        <v>207.0560344827586</v>
       </c>
       <c r="BI4" t="n">
         <v>7409.75</v>
       </c>
       <c r="BJ4" t="n">
-        <v>19.1</v>
+        <v>19.17540322580645</v>
       </c>
       <c r="BK4" t="n">
         <v>573660</v>
@@ -1629,13 +1629,13 @@
         <v>0.001892147587511826</v>
       </c>
       <c r="BH5" t="n">
-        <v>180.3333333333333</v>
+        <v>207.563670411985</v>
       </c>
       <c r="BI5" t="n">
         <v>6263</v>
       </c>
       <c r="BJ5" t="n">
-        <v>18.73333333333333</v>
+        <v>20.24116541353384</v>
       </c>
       <c r="BK5" t="n">
         <v>421145</v>
@@ -1820,13 +1820,13 @@
         <v>0.003815337657382678</v>
       </c>
       <c r="BH6" t="n">
-        <v>225.3333333333333</v>
+        <v>260.0382978723404</v>
       </c>
       <c r="BI6" t="n">
         <v>2784.166666666667</v>
       </c>
       <c r="BJ6" t="n">
-        <v>20.46666666666667</v>
+        <v>23.05129770992366</v>
       </c>
       <c r="BK6" t="n">
         <v>488060</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="BH7" t="n">
-        <v>414.3333333333333</v>
+        <v>379.9401913875598</v>
       </c>
       <c r="BI7" t="n">
         <v>700.6666666666666</v>
       </c>
       <c r="BJ7" t="n">
-        <v>29.26666666666667</v>
+        <v>28.60321428571429</v>
       </c>
       <c r="BK7" t="n">
         <v>624240</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="BH8" t="n">
-        <v>239</v>
+        <v>187.7857142857143</v>
       </c>
       <c r="BI8" t="n">
         <v>71.66666666666667</v>
@@ -2393,13 +2393,13 @@
         <v>0.0002319647413593134</v>
       </c>
       <c r="BH9" t="n">
-        <v>206.2</v>
+        <v>209.6370302474794</v>
       </c>
       <c r="BI9" t="n">
         <v>4065.4</v>
       </c>
       <c r="BJ9" t="n">
-        <v>20.54</v>
+        <v>21.86420959147425</v>
       </c>
       <c r="BK9" t="n">
         <v>794736</v>
@@ -2775,13 +2775,13 @@
         <v>0.0007085498346717053</v>
       </c>
       <c r="BH11" t="n">
-        <v>209.875</v>
+        <v>204.3570581257414</v>
       </c>
       <c r="BI11" t="n">
         <v>4395.25</v>
       </c>
       <c r="BJ11" t="n">
-        <v>17.9375</v>
+        <v>17.20194931773879</v>
       </c>
       <c r="BK11" t="n">
         <v>823960</v>
@@ -2966,13 +2966,13 @@
         <v>0</v>
       </c>
       <c r="BH12" t="n">
-        <v>524</v>
+        <v>493.1764705882353</v>
       </c>
       <c r="BI12" t="n">
         <v>635</v>
       </c>
       <c r="BJ12" t="n">
-        <v>37.9</v>
+        <v>34.55588235294118</v>
       </c>
       <c r="BK12" t="n">
         <v>88366</v>
@@ -3157,13 +3157,13 @@
         <v>0</v>
       </c>
       <c r="BH13" t="n">
-        <v>206.6</v>
+        <v>213.5862977602108</v>
       </c>
       <c r="BI13" t="n">
         <v>4698.8</v>
       </c>
       <c r="BJ13" t="n">
-        <v>18.32</v>
+        <v>19.23912009512485</v>
       </c>
       <c r="BK13" t="n">
         <v>699646</v>
@@ -3539,13 +3539,13 @@
         <v>0</v>
       </c>
       <c r="BH15" t="n">
-        <v>233.5</v>
+        <v>225.2976</v>
       </c>
       <c r="BI15" t="n">
         <v>4626.2</v>
       </c>
       <c r="BJ15" t="n">
-        <v>21.675</v>
+        <v>20.94845505617977</v>
       </c>
       <c r="BK15" t="n">
         <v>658905</v>
@@ -3730,13 +3730,13 @@
         <v>0.0004533091568449683</v>
       </c>
       <c r="BH16" t="n">
-        <v>338.6666666666667</v>
+        <v>331.3131313131313</v>
       </c>
       <c r="BI16" t="n">
         <v>1415</v>
       </c>
       <c r="BJ16" t="n">
-        <v>23.93333333333333</v>
+        <v>23.49909255898367</v>
       </c>
       <c r="BK16" t="n">
         <v>504188</v>
@@ -3921,13 +3921,13 @@
         <v>0</v>
       </c>
       <c r="BH17" t="n">
-        <v>304.8</v>
+        <v>303.0181112548512</v>
       </c>
       <c r="BI17" t="n">
         <v>5666.4</v>
       </c>
       <c r="BJ17" t="n">
-        <v>26.02</v>
+        <v>24.70281553398058</v>
       </c>
       <c r="BK17" t="n">
         <v>729884</v>
@@ -4112,13 +4112,13 @@
         <v>0.0003829950210647262</v>
       </c>
       <c r="BH18" t="n">
-        <v>315</v>
+        <v>315.4470802919708</v>
       </c>
       <c r="BI18" t="n">
         <v>3145.75</v>
       </c>
       <c r="BJ18" t="n">
-        <v>23.63333333333334</v>
+        <v>23.46549618320611</v>
       </c>
       <c r="BK18" t="n">
         <v>730250</v>
@@ -4494,13 +4494,13 @@
         <v>0.003574620196604111</v>
       </c>
       <c r="BH20" t="n">
-        <v>390.5</v>
+        <v>334.7178423236514</v>
       </c>
       <c r="BI20" t="n">
         <v>2252</v>
       </c>
       <c r="BJ20" t="n">
-        <v>21.7</v>
+        <v>22.13440514469453</v>
       </c>
       <c r="BK20" t="n">
         <v>261434</v>
@@ -4685,13 +4685,13 @@
         <v>0</v>
       </c>
       <c r="BH21" t="n">
-        <v>316</v>
+        <v>291.8684210526316</v>
       </c>
       <c r="BI21" t="n">
         <v>2816</v>
       </c>
       <c r="BJ21" t="n">
-        <v>19.35</v>
+        <v>21.99905437352246</v>
       </c>
       <c r="BK21" t="n">
         <v>218145</v>
@@ -4876,13 +4876,13 @@
         <v>0</v>
       </c>
       <c r="BH22" t="n">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="BI22" t="n">
         <v>454.5</v>
       </c>
       <c r="BJ22" t="n">
-        <v>27.4</v>
+        <v>22.09677419354839</v>
       </c>
       <c r="BK22" t="n">
         <v>71038</v>
@@ -5067,13 +5067,13 @@
         <v>0</v>
       </c>
       <c r="BH23" t="n">
-        <v>278.5</v>
+        <v>262.8258426966292</v>
       </c>
       <c r="BI23" t="n">
         <v>4146.5</v>
       </c>
       <c r="BJ23" t="n">
-        <v>21.2</v>
+        <v>20.99279588336192</v>
       </c>
       <c r="BK23" t="n">
         <v>544803</v>
@@ -5258,13 +5258,13 @@
         <v>0</v>
       </c>
       <c r="BH24" t="n">
-        <v>332.5</v>
+        <v>325.3466135458168</v>
       </c>
       <c r="BI24" t="n">
         <v>3231.25</v>
       </c>
       <c r="BJ24" t="n">
-        <v>24.025</v>
+        <v>24.18716502115656</v>
       </c>
       <c r="BK24" t="n">
         <v>492601</v>
@@ -5449,13 +5449,13 @@
         <v>0.003327787021630616</v>
       </c>
       <c r="BH25" t="n">
-        <v>483</v>
+        <v>430.537037037037</v>
       </c>
       <c r="BI25" t="n">
         <v>467.75</v>
       </c>
       <c r="BJ25" t="n">
-        <v>23.2</v>
+        <v>23.23589743589744</v>
       </c>
       <c r="BK25" t="n">
         <v>154249</v>
@@ -6756,13 +6756,13 @@
         <v>0.001044277360066834</v>
       </c>
       <c r="BH32" t="n">
-        <v>315.6666666666667</v>
+        <v>269.5119291070211</v>
       </c>
       <c r="BI32" t="n">
         <v>6818</v>
       </c>
       <c r="BJ32" t="n">
-        <v>30.05</v>
+        <v>29.73086264656616</v>
       </c>
       <c r="BK32" t="n">
         <v>1937350</v>
@@ -6947,13 +6947,13 @@
         <v>0.0007304601899196494</v>
       </c>
       <c r="BH33" t="n">
-        <v>243</v>
+        <v>246.78125</v>
       </c>
       <c r="BI33" t="n">
         <v>6578.333333333333</v>
       </c>
       <c r="BJ33" t="n">
-        <v>22.8</v>
+        <v>22.79466764061359</v>
       </c>
       <c r="BK33" t="n">
         <v>574739</v>
@@ -7138,13 +7138,13 @@
         <v>0</v>
       </c>
       <c r="BH34" t="n">
-        <v>209.25</v>
+        <v>207.3177966101695</v>
       </c>
       <c r="BI34" t="n">
         <v>7619.25</v>
       </c>
       <c r="BJ34" t="n">
-        <v>19.05</v>
+        <v>19.07014531043593</v>
       </c>
       <c r="BK34" t="n">
         <v>584856</v>
@@ -7329,13 +7329,13 @@
         <v>0.001926782273603083</v>
       </c>
       <c r="BH35" t="n">
-        <v>180.6666666666667</v>
+        <v>208.2902621722847</v>
       </c>
       <c r="BI35" t="n">
         <v>5819</v>
       </c>
       <c r="BJ35" t="n">
-        <v>18.76666666666667</v>
+        <v>20.48893129770993</v>
       </c>
       <c r="BK35" t="n">
         <v>435159</v>
@@ -7520,13 +7520,13 @@
         <v>0.003419452887537994</v>
       </c>
       <c r="BH36" t="n">
-        <v>227.6666666666667</v>
+        <v>263.844537815126</v>
       </c>
       <c r="BI36" t="n">
         <v>2776.5</v>
       </c>
       <c r="BJ36" t="n">
-        <v>20.56666666666667</v>
+        <v>23.03378891419894</v>
       </c>
       <c r="BK36" t="n">
         <v>501886</v>
@@ -7711,13 +7711,13 @@
         <v>0</v>
       </c>
       <c r="BH37" t="n">
-        <v>412</v>
+        <v>377.6348448687351</v>
       </c>
       <c r="BI37" t="n">
         <v>702.1666666666666</v>
       </c>
       <c r="BJ37" t="n">
-        <v>29.13333333333334</v>
+        <v>29.37785714285714</v>
       </c>
       <c r="BK37" t="n">
         <v>633940</v>
@@ -8093,13 +8093,13 @@
         <v>0.0002279462046956918</v>
       </c>
       <c r="BH39" t="n">
-        <v>210.8</v>
+        <v>212.6535714285714</v>
       </c>
       <c r="BI39" t="n">
         <v>4160.2</v>
       </c>
       <c r="BJ39" t="n">
-        <v>20.96</v>
+        <v>22.29602272727273</v>
       </c>
       <c r="BK39" t="n">
         <v>777125</v>
@@ -8475,13 +8475,13 @@
         <v>0.001421800947867299</v>
       </c>
       <c r="BH41" t="n">
-        <v>211.625</v>
+        <v>205.837019790454</v>
       </c>
       <c r="BI41" t="n">
         <v>4349.75</v>
       </c>
       <c r="BJ41" t="n">
-        <v>18.0875</v>
+        <v>17.54264633546483</v>
       </c>
       <c r="BK41" t="n">
         <v>843170</v>
@@ -8666,13 +8666,13 @@
         <v>0</v>
       </c>
       <c r="BH42" t="n">
-        <v>528</v>
+        <v>496.9411764705882</v>
       </c>
       <c r="BI42" t="n">
         <v>642</v>
       </c>
       <c r="BJ42" t="n">
-        <v>40.5</v>
+        <v>36.95255474452555</v>
       </c>
       <c r="BK42" t="n">
         <v>88503</v>
@@ -8857,13 +8857,13 @@
         <v>0.0005924170616113745</v>
       </c>
       <c r="BH43" t="n">
-        <v>211.6</v>
+        <v>218.5964240102171</v>
       </c>
       <c r="BI43" t="n">
         <v>4875.8</v>
       </c>
       <c r="BJ43" t="n">
-        <v>18.78</v>
+        <v>19.73732274532048</v>
       </c>
       <c r="BK43" t="n">
         <v>694212</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="BH45" t="n">
-        <v>234.5</v>
+        <v>226.1334355828221</v>
       </c>
       <c r="BI45" t="n">
         <v>4739.4</v>
       </c>
       <c r="BJ45" t="n">
-        <v>22.525</v>
+        <v>21.63635107118176</v>
       </c>
       <c r="BK45" t="n">
         <v>662348</v>
@@ -9430,13 +9430,13 @@
         <v>0</v>
       </c>
       <c r="BH46" t="n">
-        <v>353</v>
+        <v>348.4397321428572</v>
       </c>
       <c r="BI46" t="n">
         <v>1592.6</v>
       </c>
       <c r="BJ46" t="n">
-        <v>23.56666666666666</v>
+        <v>23.5803317535545</v>
       </c>
       <c r="BK46" t="n">
         <v>523130</v>
@@ -9621,13 +9621,13 @@
         <v>0</v>
       </c>
       <c r="BH47" t="n">
-        <v>304.2</v>
+        <v>302.6186770428016</v>
       </c>
       <c r="BI47" t="n">
         <v>5550</v>
       </c>
       <c r="BJ47" t="n">
-        <v>26.4</v>
+        <v>25.02813895781638</v>
       </c>
       <c r="BK47" t="n">
         <v>727365</v>
@@ -9812,13 +9812,13 @@
         <v>0.0007785130400934215</v>
       </c>
       <c r="BH48" t="n">
-        <v>317</v>
+        <v>317.3875685557587</v>
       </c>
       <c r="BI48" t="n">
         <v>3091</v>
       </c>
       <c r="BJ48" t="n">
-        <v>23.86666666666666</v>
+        <v>23.72040498442368</v>
       </c>
       <c r="BK48" t="n">
         <v>721394</v>
@@ -10194,13 +10194,13 @@
         <v>0.00364963503649635</v>
       </c>
       <c r="BH50" t="n">
-        <v>395</v>
+        <v>337.9016393442623</v>
       </c>
       <c r="BI50" t="n">
         <v>2223.5</v>
       </c>
       <c r="BJ50" t="n">
-        <v>22</v>
+        <v>22.18823529411765</v>
       </c>
       <c r="BK50" t="n">
         <v>256980</v>
@@ -10385,13 +10385,13 @@
         <v>0</v>
       </c>
       <c r="BH51" t="n">
-        <v>319.5</v>
+        <v>294.0756578947368</v>
       </c>
       <c r="BI51" t="n">
         <v>2800.5</v>
       </c>
       <c r="BJ51" t="n">
-        <v>19.45</v>
+        <v>21.92747909199522</v>
       </c>
       <c r="BK51" t="n">
         <v>227943</v>
@@ -10576,13 +10576,13 @@
         <v>0</v>
       </c>
       <c r="BH52" t="n">
-        <v>255.5</v>
+        <v>269.1860465116279</v>
       </c>
       <c r="BI52" t="n">
         <v>1137</v>
       </c>
       <c r="BJ52" t="n">
-        <v>27.45</v>
+        <v>26.38779069767442</v>
       </c>
       <c r="BK52" t="n">
         <v>111309</v>
@@ -10767,13 +10767,13 @@
         <v>0.0004291845493562232</v>
       </c>
       <c r="BH53" t="n">
-        <v>275.5</v>
+        <v>258.228624535316</v>
       </c>
       <c r="BI53" t="n">
         <v>4148</v>
       </c>
       <c r="BJ53" t="n">
-        <v>21.7</v>
+        <v>21.42618025751073</v>
       </c>
       <c r="BK53" t="n">
         <v>554605</v>
@@ -10958,13 +10958,13 @@
         <v>0</v>
       </c>
       <c r="BH54" t="n">
-        <v>303.5</v>
+        <v>320.6150943396227</v>
       </c>
       <c r="BI54" t="n">
         <v>3354.5</v>
       </c>
       <c r="BJ54" t="n">
-        <v>25.76666666666667</v>
+        <v>23.46333780160858</v>
       </c>
       <c r="BK54" t="n">
         <v>497425</v>
@@ -11149,13 +11149,13 @@
         <v>0</v>
       </c>
       <c r="BH55" t="n">
-        <v>486</v>
+        <v>434.6666666666667</v>
       </c>
       <c r="BI55" t="n">
         <v>443.75</v>
       </c>
       <c r="BJ55" t="n">
-        <v>22.3</v>
+        <v>23.19397993311037</v>
       </c>
       <c r="BK55" t="n">
         <v>149559</v>
@@ -12456,13 +12456,13 @@
         <v>0.001037559659680432</v>
       </c>
       <c r="BH62" t="n">
-        <v>304.5</v>
+        <v>261.1578231292517</v>
       </c>
       <c r="BI62" t="n">
         <v>6806.833333333333</v>
       </c>
       <c r="BJ62" t="n">
-        <v>29.46666666666667</v>
+        <v>29.68533944189921</v>
       </c>
       <c r="BK62" t="n">
         <v>1943944</v>
@@ -12647,13 +12647,13 @@
         <v>0.0003614022406938923</v>
       </c>
       <c r="BH63" t="n">
-        <v>236.3333333333333</v>
+        <v>239.1010719754977</v>
       </c>
       <c r="BI63" t="n">
         <v>6657.333333333333</v>
       </c>
       <c r="BJ63" t="n">
-        <v>22.76666666666667</v>
+        <v>22.90347574221579</v>
       </c>
       <c r="BK63" t="n">
         <v>563682</v>
@@ -12838,13 +12838,13 @@
         <v>0</v>
       </c>
       <c r="BH64" t="n">
-        <v>202</v>
+        <v>200.5394190871369</v>
       </c>
       <c r="BI64" t="n">
         <v>7736.5</v>
       </c>
       <c r="BJ64" t="n">
-        <v>19.275</v>
+        <v>19.31955815464588</v>
       </c>
       <c r="BK64" t="n">
         <v>584592</v>
@@ -13029,13 +13029,13 @@
         <v>0.00192492781520693</v>
       </c>
       <c r="BH65" t="n">
-        <v>172.6666666666667</v>
+        <v>199.065543071161</v>
       </c>
       <c r="BI65" t="n">
         <v>5851</v>
       </c>
       <c r="BJ65" t="n">
-        <v>20.13333333333334</v>
+        <v>20.85071496663489</v>
       </c>
       <c r="BK65" t="n">
         <v>436854</v>
@@ -13220,13 +13220,13 @@
         <v>0.001907668828691339</v>
       </c>
       <c r="BH66" t="n">
-        <v>218.3333333333333</v>
+        <v>253.3776223776224</v>
       </c>
       <c r="BI66" t="n">
         <v>2768.5</v>
       </c>
       <c r="BJ66" t="n">
-        <v>21.76666666666667</v>
+        <v>24.42454268292683</v>
       </c>
       <c r="BK66" t="n">
         <v>503219</v>
@@ -13411,13 +13411,13 @@
         <v>0</v>
       </c>
       <c r="BH67" t="n">
-        <v>404.3333333333333</v>
+        <v>369.425</v>
       </c>
       <c r="BI67" t="n">
         <v>709.6666666666666</v>
       </c>
       <c r="BJ67" t="n">
-        <v>25.375</v>
+        <v>27.78202643171806</v>
       </c>
       <c r="BK67" t="n">
         <v>644139</v>
@@ -13608,7 +13608,7 @@
         <v>68.33333333333333</v>
       </c>
       <c r="BJ68" t="n">
-        <v>18.6</v>
+        <v>14.26</v>
       </c>
       <c r="BK68" t="n">
         <v>214531</v>
@@ -13793,13 +13793,13 @@
         <v>0.0009009009009009009</v>
       </c>
       <c r="BH69" t="n">
-        <v>208</v>
+        <v>204.3065371024735</v>
       </c>
       <c r="BI69" t="n">
         <v>4236.8</v>
       </c>
       <c r="BJ69" t="n">
-        <v>20.8</v>
+        <v>21.86351059230437</v>
       </c>
       <c r="BK69" t="n">
         <v>814680</v>
@@ -14175,13 +14175,13 @@
         <v>0.001636661211129296</v>
       </c>
       <c r="BH71" t="n">
-        <v>204.125</v>
+        <v>198.6180555555555</v>
       </c>
       <c r="BI71" t="n">
         <v>4394.625</v>
       </c>
       <c r="BJ71" t="n">
-        <v>18.1625</v>
+        <v>18.15244552058111</v>
       </c>
       <c r="BK71" t="n">
         <v>835654</v>
@@ -14366,13 +14366,13 @@
         <v>0</v>
       </c>
       <c r="BH72" t="n">
-        <v>504</v>
+        <v>474.3529411764706</v>
       </c>
       <c r="BI72" t="n">
         <v>638</v>
       </c>
       <c r="BJ72" t="n">
-        <v>35.5</v>
+        <v>32.36764705882353</v>
       </c>
       <c r="BK72" t="n">
         <v>90144</v>
@@ -14557,13 +14557,13 @@
         <v>0.0008823529411764706</v>
       </c>
       <c r="BH73" t="n">
-        <v>200</v>
+        <v>206.3769035532995</v>
       </c>
       <c r="BI73" t="n">
         <v>4878.8</v>
       </c>
       <c r="BJ73" t="n">
-        <v>19.46</v>
+        <v>20.17501410039481</v>
       </c>
       <c r="BK73" t="n">
         <v>707886</v>
@@ -14939,13 +14939,13 @@
         <v>0</v>
       </c>
       <c r="BH75" t="n">
-        <v>222.75</v>
+        <v>215.3087557603687</v>
       </c>
       <c r="BI75" t="n">
         <v>4677.2</v>
       </c>
       <c r="BJ75" t="n">
-        <v>22.475</v>
+        <v>21.87220291869354</v>
       </c>
       <c r="BK75" t="n">
         <v>673913</v>
@@ -15130,13 +15130,13 @@
         <v>0.0003913894324853229</v>
       </c>
       <c r="BH76" t="n">
-        <v>340</v>
+        <v>335.3022222222222</v>
       </c>
       <c r="BI76" t="n">
         <v>1616.6</v>
       </c>
       <c r="BJ76" t="n">
-        <v>23.7</v>
+        <v>24.35766823161189</v>
       </c>
       <c r="BK76" t="n">
         <v>561971</v>
@@ -15321,13 +15321,13 @@
         <v>0</v>
       </c>
       <c r="BH77" t="n">
-        <v>289.4</v>
+        <v>287.3880983182406</v>
       </c>
       <c r="BI77" t="n">
         <v>5572.4</v>
       </c>
       <c r="BJ77" t="n">
-        <v>26.34</v>
+        <v>25.41005448241704</v>
       </c>
       <c r="BK77" t="n">
         <v>727912</v>
@@ -15512,13 +15512,13 @@
         <v>0.0007911392405063291</v>
       </c>
       <c r="BH78" t="n">
-        <v>300.6666666666667</v>
+        <v>300.9471766848816</v>
       </c>
       <c r="BI78" t="n">
         <v>3047</v>
       </c>
       <c r="BJ78" t="n">
-        <v>23.76666666666667</v>
+        <v>23.71579778830964</v>
       </c>
       <c r="BK78" t="n">
         <v>751212</v>
@@ -15894,13 +15894,13 @@
         <v>0.001833180568285976</v>
       </c>
       <c r="BH80" t="n">
-        <v>374.5</v>
+        <v>320.6157024793388</v>
       </c>
       <c r="BI80" t="n">
         <v>2188.5</v>
       </c>
       <c r="BJ80" t="n">
-        <v>22.75</v>
+        <v>22.6545</v>
       </c>
       <c r="BK80" t="n">
         <v>248944</v>
@@ -16085,13 +16085,13 @@
         <v>0.002265861027190333</v>
       </c>
       <c r="BH81" t="n">
-        <v>300</v>
+        <v>277.7631578947368</v>
       </c>
       <c r="BI81" t="n">
         <v>2777</v>
       </c>
       <c r="BJ81" t="n">
-        <v>20.7</v>
+        <v>22.98578313253012</v>
       </c>
       <c r="BK81" t="n">
         <v>230332</v>
@@ -16276,13 +16276,13 @@
         <v>0</v>
       </c>
       <c r="BH82" t="n">
-        <v>256</v>
+        <v>286.4615384615385</v>
       </c>
       <c r="BI82" t="n">
         <v>2131.5</v>
       </c>
       <c r="BJ82" t="n">
-        <v>26.75</v>
+        <v>25.73422619047619</v>
       </c>
       <c r="BK82" t="n">
         <v>128917</v>
@@ -16467,13 +16467,13 @@
         <v>0</v>
       </c>
       <c r="BH83" t="n">
-        <v>267</v>
+        <v>250.5996409335727</v>
       </c>
       <c r="BI83" t="n">
         <v>4249.5</v>
       </c>
       <c r="BJ83" t="n">
-        <v>23</v>
+        <v>22.55146443514644</v>
       </c>
       <c r="BK83" t="n">
         <v>575323</v>
@@ -16658,13 +16658,13 @@
         <v>0</v>
       </c>
       <c r="BH84" t="n">
-        <v>310.3333333333333</v>
+        <v>300.3996212121212</v>
       </c>
       <c r="BI84" t="n">
         <v>4863.333333333333</v>
       </c>
       <c r="BJ84" t="n">
-        <v>25.76666666666667</v>
+        <v>24.57926580557444</v>
       </c>
       <c r="BK84" t="n">
         <v>536608</v>
@@ -16849,13 +16849,13 @@
         <v>0.003401360544217687</v>
       </c>
       <c r="BH85" t="n">
-        <v>461.5</v>
+        <v>411.3796296296296</v>
       </c>
       <c r="BI85" t="n">
         <v>453.75</v>
       </c>
       <c r="BJ85" t="n">
-        <v>22.9</v>
+        <v>27.92119205298013</v>
       </c>
       <c r="BK85" t="n">
         <v>160381</v>
@@ -17046,7 +17046,7 @@
         <v>137.5</v>
       </c>
       <c r="BJ86" t="n">
-        <v>12.7</v>
+        <v>7.257142857142857</v>
       </c>
       <c r="BK86" t="n">
         <v>107936</v>
@@ -18156,13 +18156,13 @@
         <v>0.001633653257096181</v>
       </c>
       <c r="BH92" t="n">
-        <v>304.3333333333333</v>
+        <v>260.1676849966055</v>
       </c>
       <c r="BI92" t="n">
         <v>6884.333333333333</v>
       </c>
       <c r="BJ92" t="n">
-        <v>29.58333333333333</v>
+        <v>29.83901639344262</v>
       </c>
       <c r="BK92" t="n">
         <v>1916558</v>
@@ -18347,13 +18347,13 @@
         <v>0.000718132854578097</v>
       </c>
       <c r="BH93" t="n">
-        <v>234.3333333333333</v>
+        <v>236.0076923076923</v>
       </c>
       <c r="BI93" t="n">
         <v>6777.666666666667</v>
       </c>
       <c r="BJ93" t="n">
-        <v>22.86666666666666</v>
+        <v>23.40796269727403</v>
       </c>
       <c r="BK93" t="n">
         <v>545239</v>
@@ -18538,13 +18538,13 @@
         <v>0.0003192848020434228</v>
       </c>
       <c r="BH94" t="n">
-        <v>201.75</v>
+        <v>200.4341926729986</v>
       </c>
       <c r="BI94" t="n">
         <v>7921.5</v>
       </c>
       <c r="BJ94" t="n">
-        <v>19.8</v>
+        <v>19.85725239616614</v>
       </c>
       <c r="BK94" t="n">
         <v>579742</v>
@@ -18729,13 +18729,13 @@
         <v>0.002029426686960933</v>
       </c>
       <c r="BH95" t="n">
-        <v>180.3333333333333</v>
+        <v>200.2178988326848</v>
       </c>
       <c r="BI95" t="n">
         <v>4605.666666666667</v>
       </c>
       <c r="BJ95" t="n">
-        <v>20.26666666666667</v>
+        <v>21.39798387096774</v>
       </c>
       <c r="BK95" t="n">
         <v>445000</v>
@@ -18920,13 +18920,13 @@
         <v>0.002609992542878449</v>
       </c>
       <c r="BH96" t="n">
-        <v>232.25</v>
+        <v>252.8019257221458</v>
       </c>
       <c r="BI96" t="n">
         <v>2766.333333333333</v>
       </c>
       <c r="BJ96" t="n">
-        <v>23.325</v>
+        <v>24.97524235645041</v>
       </c>
       <c r="BK96" t="n">
         <v>499788</v>
@@ -19111,13 +19111,13 @@
         <v>0</v>
       </c>
       <c r="BH97" t="n">
-        <v>397.3333333333333</v>
+        <v>357.8522727272727</v>
       </c>
       <c r="BI97" t="n">
         <v>722.8333333333334</v>
       </c>
       <c r="BJ97" t="n">
-        <v>26.85</v>
+        <v>28.89283246977547</v>
       </c>
       <c r="BK97" t="n">
         <v>622317</v>
@@ -19308,7 +19308,7 @@
         <v>69</v>
       </c>
       <c r="BJ98" t="n">
-        <v>20.9</v>
+        <v>15.32666666666667</v>
       </c>
       <c r="BK98" t="n">
         <v>222007</v>
@@ -19493,13 +19493,13 @@
         <v>0.001114827201783724</v>
       </c>
       <c r="BH99" t="n">
-        <v>211</v>
+        <v>205.3603133159269</v>
       </c>
       <c r="BI99" t="n">
         <v>4291.6</v>
       </c>
       <c r="BJ99" t="n">
-        <v>21.26</v>
+        <v>22.31165381319623</v>
       </c>
       <c r="BK99" t="n">
         <v>807969</v>
@@ -19875,13 +19875,13 @@
         <v>0.001401541695865452</v>
       </c>
       <c r="BH101" t="n">
-        <v>201.125</v>
+        <v>194.5474537037037</v>
       </c>
       <c r="BI101" t="n">
         <v>4420</v>
       </c>
       <c r="BJ101" t="n">
-        <v>18.3375</v>
+        <v>18.47424975798645</v>
       </c>
       <c r="BK101" t="n">
         <v>808380</v>
@@ -20066,13 +20066,13 @@
         <v>0</v>
       </c>
       <c r="BH102" t="n">
-        <v>504</v>
+        <v>474.3529411764706</v>
       </c>
       <c r="BI102" t="n">
         <v>607</v>
       </c>
       <c r="BJ102" t="n">
-        <v>37</v>
+        <v>33.86923076923077</v>
       </c>
       <c r="BK102" t="n">
         <v>86772</v>
@@ -20257,13 +20257,13 @@
         <v>0.0005887547836326171</v>
       </c>
       <c r="BH103" t="n">
-        <v>196.8</v>
+        <v>202.6649874055416</v>
       </c>
       <c r="BI103" t="n">
         <v>4874.6</v>
       </c>
       <c r="BJ103" t="n">
-        <v>19.9</v>
+        <v>20.64051918735892</v>
       </c>
       <c r="BK103" t="n">
         <v>674829</v>
@@ -20639,13 +20639,13 @@
         <v>0</v>
       </c>
       <c r="BH105" t="n">
-        <v>218.25</v>
+        <v>210.5038284839204</v>
       </c>
       <c r="BI105" t="n">
         <v>4723</v>
       </c>
       <c r="BJ105" t="n">
-        <v>22.8</v>
+        <v>22.17773949000689</v>
       </c>
       <c r="BK105" t="n">
         <v>659568</v>
@@ -20830,13 +20830,13 @@
         <v>0</v>
       </c>
       <c r="BH106" t="n">
-        <v>335.6666666666667</v>
+        <v>330.6940133037694</v>
       </c>
       <c r="BI106" t="n">
         <v>1631.6</v>
       </c>
       <c r="BJ106" t="n">
-        <v>24.525</v>
+        <v>25.13678516228748</v>
       </c>
       <c r="BK106" t="n">
         <v>546297</v>
@@ -21021,13 +21021,13 @@
         <v>0</v>
       </c>
       <c r="BH107" t="n">
-        <v>281.6</v>
+        <v>280.1034928848642</v>
       </c>
       <c r="BI107" t="n">
         <v>5548.2</v>
       </c>
       <c r="BJ107" t="n">
-        <v>26.92</v>
+        <v>25.97055610724926</v>
       </c>
       <c r="BK107" t="n">
         <v>719650</v>
@@ -21212,13 +21212,13 @@
         <v>0.0003976143141153082</v>
       </c>
       <c r="BH108" t="n">
-        <v>296.3333333333333</v>
+        <v>296.3970856102003</v>
       </c>
       <c r="BI108" t="n">
         <v>3032.75</v>
       </c>
       <c r="BJ108" t="n">
-        <v>24.33333333333333</v>
+        <v>24.31230158730159</v>
       </c>
       <c r="BK108" t="n">
         <v>735173</v>
@@ -21594,13 +21594,13 @@
         <v>0.003676470588235294</v>
       </c>
       <c r="BH110" t="n">
-        <v>373</v>
+        <v>318.1239669421487</v>
       </c>
       <c r="BI110" t="n">
         <v>2183.5</v>
       </c>
       <c r="BJ110" t="n">
-        <v>23.7</v>
+        <v>23.50753768844221</v>
       </c>
       <c r="BK110" t="n">
         <v>245745</v>
@@ -21785,13 +21785,13 @@
         <v>0.0007616146230007616</v>
       </c>
       <c r="BH111" t="n">
-        <v>295.5</v>
+        <v>273.6907894736842</v>
       </c>
       <c r="BI111" t="n">
         <v>2757</v>
       </c>
       <c r="BJ111" t="n">
-        <v>21.3</v>
+        <v>23.66792223572297</v>
       </c>
       <c r="BK111" t="n">
         <v>226639</v>
@@ -21976,13 +21976,13 @@
         <v>0</v>
       </c>
       <c r="BH112" t="n">
-        <v>263.5</v>
+        <v>301.1146496815286</v>
       </c>
       <c r="BI112" t="n">
         <v>2572</v>
       </c>
       <c r="BJ112" t="n">
-        <v>27.4</v>
+        <v>26.73480392156863</v>
       </c>
       <c r="BK112" t="n">
         <v>143279</v>
@@ -22167,13 +22167,13 @@
         <v>0</v>
       </c>
       <c r="BH113" t="n">
-        <v>261.5</v>
+        <v>245.4491978609626</v>
       </c>
       <c r="BI113" t="n">
         <v>4330.5</v>
       </c>
       <c r="BJ113" t="n">
-        <v>23.35</v>
+        <v>22.88843314191961</v>
       </c>
       <c r="BK113" t="n">
         <v>546942</v>
@@ -22358,13 +22358,13 @@
         <v>0</v>
       </c>
       <c r="BH114" t="n">
-        <v>308.6666666666667</v>
+        <v>299.2321755027422</v>
       </c>
       <c r="BI114" t="n">
         <v>5001.666666666667</v>
       </c>
       <c r="BJ114" t="n">
-        <v>26.03333333333333</v>
+        <v>24.93164806303349</v>
       </c>
       <c r="BK114" t="n">
         <v>535958</v>
@@ -22549,13 +22549,13 @@
         <v>0.003502626970227671</v>
       </c>
       <c r="BH115" t="n">
-        <v>448</v>
+        <v>371.2</v>
       </c>
       <c r="BI115" t="n">
         <v>437.25</v>
       </c>
       <c r="BJ115" t="n">
-        <v>26.26666666666667</v>
+        <v>28.30309278350515</v>
       </c>
       <c r="BK115" t="n">
         <v>155867</v>
@@ -22746,7 +22746,7 @@
         <v>140.5</v>
       </c>
       <c r="BJ116" t="n">
-        <v>14.1</v>
+        <v>8.011363636363637</v>
       </c>
       <c r="BK116" t="n">
         <v>114176</v>
@@ -23856,13 +23856,13 @@
         <v>0.001818916734033953</v>
       </c>
       <c r="BH122" t="n">
-        <v>284.8333333333333</v>
+        <v>242.741896107419</v>
       </c>
       <c r="BI122" t="n">
         <v>7018</v>
       </c>
       <c r="BJ122" t="n">
-        <v>29.98333333333333</v>
+        <v>30.25639983746445</v>
       </c>
       <c r="BK122" t="n">
         <v>1870183</v>
@@ -24047,13 +24047,13 @@
         <v>0.0007158196134574087</v>
       </c>
       <c r="BH123" t="n">
-        <v>219.3333333333333</v>
+        <v>221.2726423902895</v>
       </c>
       <c r="BI123" t="n">
         <v>6823</v>
       </c>
       <c r="BJ123" t="n">
-        <v>23.73333333333333</v>
+        <v>23.97240143369176</v>
       </c>
       <c r="BK123" t="n">
         <v>560353</v>
@@ -24238,13 +24238,13 @@
         <v>0.0006426735218508997</v>
       </c>
       <c r="BH124" t="n">
-        <v>187.75</v>
+        <v>186.5406788793103</v>
       </c>
       <c r="BI124" t="n">
         <v>7867.25</v>
       </c>
       <c r="BJ124" t="n">
-        <v>20.3</v>
+        <v>20.37490347490348</v>
       </c>
       <c r="BK124" t="n">
         <v>572871</v>
@@ -24429,13 +24429,13 @@
         <v>0.002497502497502498</v>
       </c>
       <c r="BH125" t="n">
-        <v>167</v>
+        <v>184.1452959028832</v>
       </c>
       <c r="BI125" t="n">
         <v>5078</v>
       </c>
       <c r="BJ125" t="n">
-        <v>20.26666666666667</v>
+        <v>21.13168316831683</v>
       </c>
       <c r="BK125" t="n">
         <v>454047</v>
@@ -24620,13 +24620,13 @@
         <v>0.002574475910261125</v>
       </c>
       <c r="BH126" t="n">
-        <v>204.5</v>
+        <v>231.783798576902</v>
       </c>
       <c r="BI126" t="n">
         <v>3398.8</v>
       </c>
       <c r="BJ126" t="n">
-        <v>22.95</v>
+        <v>24.75453874538745</v>
       </c>
       <c r="BK126" t="n">
         <v>500423</v>
@@ -24811,13 +24811,13 @@
         <v>0</v>
       </c>
       <c r="BH127" t="n">
-        <v>367.6666666666667</v>
+        <v>330.3848937132519</v>
       </c>
       <c r="BI127" t="n">
         <v>718.3333333333334</v>
       </c>
       <c r="BJ127" t="n">
-        <v>26.525</v>
+        <v>29.18264248704663</v>
       </c>
       <c r="BK127" t="n">
         <v>608159</v>
@@ -25008,7 +25008,7 @@
         <v>73.33333333333333</v>
       </c>
       <c r="BJ128" t="n">
-        <v>20.1</v>
+        <v>14.91290322580645</v>
       </c>
       <c r="BK128" t="n">
         <v>174736</v>
@@ -25193,13 +25193,13 @@
         <v>0.00088261253309797</v>
       </c>
       <c r="BH129" t="n">
-        <v>195</v>
+        <v>188.2072147651007</v>
       </c>
       <c r="BI129" t="n">
         <v>4376.4</v>
       </c>
       <c r="BJ129" t="n">
-        <v>21.9</v>
+        <v>23.02473483241409</v>
       </c>
       <c r="BK129" t="n">
         <v>807179</v>
@@ -25575,13 +25575,13 @@
         <v>0.001413427561837456</v>
       </c>
       <c r="BH131" t="n">
-        <v>187.375</v>
+        <v>183.2897565255539</v>
       </c>
       <c r="BI131" t="n">
         <v>4379.375</v>
       </c>
       <c r="BJ131" t="n">
-        <v>18.5125</v>
+        <v>18.56684596577017</v>
       </c>
       <c r="BK131" t="n">
         <v>805142</v>
@@ -25766,13 +25766,13 @@
         <v>0.01083032490974729</v>
       </c>
       <c r="BH132" t="n">
-        <v>450</v>
+        <v>420.2334630350194</v>
       </c>
       <c r="BI132" t="n">
         <v>648.5</v>
       </c>
       <c r="BJ132" t="n">
-        <v>34.8</v>
+        <v>32.49705882352941</v>
       </c>
       <c r="BK132" t="n">
         <v>89776</v>
@@ -25957,13 +25957,13 @@
         <v>0.001186591515870662</v>
       </c>
       <c r="BH133" t="n">
-        <v>184.6</v>
+        <v>189.6668369954011</v>
       </c>
       <c r="BI133" t="n">
         <v>4829.4</v>
       </c>
       <c r="BJ133" t="n">
-        <v>19.96</v>
+        <v>20.75293113261241</v>
       </c>
       <c r="BK133" t="n">
         <v>664116</v>
@@ -26339,13 +26339,13 @@
         <v>0</v>
       </c>
       <c r="BH135" t="n">
-        <v>201.25</v>
+        <v>193.992053789731</v>
       </c>
       <c r="BI135" t="n">
         <v>4637</v>
       </c>
       <c r="BJ135" t="n">
-        <v>22.975</v>
+        <v>22.35838552540014</v>
       </c>
       <c r="BK135" t="n">
         <v>654089</v>
@@ -26530,13 +26530,13 @@
         <v>0.0003824091778202677</v>
       </c>
       <c r="BH136" t="n">
-        <v>316.3333333333333</v>
+        <v>311.9729370008873</v>
       </c>
       <c r="BI136" t="n">
         <v>1647.6</v>
       </c>
       <c r="BJ136" t="n">
-        <v>24.15</v>
+        <v>25.28913542463657</v>
       </c>
       <c r="BK136" t="n">
         <v>546609</v>
@@ -26721,13 +26721,13 @@
         <v>0</v>
       </c>
       <c r="BH137" t="n">
-        <v>260.8</v>
+        <v>259.7312467666839</v>
       </c>
       <c r="BI137" t="n">
         <v>5474.2</v>
       </c>
       <c r="BJ137" t="n">
-        <v>27.12</v>
+        <v>26.27340319361278</v>
       </c>
       <c r="BK137" t="n">
         <v>709016</v>
@@ -26912,13 +26912,13 @@
         <v>0</v>
       </c>
       <c r="BH138" t="n">
-        <v>273.6666666666667</v>
+        <v>273.9104748097137</v>
       </c>
       <c r="BI138" t="n">
         <v>3029</v>
       </c>
       <c r="BJ138" t="n">
-        <v>24.7</v>
+        <v>24.78671439936356</v>
       </c>
       <c r="BK138" t="n">
         <v>736734</v>
@@ -27294,13 +27294,13 @@
         <v>0</v>
       </c>
       <c r="BH140" t="n">
-        <v>347.5</v>
+        <v>294.7193708609271</v>
       </c>
       <c r="BI140" t="n">
         <v>2103</v>
       </c>
       <c r="BJ140" t="n">
-        <v>23.4</v>
+        <v>23.52538860103627</v>
       </c>
       <c r="BK140" t="n">
         <v>243936</v>
@@ -27485,13 +27485,13 @@
         <v>0.0007704160246533128</v>
       </c>
       <c r="BH141" t="n">
-        <v>273</v>
+        <v>256.5291536050157</v>
       </c>
       <c r="BI141" t="n">
         <v>2730.5</v>
       </c>
       <c r="BJ141" t="n">
-        <v>21.6</v>
+        <v>23.95294117647059</v>
       </c>
       <c r="BK141" t="n">
         <v>219883</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="BH142" t="n">
-        <v>255.5</v>
+        <v>298.6544502617801</v>
       </c>
       <c r="BI142" t="n">
         <v>3046.5</v>
       </c>
       <c r="BJ142" t="n">
-        <v>27.25</v>
+        <v>26.73429752066116</v>
       </c>
       <c r="BK142" t="n">
         <v>150412</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="BH143" t="n">
-        <v>241.5</v>
+        <v>226.6542948038176</v>
       </c>
       <c r="BI143" t="n">
         <v>4380.5</v>
       </c>
       <c r="BJ143" t="n">
-        <v>23.7</v>
+        <v>23.21766612641815</v>
       </c>
       <c r="BK143" t="n">
         <v>543439</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="BH144" t="n">
-        <v>291.6666666666667</v>
+        <v>283.12402551382</v>
       </c>
       <c r="BI144" t="n">
         <v>5235</v>
       </c>
       <c r="BJ144" t="n">
-        <v>26.36666666666666</v>
+        <v>25.30282051282051</v>
       </c>
       <c r="BK144" t="n">
         <v>533649</v>
@@ -28249,13 +28249,13 @@
         <v>0</v>
       </c>
       <c r="BH145" t="n">
-        <v>414</v>
+        <v>348.8854368932039</v>
       </c>
       <c r="BI145" t="n">
         <v>426.25</v>
       </c>
       <c r="BJ145" t="n">
-        <v>25.76666666666667</v>
+        <v>28.7556338028169</v>
       </c>
       <c r="BK145" t="n">
         <v>152624</v>
@@ -28446,7 +28446,7 @@
         <v>135.5</v>
       </c>
       <c r="BJ146" t="n">
-        <v>16.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BK146" t="n">
         <v>117651</v>
@@ -29556,13 +29556,13 @@
         <v>0.001410721483272874</v>
       </c>
       <c r="BH152" t="n">
-        <v>268.5</v>
+        <v>227.7051728759046</v>
       </c>
       <c r="BI152" t="n">
         <v>7041.666666666667</v>
       </c>
       <c r="BJ152" t="n">
-        <v>30.71666666666667</v>
+        <v>30.90502024291498</v>
       </c>
       <c r="BK152" t="n">
         <v>1841992</v>
@@ -29747,13 +29747,13 @@
         <v>0.0003531073446327684</v>
       </c>
       <c r="BH153" t="n">
-        <v>205</v>
+        <v>208.3160762942779</v>
       </c>
       <c r="BI153" t="n">
         <v>6937</v>
       </c>
       <c r="BJ153" t="n">
-        <v>24.1</v>
+        <v>24.45381355932203</v>
       </c>
       <c r="BK153" t="n">
         <v>529000</v>
@@ -29938,13 +29938,13 @@
         <v>0.0003208213025344883</v>
       </c>
       <c r="BH154" t="n">
-        <v>175.5</v>
+        <v>174.3162853297443</v>
       </c>
       <c r="BI154" t="n">
         <v>7885.75</v>
       </c>
       <c r="BJ154" t="n">
-        <v>20.625</v>
+        <v>20.72059012187299</v>
       </c>
       <c r="BK154" t="n">
         <v>555342</v>
@@ -30129,13 +30129,13 @@
         <v>0.003373493975903614</v>
       </c>
       <c r="BH155" t="n">
-        <v>158.3333333333333</v>
+        <v>172.3063432835821</v>
       </c>
       <c r="BI155" t="n">
         <v>5679</v>
       </c>
       <c r="BJ155" t="n">
-        <v>20.33333333333333</v>
+        <v>21.4829035339064</v>
       </c>
       <c r="BK155" t="n">
         <v>444277</v>
@@ -30320,13 +30320,13 @@
         <v>0.002539912917271408</v>
       </c>
       <c r="BH156" t="n">
-        <v>204</v>
+        <v>219.8651289009498</v>
       </c>
       <c r="BI156" t="n">
         <v>2891.5</v>
       </c>
       <c r="BJ156" t="n">
-        <v>23.475</v>
+        <v>25.48917937545389</v>
       </c>
       <c r="BK156" t="n">
         <v>494594</v>
@@ -30511,13 +30511,13 @@
         <v>0.0004308487720809996</v>
       </c>
       <c r="BH157" t="n">
-        <v>345.3333333333333</v>
+        <v>311.8912550974173</v>
       </c>
       <c r="BI157" t="n">
         <v>720.6666666666666</v>
       </c>
       <c r="BJ157" t="n">
-        <v>28.125</v>
+        <v>29.96194158075602</v>
       </c>
       <c r="BK157" t="n">
         <v>606133</v>
@@ -30708,7 +30708,7 @@
         <v>66.33333333333333</v>
       </c>
       <c r="BJ158" t="n">
-        <v>24.6</v>
+        <v>19.51034482758621</v>
       </c>
       <c r="BK158" t="n">
         <v>197193</v>
@@ -30893,13 +30893,13 @@
         <v>0.0006635700066357001</v>
       </c>
       <c r="BH159" t="n">
-        <v>182.4</v>
+        <v>175.1915841584158</v>
       </c>
       <c r="BI159" t="n">
         <v>4360.2</v>
       </c>
       <c r="BJ159" t="n">
-        <v>22.72</v>
+        <v>23.89480630055343</v>
       </c>
       <c r="BK159" t="n">
         <v>756822</v>
@@ -31275,13 +31275,13 @@
         <v>0.001890359168241966</v>
       </c>
       <c r="BH161" t="n">
-        <v>175.5</v>
+        <v>172.1515484296069</v>
       </c>
       <c r="BI161" t="n">
         <v>4360.25</v>
       </c>
       <c r="BJ161" t="n">
-        <v>18.925</v>
+        <v>18.91050049067713</v>
       </c>
       <c r="BK161" t="n">
         <v>779343</v>
@@ -31466,13 +31466,13 @@
         <v>0.006451612903225806</v>
       </c>
       <c r="BH162" t="n">
-        <v>437</v>
+        <v>414.2395833333333</v>
       </c>
       <c r="BI162" t="n">
         <v>726</v>
       </c>
       <c r="BJ162" t="n">
-        <v>38.4</v>
+        <v>36.12631578947369</v>
       </c>
       <c r="BK162" t="n">
         <v>95922</v>
@@ -31657,13 +31657,13 @@
         <v>0.0008973975471133712</v>
       </c>
       <c r="BH163" t="n">
-        <v>175</v>
+        <v>179.6008551307847</v>
       </c>
       <c r="BI163" t="n">
         <v>4786.6</v>
       </c>
       <c r="BJ163" t="n">
-        <v>20.2</v>
+        <v>21.02744533947066</v>
       </c>
       <c r="BK163" t="n">
         <v>654294</v>
@@ -32039,13 +32039,13 @@
         <v>0</v>
       </c>
       <c r="BH165" t="n">
-        <v>189.5</v>
+        <v>182.5990839694657</v>
       </c>
       <c r="BI165" t="n">
         <v>4652.4</v>
       </c>
       <c r="BJ165" t="n">
-        <v>23.275</v>
+        <v>22.63456189151599</v>
       </c>
       <c r="BK165" t="n">
         <v>629443</v>
@@ -32230,13 +32230,13 @@
         <v>0.0003824091778202677</v>
       </c>
       <c r="BH166" t="n">
-        <v>300.6666666666667</v>
+        <v>297.739902352419</v>
       </c>
       <c r="BI166" t="n">
         <v>2052.25</v>
       </c>
       <c r="BJ166" t="n">
-        <v>24.025</v>
+        <v>25.73199691595991</v>
       </c>
       <c r="BK166" t="n">
         <v>557433</v>
@@ -32421,13 +32421,13 @@
         <v>0.0002529724260055654</v>
       </c>
       <c r="BH167" t="n">
-        <v>244.8</v>
+        <v>243.8755175983437</v>
       </c>
       <c r="BI167" t="n">
         <v>5447.2</v>
       </c>
       <c r="BJ167" t="n">
-        <v>27.62</v>
+        <v>26.85679197994988</v>
       </c>
       <c r="BK167" t="n">
         <v>675447</v>
@@ -32612,13 +32612,13 @@
         <v>0.0007974481658692185</v>
       </c>
       <c r="BH168" t="n">
-        <v>256</v>
+        <v>255.9254322766571</v>
       </c>
       <c r="BI168" t="n">
         <v>3034</v>
       </c>
       <c r="BJ168" t="n">
-        <v>25.16666666666667</v>
+        <v>25.21185361972951</v>
       </c>
       <c r="BK168" t="n">
         <v>704929</v>
@@ -32994,13 +32994,13 @@
         <v>0.0009487666034155598</v>
       </c>
       <c r="BH170" t="n">
-        <v>324</v>
+        <v>275.4341342170671</v>
       </c>
       <c r="BI170" t="n">
         <v>2101</v>
       </c>
       <c r="BJ170" t="n">
-        <v>23.9</v>
+        <v>24.08620689655172</v>
       </c>
       <c r="BK170" t="n">
         <v>242688</v>
@@ -33185,13 +33185,13 @@
         <v>0.0007727975270479134</v>
       </c>
       <c r="BH171" t="n">
-        <v>254.5</v>
+        <v>238.6521197007481</v>
       </c>
       <c r="BI171" t="n">
         <v>2715</v>
       </c>
       <c r="BJ171" t="n">
-        <v>24.8</v>
+        <v>25.09189189189189</v>
       </c>
       <c r="BK171" t="n">
         <v>219138</v>
@@ -33376,13 +33376,13 @@
         <v>0</v>
       </c>
       <c r="BH172" t="n">
-        <v>240</v>
+        <v>279.6613065326633</v>
       </c>
       <c r="BI172" t="n">
         <v>3331</v>
       </c>
       <c r="BJ172" t="n">
-        <v>27.55</v>
+        <v>26.86037735849057</v>
       </c>
       <c r="BK172" t="n">
         <v>147333</v>
@@ -33567,13 +33567,13 @@
         <v>0.0008173273395995096</v>
       </c>
       <c r="BH173" t="n">
-        <v>223.5</v>
+        <v>211.6750353606789</v>
       </c>
       <c r="BI173" t="n">
         <v>4336</v>
       </c>
       <c r="BJ173" t="n">
-        <v>24.25</v>
+        <v>23.72532786885246</v>
       </c>
       <c r="BK173" t="n">
         <v>537932</v>
@@ -33758,13 +33758,13 @@
         <v>0.0003145643284051588</v>
       </c>
       <c r="BH174" t="n">
-        <v>276.3333333333333</v>
+        <v>266.7208067940552</v>
       </c>
       <c r="BI174" t="n">
         <v>3929.5</v>
       </c>
       <c r="BJ174" t="n">
-        <v>26.86666666666666</v>
+        <v>25.67699171446781</v>
       </c>
       <c r="BK174" t="n">
         <v>521446</v>
@@ -33949,13 +33949,13 @@
         <v>0.001773049645390071</v>
       </c>
       <c r="BH175" t="n">
-        <v>386</v>
+        <v>325.2893203883495</v>
       </c>
       <c r="BI175" t="n">
         <v>424.25</v>
       </c>
       <c r="BJ175" t="n">
-        <v>32.45</v>
+        <v>28.01872791519435</v>
       </c>
       <c r="BK175" t="n">
         <v>150082</v>
@@ -34146,7 +34146,7 @@
         <v>123.5</v>
       </c>
       <c r="BJ176" t="n">
-        <v>17.8</v>
+        <v>10.68</v>
       </c>
       <c r="BK176" t="n">
         <v>109349</v>
@@ -35256,13 +35256,13 @@
         <v>0.001602564102564103</v>
       </c>
       <c r="BH182" t="n">
-        <v>264</v>
+        <v>222.2488952430465</v>
       </c>
       <c r="BI182" t="n">
         <v>7072.833333333333</v>
       </c>
       <c r="BJ182" t="n">
-        <v>32.21666666666667</v>
+        <v>32.64444444444445</v>
       </c>
       <c r="BK182" t="n">
         <v>1799414</v>
@@ -35447,13 +35447,13 @@
         <v>0.0003453038674033149</v>
       </c>
       <c r="BH183" t="n">
-        <v>201.3333333333333</v>
+        <v>208.2848046309696</v>
       </c>
       <c r="BI183" t="n">
         <v>7026.333333333333</v>
       </c>
       <c r="BJ183" t="n">
-        <v>26.06666666666667</v>
+        <v>26.68189357290947</v>
       </c>
       <c r="BK183" t="n">
         <v>521172</v>
@@ -35638,13 +35638,13 @@
         <v>0.0009572431397574984</v>
       </c>
       <c r="BH184" t="n">
-        <v>171.25</v>
+        <v>169.9556742323097</v>
       </c>
       <c r="BI184" t="n">
         <v>7920</v>
       </c>
       <c r="BJ184" t="n">
-        <v>21.825</v>
+        <v>21.91660280970626</v>
       </c>
       <c r="BK184" t="n">
         <v>544833</v>
@@ -35829,13 +35829,13 @@
         <v>0.003894839337877313</v>
       </c>
       <c r="BH185" t="n">
-        <v>155</v>
+        <v>167.1682173427614</v>
       </c>
       <c r="BI185" t="n">
         <v>5692.333333333333</v>
       </c>
       <c r="BJ185" t="n">
-        <v>21.16666666666667</v>
+        <v>22.59062801932367</v>
       </c>
       <c r="BK185" t="n">
         <v>453212</v>
@@ -36020,13 +36020,13 @@
         <v>0.001449275362318841</v>
       </c>
       <c r="BH186" t="n">
-        <v>199.25</v>
+        <v>212.9986541049798</v>
       </c>
       <c r="BI186" t="n">
         <v>3494.2</v>
       </c>
       <c r="BJ186" t="n">
-        <v>24.6</v>
+        <v>26.72489114658926</v>
       </c>
       <c r="BK186" t="n">
         <v>479889</v>
@@ -36211,13 +36211,13 @@
         <v>0</v>
       </c>
       <c r="BH187" t="n">
-        <v>338.3333333333333</v>
+        <v>305.1047404063206</v>
       </c>
       <c r="BI187" t="n">
         <v>720</v>
       </c>
       <c r="BJ187" t="n">
-        <v>32.3</v>
+        <v>31.53743545611016</v>
       </c>
       <c r="BK187" t="n">
         <v>594460</v>
@@ -36408,7 +36408,7 @@
         <v>67.66666666666667</v>
       </c>
       <c r="BJ188" t="n">
-        <v>25.5</v>
+        <v>20.4</v>
       </c>
       <c r="BK188" t="n">
         <v>194513</v>
@@ -36593,13 +36593,13 @@
         <v>0.0008770006577504934</v>
       </c>
       <c r="BH189" t="n">
-        <v>177</v>
+        <v>169.9428347689898</v>
       </c>
       <c r="BI189" t="n">
         <v>4404.8</v>
       </c>
       <c r="BJ189" t="n">
-        <v>23.62</v>
+        <v>25.12764879696074</v>
       </c>
       <c r="BK189" t="n">
         <v>737951</v>
@@ -36975,13 +36975,13 @@
         <v>0.001422137947380896</v>
       </c>
       <c r="BH191" t="n">
-        <v>172</v>
+        <v>169.6954903677758</v>
       </c>
       <c r="BI191" t="n">
         <v>4350</v>
       </c>
       <c r="BJ191" t="n">
-        <v>19.5625</v>
+        <v>19.44645669291339</v>
       </c>
       <c r="BK191" t="n">
         <v>749867</v>
@@ -37166,13 +37166,13 @@
         <v>0.003225806451612903</v>
       </c>
       <c r="BH192" t="n">
-        <v>444</v>
+        <v>422.019801980198</v>
       </c>
       <c r="BI192" t="n">
         <v>742</v>
       </c>
       <c r="BJ192" t="n">
-        <v>40.3</v>
+        <v>38.46818181818181</v>
       </c>
       <c r="BK192" t="n">
         <v>104093</v>
@@ -37357,13 +37357,13 @@
         <v>0.0008995502248875562</v>
       </c>
       <c r="BH193" t="n">
-        <v>175</v>
+        <v>179.5476907630522</v>
       </c>
       <c r="BI193" t="n">
         <v>4774.2</v>
       </c>
       <c r="BJ193" t="n">
-        <v>20.72</v>
+        <v>21.55698677400805</v>
       </c>
       <c r="BK193" t="n">
         <v>623322</v>
@@ -37739,13 +37739,13 @@
         <v>0</v>
       </c>
       <c r="BH195" t="n">
-        <v>186.75</v>
+        <v>180.1306471306471</v>
       </c>
       <c r="BI195" t="n">
         <v>4655</v>
       </c>
       <c r="BJ195" t="n">
-        <v>24</v>
+        <v>23.42204450625869</v>
       </c>
       <c r="BK195" t="n">
         <v>604117</v>
@@ -37930,13 +37930,13 @@
         <v>0.0003812428516965307</v>
       </c>
       <c r="BH196" t="n">
-        <v>295.6666666666667</v>
+        <v>291.9859030837005</v>
       </c>
       <c r="BI196" t="n">
         <v>1652</v>
       </c>
       <c r="BJ196" t="n">
-        <v>26.025</v>
+        <v>27.31400153022188</v>
       </c>
       <c r="BK196" t="n">
         <v>544553</v>
@@ -38121,13 +38121,13 @@
         <v>0.0002547770700636942</v>
       </c>
       <c r="BH197" t="n">
-        <v>240.8</v>
+        <v>239.6124710126256</v>
       </c>
       <c r="BI197" t="n">
         <v>5414.2</v>
       </c>
       <c r="BJ197" t="n">
-        <v>28.7</v>
+        <v>28.08009095502779</v>
       </c>
       <c r="BK197" t="n">
         <v>668469</v>
@@ -38312,13 +38312,13 @@
         <v>0</v>
       </c>
       <c r="BH198" t="n">
-        <v>250</v>
+        <v>250.0447868147617</v>
       </c>
       <c r="BI198" t="n">
         <v>3019.25</v>
       </c>
       <c r="BJ198" t="n">
-        <v>26.13333333333334</v>
+        <v>26.21292897047087</v>
       </c>
       <c r="BK198" t="n">
         <v>680034</v>
@@ -38694,13 +38694,13 @@
         <v>0.0009596928982725527</v>
       </c>
       <c r="BH200" t="n">
-        <v>317.5</v>
+        <v>269.1466445733223</v>
       </c>
       <c r="BI200" t="n">
         <v>2088</v>
       </c>
       <c r="BJ200" t="n">
-        <v>25.45</v>
+        <v>25.41934369602764</v>
       </c>
       <c r="BK200" t="n">
         <v>230639</v>
@@ -38885,13 +38885,13 @@
         <v>0</v>
       </c>
       <c r="BH201" t="n">
-        <v>243.5</v>
+        <v>234.7486068111455</v>
       </c>
       <c r="BI201" t="n">
         <v>2680</v>
       </c>
       <c r="BJ201" t="n">
-        <v>26.8</v>
+        <v>26.7273631840796</v>
       </c>
       <c r="BK201" t="n">
         <v>192129</v>
@@ -39076,13 +39076,13 @@
         <v>0</v>
       </c>
       <c r="BH202" t="n">
-        <v>237</v>
+        <v>277.6116504854369</v>
       </c>
       <c r="BI202" t="n">
         <v>3542</v>
       </c>
       <c r="BJ202" t="n">
-        <v>29.15</v>
+        <v>28.1953982300885</v>
       </c>
       <c r="BK202" t="n">
         <v>149352</v>
@@ -39267,13 +39267,13 @@
         <v>0.001221498371335505</v>
       </c>
       <c r="BH203" t="n">
-        <v>219.5</v>
+        <v>207.9918641669614</v>
       </c>
       <c r="BI203" t="n">
         <v>4361.5</v>
       </c>
       <c r="BJ203" t="n">
-        <v>25.4</v>
+        <v>24.74955175224124</v>
       </c>
       <c r="BK203" t="n">
         <v>526317</v>
@@ -39458,13 +39458,13 @@
         <v>0</v>
       </c>
       <c r="BH204" t="n">
-        <v>268</v>
+        <v>261.2720510095643</v>
       </c>
       <c r="BI204" t="n">
         <v>5263.333333333333</v>
       </c>
       <c r="BJ204" t="n">
-        <v>27.8</v>
+        <v>26.76012738853503</v>
       </c>
       <c r="BK204" t="n">
         <v>513107</v>
@@ -39649,13 +39649,13 @@
         <v>0.001795332136445242</v>
       </c>
       <c r="BH205" t="n">
-        <v>378</v>
+        <v>307.6578947368421</v>
       </c>
       <c r="BI205" t="n">
         <v>421</v>
       </c>
       <c r="BJ205" t="n">
-        <v>33.84999999999999</v>
+        <v>29.23642857142857</v>
       </c>
       <c r="BK205" t="n">
         <v>141190</v>
@@ -39846,7 +39846,7 @@
         <v>139</v>
       </c>
       <c r="BJ206" t="n">
-        <v>19.7</v>
+        <v>11.25714285714286</v>
       </c>
       <c r="BK206" t="n">
         <v>133614</v>
@@ -40216,13 +40216,13 @@
         <v>0</v>
       </c>
       <c r="BH208" t="n">
-        <v>225.5</v>
+        <v>240.2058047493404</v>
       </c>
       <c r="BI208" t="n">
         <v>723</v>
       </c>
       <c r="BJ208" t="n">
-        <v>23.45</v>
+        <v>23.51897106109325</v>
       </c>
       <c r="BK208" t="n">
         <v>153809</v>
@@ -40598,13 +40598,13 @@
         <v>0.00365764447695684</v>
       </c>
       <c r="BH210" t="n">
-        <v>363.6666666666667</v>
+        <v>292.2377701934016</v>
       </c>
       <c r="BI210" t="n">
         <v>615.8</v>
       </c>
       <c r="BJ210" t="n">
-        <v>24.525</v>
+        <v>23.04814814814815</v>
       </c>
       <c r="BK210" t="n">
         <v>379000</v>
@@ -40974,13 +40974,13 @@
         <v>0.001381760757994473</v>
       </c>
       <c r="BH212" t="n">
-        <v>281.1666666666667</v>
+        <v>234.3905415713196</v>
       </c>
       <c r="BI212" t="n">
         <v>7275.333333333333</v>
       </c>
       <c r="BJ212" t="n">
-        <v>32.81666666666667</v>
+        <v>33.14101547005156</v>
       </c>
       <c r="BK212" t="n">
         <v>1817091</v>
@@ -41165,13 +41165,13 @@
         <v>0.0006868131868131869</v>
       </c>
       <c r="BH213" t="n">
-        <v>210.3333333333333</v>
+        <v>217.7978298115363</v>
       </c>
       <c r="BI213" t="n">
         <v>7023.333333333333</v>
       </c>
       <c r="BJ213" t="n">
-        <v>27.7</v>
+        <v>27.88041237113402</v>
       </c>
       <c r="BK213" t="n">
         <v>507494</v>
@@ -41356,13 +41356,13 @@
         <v>0</v>
       </c>
       <c r="BH214" t="n">
-        <v>178.25</v>
+        <v>178.1786367197702</v>
       </c>
       <c r="BI214" t="n">
         <v>8224</v>
       </c>
       <c r="BJ214" t="n">
-        <v>21.85</v>
+        <v>21.95220447284345</v>
       </c>
       <c r="BK214" t="n">
         <v>542722</v>
@@ -41547,13 +41547,13 @@
         <v>0.006240998559769563</v>
       </c>
       <c r="BH215" t="n">
-        <v>164.3333333333333</v>
+        <v>175.8114663726571</v>
       </c>
       <c r="BI215" t="n">
         <v>6007.333333333333</v>
       </c>
       <c r="BJ215" t="n">
-        <v>21.53333333333333</v>
+        <v>23.09265267175573</v>
       </c>
       <c r="BK215" t="n">
         <v>422314</v>
@@ -41738,13 +41738,13 @@
         <v>0.001078748651564185</v>
       </c>
       <c r="BH216" t="n">
-        <v>218.5</v>
+        <v>226.0189941144997</v>
       </c>
       <c r="BI216" t="n">
         <v>3501.8</v>
       </c>
       <c r="BJ216" t="n">
-        <v>25.575</v>
+        <v>27.31743515850144</v>
       </c>
       <c r="BK216" t="n">
         <v>471717</v>
@@ -41929,13 +41929,13 @@
         <v>0</v>
       </c>
       <c r="BH217" t="n">
-        <v>342.3333333333333</v>
+        <v>310.187725631769</v>
       </c>
       <c r="BI217" t="n">
         <v>713.3333333333334</v>
       </c>
       <c r="BJ217" t="n">
-        <v>32.7</v>
+        <v>32.20946643717728</v>
       </c>
       <c r="BK217" t="n">
         <v>593019</v>
@@ -42126,7 +42126,7 @@
         <v>70</v>
       </c>
       <c r="BJ218" t="n">
-        <v>25.5</v>
+        <v>20.71875</v>
       </c>
       <c r="BK218" t="n">
         <v>251472</v>
@@ -42311,13 +42311,13 @@
         <v>0.001299826689774697</v>
       </c>
       <c r="BH219" t="n">
-        <v>179.2</v>
+        <v>172.8425136944614</v>
       </c>
       <c r="BI219" t="n">
         <v>4213</v>
       </c>
       <c r="BJ219" t="n">
-        <v>24.32</v>
+        <v>25.49720483938256</v>
       </c>
       <c r="BK219" t="n">
         <v>721472</v>
@@ -42693,13 +42693,13 @@
         <v>0.001890805956038762</v>
       </c>
       <c r="BH221" t="n">
-        <v>177.625</v>
+        <v>175.5070636818083</v>
       </c>
       <c r="BI221" t="n">
         <v>4346.75</v>
       </c>
       <c r="BJ221" t="n">
-        <v>20.5125</v>
+        <v>20.2045142296369</v>
       </c>
       <c r="BK221" t="n">
         <v>723466</v>
@@ -42884,13 +42884,13 @@
         <v>0</v>
       </c>
       <c r="BH222" t="n">
-        <v>456</v>
+        <v>434.3544303797468</v>
       </c>
       <c r="BI222" t="n">
         <v>793</v>
       </c>
       <c r="BJ222" t="n">
-        <v>39.7</v>
+        <v>38.01575757575758</v>
       </c>
       <c r="BK222" t="n">
         <v>122891</v>
@@ -43075,13 +43075,13 @@
         <v>0.0006025911419102139</v>
       </c>
       <c r="BH223" t="n">
-        <v>180.4</v>
+        <v>185.0925507900677</v>
       </c>
       <c r="BI223" t="n">
         <v>4698.2</v>
       </c>
       <c r="BJ223" t="n">
-        <v>21.26</v>
+        <v>22.14624277456647</v>
       </c>
       <c r="BK223" t="n">
         <v>608300</v>
@@ -43457,13 +43457,13 @@
         <v>0.0006995452955578874</v>
       </c>
       <c r="BH225" t="n">
-        <v>193.75</v>
+        <v>186.942612942613</v>
       </c>
       <c r="BI225" t="n">
         <v>4727.2</v>
       </c>
       <c r="BJ225" t="n">
-        <v>24.775</v>
+        <v>24.1713581984518</v>
       </c>
       <c r="BK225" t="n">
         <v>595622</v>
@@ -43648,13 +43648,13 @@
         <v>0</v>
       </c>
       <c r="BH226" t="n">
-        <v>307.3333333333333</v>
+        <v>303.6309784993418</v>
       </c>
       <c r="BI226" t="n">
         <v>1644.4</v>
       </c>
       <c r="BJ226" t="n">
-        <v>27.325</v>
+        <v>28.33869230769231</v>
       </c>
       <c r="BK226" t="n">
         <v>545391</v>
@@ -43839,13 +43839,13 @@
         <v>0.00051440329218107</v>
       </c>
       <c r="BH227" t="n">
-        <v>247.4</v>
+        <v>246.6160783303272</v>
       </c>
       <c r="BI227" t="n">
         <v>5339.2</v>
       </c>
       <c r="BJ227" t="n">
-        <v>29.56</v>
+        <v>28.96427115188583</v>
       </c>
       <c r="BK227" t="n">
         <v>655607</v>
@@ -44030,13 +44030,13 @@
         <v>0</v>
       </c>
       <c r="BH228" t="n">
-        <v>259.3333333333333</v>
+        <v>259.3190271816881</v>
       </c>
       <c r="BI228" t="n">
         <v>3081.25</v>
       </c>
       <c r="BJ228" t="n">
-        <v>27.36666666666666</v>
+        <v>27.36031746031746</v>
       </c>
       <c r="BK228" t="n">
         <v>651109</v>
@@ -44221,13 +44221,13 @@
         <v>0.0016</v>
       </c>
       <c r="BH229" t="n">
-        <v>453</v>
+        <v>372.1836734693878</v>
       </c>
       <c r="BI229" t="n">
         <v>1468</v>
       </c>
       <c r="BJ229" t="n">
-        <v>32.65</v>
+        <v>34.80166240409207</v>
       </c>
       <c r="BK229" t="n">
         <v>439243</v>
@@ -44412,13 +44412,13 @@
         <v>0</v>
       </c>
       <c r="BH230" t="n">
-        <v>325.5</v>
+        <v>277.8924731182796</v>
       </c>
       <c r="BI230" t="n">
         <v>2091.5</v>
       </c>
       <c r="BJ230" t="n">
-        <v>26.2</v>
+        <v>25.95411558669002</v>
       </c>
       <c r="BK230" t="n">
         <v>232769</v>
@@ -44603,13 +44603,13 @@
         <v>0</v>
       </c>
       <c r="BH231" t="n">
-        <v>250</v>
+        <v>242.5735294117647</v>
       </c>
       <c r="BI231" t="n">
         <v>2672</v>
       </c>
       <c r="BJ231" t="n">
-        <v>27.75</v>
+        <v>27.05238095238095</v>
       </c>
       <c r="BK231" t="n">
         <v>201917</v>
@@ -44794,13 +44794,13 @@
         <v>0</v>
       </c>
       <c r="BH232" t="n">
-        <v>248</v>
+        <v>295.8175182481752</v>
       </c>
       <c r="BI232" t="n">
         <v>3322</v>
       </c>
       <c r="BJ232" t="n">
-        <v>28.9</v>
+        <v>28.68480801335559</v>
       </c>
       <c r="BK232" t="n">
         <v>157839</v>
@@ -44985,13 +44985,13 @@
         <v>0.001231527093596059</v>
       </c>
       <c r="BH233" t="n">
-        <v>227.5</v>
+        <v>215.3247258577998</v>
       </c>
       <c r="BI233" t="n">
         <v>4293</v>
       </c>
       <c r="BJ233" t="n">
-        <v>26.1</v>
+        <v>25.43664749383731</v>
       </c>
       <c r="BK233" t="n">
         <v>511327</v>
@@ -45176,13 +45176,13 @@
         <v>0</v>
       </c>
       <c r="BH234" t="n">
-        <v>279.3333333333333</v>
+        <v>272.3946280991735</v>
       </c>
       <c r="BI234" t="n">
         <v>5431.333333333333</v>
       </c>
       <c r="BJ234" t="n">
-        <v>29.06666666666667</v>
+        <v>27.97311761045426</v>
       </c>
       <c r="BK234" t="n">
         <v>497238</v>
@@ -45367,13 +45367,13 @@
         <v>0.005405405405405406</v>
       </c>
       <c r="BH235" t="n">
-        <v>394</v>
+        <v>327.4194831013917</v>
       </c>
       <c r="BI235" t="n">
         <v>540</v>
       </c>
       <c r="BJ235" t="n">
-        <v>34.55</v>
+        <v>30.04569288389513</v>
       </c>
       <c r="BK235" t="n">
         <v>143523</v>
@@ -45564,7 +45564,7 @@
         <v>145</v>
       </c>
       <c r="BJ236" t="n">
-        <v>27</v>
+        <v>15.42857142857143</v>
       </c>
       <c r="BK236" t="n">
         <v>126098</v>
@@ -45934,13 +45934,13 @@
         <v>0</v>
       </c>
       <c r="BH238" t="n">
-        <v>233.5</v>
+        <v>249.6158940397351</v>
       </c>
       <c r="BI238" t="n">
         <v>745.5</v>
       </c>
       <c r="BJ238" t="n">
-        <v>24.05</v>
+        <v>24.16477987421383</v>
       </c>
       <c r="BK238" t="n">
         <v>159836</v>
@@ -46316,13 +46316,13 @@
         <v>0.005873715124816446</v>
       </c>
       <c r="BH240" t="n">
-        <v>363</v>
+        <v>293.402376910017</v>
       </c>
       <c r="BI240" t="n">
         <v>584.4</v>
       </c>
       <c r="BJ240" t="n">
-        <v>25.75</v>
+        <v>24.11742160278746</v>
       </c>
       <c r="BK240" t="n">
         <v>382276</v>
@@ -46692,13 +46692,13 @@
         <v>0.001762977473065622</v>
       </c>
       <c r="BH242" t="n">
-        <v>297.8333333333333</v>
+        <v>248.2497534516765</v>
       </c>
       <c r="BI242" t="n">
         <v>7310.666666666667</v>
       </c>
       <c r="BJ242" t="n">
-        <v>33.9</v>
+        <v>34.6844217151849</v>
       </c>
       <c r="BK242" t="n">
         <v>1969274.4</v>
@@ -46883,13 +46883,13 @@
         <v>0.000341180484476288</v>
       </c>
       <c r="BH243" t="n">
-        <v>220.3333333333333</v>
+        <v>229.4247281053234</v>
       </c>
       <c r="BI243" t="n">
         <v>7074</v>
       </c>
       <c r="BJ243" t="n">
-        <v>27.96666666666667</v>
+        <v>28.31516393442623</v>
       </c>
       <c r="BK243" t="n">
         <v>519268.99</v>
@@ -47074,13 +47074,13 @@
         <v>0</v>
       </c>
       <c r="BH244" t="n">
-        <v>182.25</v>
+        <v>181.9457060819629</v>
       </c>
       <c r="BI244" t="n">
         <v>8241.75</v>
       </c>
       <c r="BJ244" t="n">
-        <v>22.325</v>
+        <v>22.44011553273427</v>
       </c>
       <c r="BK244" t="n">
         <v>543479.8099999997</v>
@@ -47265,13 +47265,13 @@
         <v>0.006190476190476191</v>
       </c>
       <c r="BH245" t="n">
-        <v>170.3333333333333</v>
+        <v>182.1903012490816</v>
       </c>
       <c r="BI245" t="n">
         <v>6024</v>
       </c>
       <c r="BJ245" t="n">
-        <v>22.1</v>
+        <v>23.63434247871334</v>
       </c>
       <c r="BK245" t="n">
         <v>493185.8199999999</v>
@@ -47456,13 +47456,13 @@
         <v>0.001418942887548776</v>
       </c>
       <c r="BH246" t="n">
-        <v>224.5</v>
+        <v>237.0261282660333</v>
       </c>
       <c r="BI246" t="n">
         <v>3489.4</v>
       </c>
       <c r="BJ246" t="n">
-        <v>26.75</v>
+        <v>29.10184790334044</v>
       </c>
       <c r="BK246" t="n">
         <v>519350.65</v>
@@ -47647,13 +47647,13 @@
         <v>0.0004315925766076823</v>
       </c>
       <c r="BH247" t="n">
-        <v>350</v>
+        <v>317.3865886588659</v>
       </c>
       <c r="BI247" t="n">
         <v>712</v>
       </c>
       <c r="BJ247" t="n">
-        <v>32.95</v>
+        <v>34.0706390328152</v>
       </c>
       <c r="BK247" t="n">
         <v>646595.6699999999</v>
@@ -47844,7 +47844,7 @@
         <v>65.33333333333333</v>
       </c>
       <c r="BJ248" t="n">
-        <v>27.3</v>
+        <v>22.59310344827586</v>
       </c>
       <c r="BK248" t="n">
         <v>271179.01</v>
@@ -48029,13 +48029,13 @@
         <v>0.001492537313432836</v>
       </c>
       <c r="BH249" t="n">
-        <v>185.6</v>
+        <v>183.029702970297</v>
       </c>
       <c r="BI249" t="n">
         <v>4302.6</v>
       </c>
       <c r="BJ249" t="n">
-        <v>25.14</v>
+        <v>26.40321138211382</v>
       </c>
       <c r="BK249" t="n">
         <v>749935.6799999998</v>
@@ -48411,13 +48411,13 @@
         <v>0.001921229586935639</v>
       </c>
       <c r="BH251" t="n">
-        <v>186.25</v>
+        <v>183.4797557113775</v>
       </c>
       <c r="BI251" t="n">
         <v>4286.75</v>
       </c>
       <c r="BJ251" t="n">
-        <v>20.9625</v>
+        <v>20.6460349127182</v>
       </c>
       <c r="BK251" t="n">
         <v>734260.2999999997</v>
@@ -48602,13 +48602,13 @@
         <v>0</v>
       </c>
       <c r="BH252" t="n">
-        <v>479</v>
+        <v>457.4234234234234</v>
       </c>
       <c r="BI252" t="n">
         <v>802.5</v>
       </c>
       <c r="BJ252" t="n">
-        <v>40.8</v>
+        <v>39.32530120481928</v>
       </c>
       <c r="BK252" t="n">
         <v>212733.07</v>
@@ -48793,13 +48793,13 @@
         <v>0.00120918984280532</v>
       </c>
       <c r="BH253" t="n">
-        <v>185.6</v>
+        <v>190.9203059462127</v>
       </c>
       <c r="BI253" t="n">
         <v>4683.6</v>
       </c>
       <c r="BJ253" t="n">
-        <v>21.36</v>
+        <v>22.27807424593967</v>
       </c>
       <c r="BK253" t="n">
         <v>608370.4200000003</v>
@@ -49175,13 +49175,13 @@
         <v>0.00070298769771529</v>
       </c>
       <c r="BH255" t="n">
-        <v>201.75</v>
+        <v>194.4735877862595</v>
       </c>
       <c r="BI255" t="n">
         <v>4696.8</v>
       </c>
       <c r="BJ255" t="n">
-        <v>25.5</v>
+        <v>24.77636234961076</v>
       </c>
       <c r="BK255" t="n">
         <v>609968.49</v>
@@ -49366,13 +49366,13 @@
         <v>0</v>
       </c>
       <c r="BH256" t="n">
-        <v>317.3333333333333</v>
+        <v>313.067818574514</v>
       </c>
       <c r="BI256" t="n">
         <v>1652.4</v>
       </c>
       <c r="BJ256" t="n">
-        <v>28.55</v>
+        <v>29.50766871165644</v>
       </c>
       <c r="BK256" t="n">
         <v>579499.7900000002</v>
@@ -49557,13 +49557,13 @@
         <v>0.0002587991718426501</v>
       </c>
       <c r="BH257" t="n">
-        <v>258.8</v>
+        <v>258.6223758320533</v>
       </c>
       <c r="BI257" t="n">
         <v>5308</v>
       </c>
       <c r="BJ257" t="n">
-        <v>30.58</v>
+        <v>30.03905689390056</v>
       </c>
       <c r="BK257" t="n">
         <v>699885.5199999997</v>
@@ -49748,13 +49748,13 @@
         <v>0.0003932363350373574</v>
       </c>
       <c r="BH258" t="n">
-        <v>271</v>
+        <v>271.0235042735043</v>
       </c>
       <c r="BI258" t="n">
         <v>3114.5</v>
       </c>
       <c r="BJ258" t="n">
-        <v>27.8</v>
+        <v>27.88295365278869</v>
       </c>
       <c r="BK258" t="n">
         <v>683974.7699999999</v>
@@ -49939,13 +49939,13 @@
         <v>0.002071465561885033</v>
       </c>
       <c r="BH259" t="n">
-        <v>474</v>
+        <v>390.1869918699187</v>
       </c>
       <c r="BI259" t="n">
         <v>1522</v>
       </c>
       <c r="BJ259" t="n">
-        <v>35.4</v>
+        <v>36.22444444444444</v>
       </c>
       <c r="BK259" t="n">
         <v>462901.9400000001</v>
@@ -50130,13 +50130,13 @@
         <v>0</v>
       </c>
       <c r="BH260" t="n">
-        <v>339</v>
+        <v>289.9108910891089</v>
       </c>
       <c r="BI260" t="n">
         <v>2020</v>
       </c>
       <c r="BJ260" t="n">
-        <v>27.7</v>
+        <v>26.97567567567567</v>
       </c>
       <c r="BK260" t="n">
         <v>221776.9600000001</v>
@@ -50321,13 +50321,13 @@
         <v>0</v>
       </c>
       <c r="BH261" t="n">
-        <v>258.5</v>
+        <v>252.9221336603311</v>
       </c>
       <c r="BI261" t="n">
         <v>2670</v>
       </c>
       <c r="BJ261" t="n">
-        <v>30.6</v>
+        <v>28.17779171894605</v>
       </c>
       <c r="BK261" t="n">
         <v>214531.63</v>
@@ -50512,13 +50512,13 @@
         <v>0</v>
       </c>
       <c r="BH262" t="n">
-        <v>258</v>
+        <v>309.063492063492</v>
       </c>
       <c r="BI262" t="n">
         <v>3549</v>
       </c>
       <c r="BJ262" t="n">
-        <v>29.95</v>
+        <v>29.77644305772231</v>
       </c>
       <c r="BK262" t="n">
         <v>155236.93</v>
@@ -50703,13 +50703,13 @@
         <v>0.0008163265306122449</v>
       </c>
       <c r="BH263" t="n">
-        <v>234.5</v>
+        <v>222.3161244695898</v>
       </c>
       <c r="BI263" t="n">
         <v>4314.5</v>
       </c>
       <c r="BJ263" t="n">
-        <v>26.55</v>
+        <v>25.87170891251022</v>
       </c>
       <c r="BK263" t="n">
         <v>508853.9800000002</v>
@@ -50894,13 +50894,13 @@
         <v>0</v>
       </c>
       <c r="BH264" t="n">
-        <v>288.3333333333333</v>
+        <v>282.2795180722891</v>
       </c>
       <c r="BI264" t="n">
         <v>5389</v>
       </c>
       <c r="BJ264" t="n">
-        <v>29.86666666666666</v>
+        <v>28.80375</v>
       </c>
       <c r="BK264" t="n">
         <v>565088.8999999998</v>
@@ -51085,13 +51085,13 @@
         <v>0.003636363636363636</v>
       </c>
       <c r="BH265" t="n">
-        <v>411</v>
+        <v>341.0079207920792</v>
       </c>
       <c r="BI265" t="n">
         <v>526</v>
       </c>
       <c r="BJ265" t="n">
-        <v>42.09999999999999</v>
+        <v>33.83082706766918</v>
       </c>
       <c r="BK265" t="n">
         <v>175042.86</v>
@@ -51282,7 +51282,7 @@
         <v>136</v>
       </c>
       <c r="BJ266" t="n">
-        <v>26.7</v>
+        <v>15.3525</v>
       </c>
       <c r="BK266" t="n">
         <v>206438.38</v>
@@ -51652,13 +51652,13 @@
         <v>0</v>
       </c>
       <c r="BH268" t="n">
-        <v>250.5</v>
+        <v>284.8468899521531</v>
       </c>
       <c r="BI268" t="n">
         <v>755</v>
       </c>
       <c r="BJ268" t="n">
-        <v>25.6</v>
+        <v>25.81604938271605</v>
       </c>
       <c r="BK268" t="n">
         <v>150633.86</v>
@@ -52034,13 +52034,13 @@
         <v>0.005830903790087463</v>
       </c>
       <c r="BH270" t="n">
-        <v>362</v>
+        <v>292.9872151195108</v>
       </c>
       <c r="BI270" t="n">
         <v>589.4</v>
       </c>
       <c r="BJ270" t="n">
-        <v>28.95</v>
+        <v>26.15758980301275</v>
       </c>
       <c r="BK270" t="n">
         <v>461757.05</v>
@@ -52410,13 +52410,13 @@
         <v>0.0021355076684139</v>
       </c>
       <c r="BH272" t="n">
-        <v>326.1666666666667</v>
+        <v>272.4054945054945</v>
       </c>
       <c r="BI272" t="n">
         <v>7347.666666666667</v>
       </c>
       <c r="BJ272" t="n">
-        <v>34.86666666666667</v>
+        <v>34.90904483430799</v>
       </c>
       <c r="BK272" t="n">
         <v>1935944.8</v>
@@ -52601,13 +52601,13 @@
         <v>0.0003431708991077557</v>
       </c>
       <c r="BH273" t="n">
-        <v>242.6666666666667</v>
+        <v>252.2665714285714</v>
       </c>
       <c r="BI273" t="n">
         <v>7071</v>
       </c>
       <c r="BJ273" t="n">
-        <v>28.86666666666666</v>
+        <v>29.1021978021978</v>
       </c>
       <c r="BK273" t="n">
         <v>506390.5900000003</v>
@@ -52792,13 +52792,13 @@
         <v>0</v>
       </c>
       <c r="BH274" t="n">
-        <v>198.25</v>
+        <v>198.6669242658423</v>
       </c>
       <c r="BI274" t="n">
         <v>8234.5</v>
       </c>
       <c r="BJ274" t="n">
-        <v>23.275</v>
+        <v>23.39407643312102</v>
       </c>
       <c r="BK274" t="n">
         <v>531653.8400000002</v>
@@ -52983,13 +52983,13 @@
         <v>0.005760921747479597</v>
       </c>
       <c r="BH275" t="n">
-        <v>187</v>
+        <v>198.2405435181785</v>
       </c>
       <c r="BI275" t="n">
         <v>5951</v>
       </c>
       <c r="BJ275" t="n">
-        <v>22.56666666666667</v>
+        <v>24.19398854961832</v>
       </c>
       <c r="BK275" t="n">
         <v>484342.54</v>
@@ -53174,13 +53174,13 @@
         <v>0.001748251748251748</v>
       </c>
       <c r="BH276" t="n">
-        <v>252.75</v>
+        <v>264.5498368064273</v>
       </c>
       <c r="BI276" t="n">
         <v>3533</v>
       </c>
       <c r="BJ276" t="n">
-        <v>26.825</v>
+        <v>28.42822128851541</v>
       </c>
       <c r="BK276" t="n">
         <v>523947.7100000002</v>
@@ -53365,13 +53365,13 @@
         <v>0.0004344048653344917</v>
       </c>
       <c r="BH277" t="n">
-        <v>371.3333333333333</v>
+        <v>337.3974820143885</v>
       </c>
       <c r="BI277" t="n">
         <v>707.3333333333334</v>
       </c>
       <c r="BJ277" t="n">
-        <v>32.625</v>
+        <v>33.93808695652174</v>
       </c>
       <c r="BK277" t="n">
         <v>628914.7100000003</v>
@@ -53562,7 +53562,7 @@
         <v>62.66666666666666</v>
       </c>
       <c r="BJ278" t="n">
-        <v>30.7</v>
+        <v>25.21785714285714</v>
       </c>
       <c r="BK278" t="n">
         <v>267609.37</v>
@@ -53747,13 +53747,13 @@
         <v>0.001811958928930944</v>
       </c>
       <c r="BH279" t="n">
-        <v>217.3333333333333</v>
+        <v>207.8365985235662</v>
       </c>
       <c r="BI279" t="n">
         <v>3754.333333333333</v>
       </c>
       <c r="BJ279" t="n">
-        <v>28.61666666666666</v>
+        <v>27.91257231006556</v>
       </c>
       <c r="BK279" t="n">
         <v>764320.5900000002</v>
@@ -54129,13 +54129,13 @@
         <v>0.00215311004784689</v>
       </c>
       <c r="BH281" t="n">
-        <v>194.375</v>
+        <v>196.284088322331</v>
       </c>
       <c r="BI281" t="n">
         <v>4287.125</v>
       </c>
       <c r="BJ281" t="n">
-        <v>21.6375</v>
+        <v>21.32786885245902</v>
       </c>
       <c r="BK281" t="n">
         <v>730257.9400000002</v>
@@ -54320,13 +54320,13 @@
         <v>0.002747252747252747</v>
       </c>
       <c r="BH282" t="n">
-        <v>529</v>
+        <v>505.3839285714286</v>
       </c>
       <c r="BI282" t="n">
         <v>873.5</v>
       </c>
       <c r="BJ282" t="n">
-        <v>41.2</v>
+        <v>39.60662983425414</v>
       </c>
       <c r="BK282" t="n">
         <v>236513.33</v>
@@ -54511,13 +54511,13 @@
         <v>0.001214329083181542</v>
       </c>
       <c r="BH283" t="n">
-        <v>199.8</v>
+        <v>205.2087342709104</v>
       </c>
       <c r="BI283" t="n">
         <v>4657.8</v>
       </c>
       <c r="BJ283" t="n">
-        <v>21.86</v>
+        <v>22.70104956268221</v>
       </c>
       <c r="BK283" t="n">
         <v>595840.1099999999</v>
@@ -54893,13 +54893,13 @@
         <v>0</v>
       </c>
       <c r="BH285" t="n">
-        <v>215.75</v>
+        <v>207.8748473748474</v>
       </c>
       <c r="BI285" t="n">
         <v>4642.2</v>
       </c>
       <c r="BJ285" t="n">
-        <v>26</v>
+        <v>25.31472480343102</v>
       </c>
       <c r="BK285" t="n">
         <v>599855.9600000001</v>
@@ -55084,13 +55084,13 @@
         <v>0.00076103500761035</v>
       </c>
       <c r="BH286" t="n">
-        <v>338</v>
+        <v>333.3482373172829</v>
       </c>
       <c r="BI286" t="n">
         <v>1661.6</v>
       </c>
       <c r="BJ286" t="n">
-        <v>29.075</v>
+        <v>29.96590389016018</v>
       </c>
       <c r="BK286" t="n">
         <v>584732.62</v>
@@ -55275,13 +55275,13 @@
         <v>0</v>
       </c>
       <c r="BH287" t="n">
-        <v>275.2</v>
+        <v>274.7620489528135</v>
       </c>
       <c r="BI287" t="n">
         <v>5273</v>
       </c>
       <c r="BJ287" t="n">
-        <v>31.1</v>
+        <v>30.60495356037152</v>
       </c>
       <c r="BK287" t="n">
         <v>684515.1299999998</v>
@@ -55466,13 +55466,13 @@
         <v>0.000791765637371338</v>
       </c>
       <c r="BH288" t="n">
-        <v>289.6666666666667</v>
+        <v>289.5330490405117</v>
       </c>
       <c r="BI288" t="n">
         <v>3098.5</v>
       </c>
       <c r="BJ288" t="n">
-        <v>28.33333333333333</v>
+        <v>28.41422924901186</v>
       </c>
       <c r="BK288" t="n">
         <v>678548.7500000005</v>
@@ -55657,13 +55657,13 @@
         <v>0.001545595054095827</v>
       </c>
       <c r="BH289" t="n">
-        <v>493.5</v>
+        <v>411.0767441860465</v>
       </c>
       <c r="BI289" t="n">
         <v>1537</v>
       </c>
       <c r="BJ289" t="n">
-        <v>35.05</v>
+        <v>35.55422276621787</v>
       </c>
       <c r="BK289" t="n">
         <v>468662.8499999998</v>
@@ -55848,13 +55848,13 @@
         <v>0</v>
       </c>
       <c r="BH290" t="n">
-        <v>363</v>
+        <v>312.004942339374</v>
       </c>
       <c r="BI290" t="n">
         <v>2000</v>
       </c>
       <c r="BJ290" t="n">
-        <v>28.95</v>
+        <v>27.9</v>
       </c>
       <c r="BK290" t="n">
         <v>216920.86</v>
@@ -56039,13 +56039,13 @@
         <v>0.001583531274742676</v>
       </c>
       <c r="BH291" t="n">
-        <v>272.5</v>
+        <v>268.4095646842428</v>
       </c>
       <c r="BI291" t="n">
         <v>2639</v>
       </c>
       <c r="BJ291" t="n">
-        <v>27.25</v>
+        <v>27.575</v>
       </c>
       <c r="BK291" t="n">
         <v>209144.42</v>
@@ -56230,13 +56230,13 @@
         <v>0</v>
       </c>
       <c r="BH292" t="n">
-        <v>279</v>
+        <v>325.3080204778157</v>
       </c>
       <c r="BI292" t="n">
         <v>2458</v>
       </c>
       <c r="BJ292" t="n">
-        <v>31.6</v>
+        <v>31.38855421686747</v>
       </c>
       <c r="BK292" t="n">
         <v>172154.88</v>
@@ -56421,13 +56421,13 @@
         <v>0.0008176614881439084</v>
       </c>
       <c r="BH293" t="n">
-        <v>253.5</v>
+        <v>239.6862190812721</v>
       </c>
       <c r="BI293" t="n">
         <v>4308.5</v>
       </c>
       <c r="BJ293" t="n">
-        <v>27.6</v>
+        <v>26.81185609157809</v>
       </c>
       <c r="BK293" t="n">
         <v>502855.2899999996</v>
@@ -56612,13 +56612,13 @@
         <v>0</v>
       </c>
       <c r="BH294" t="n">
-        <v>307</v>
+        <v>300.5242155525239</v>
       </c>
       <c r="BI294" t="n">
         <v>5381</v>
       </c>
       <c r="BJ294" t="n">
-        <v>30.63333333333333</v>
+        <v>29.67570621468927</v>
       </c>
       <c r="BK294" t="n">
         <v>550569.17</v>
@@ -56803,13 +56803,13 @@
         <v>0</v>
       </c>
       <c r="BH295" t="n">
-        <v>437</v>
+        <v>359.7308447937132</v>
       </c>
       <c r="BI295" t="n">
         <v>501.6666666666667</v>
       </c>
       <c r="BJ295" t="n">
-        <v>39.55</v>
+        <v>32.23754940711463</v>
       </c>
       <c r="BK295" t="n">
         <v>179237.51</v>
@@ -57000,7 +57000,7 @@
         <v>134</v>
       </c>
       <c r="BJ296" t="n">
-        <v>25.9</v>
+        <v>14.7</v>
       </c>
       <c r="BK296" t="n">
         <v>207829.28</v>
@@ -57370,13 +57370,13 @@
         <v>0</v>
       </c>
       <c r="BH298" t="n">
-        <v>252.5</v>
+        <v>290.8605388272583</v>
       </c>
       <c r="BI298" t="n">
         <v>777.5</v>
       </c>
       <c r="BJ298" t="n">
-        <v>25.55</v>
+        <v>25.91928783382789</v>
       </c>
       <c r="BK298" t="n">
         <v>152355.25</v>
@@ -57752,13 +57752,13 @@
         <v>0.004297994269340974</v>
       </c>
       <c r="BH300" t="n">
-        <v>398</v>
+        <v>314.5583783783784</v>
       </c>
       <c r="BI300" t="n">
         <v>593.2</v>
       </c>
       <c r="BJ300" t="n">
-        <v>28.9</v>
+        <v>26.58388571428571</v>
       </c>
       <c r="BK300" t="n">
         <v>449951.0799999998</v>
@@ -58128,13 +58128,13 @@
         <v>0.002886836027713626</v>
       </c>
       <c r="BH302" t="n">
-        <v>362.8333333333333</v>
+        <v>302.6671939644683</v>
       </c>
       <c r="BI302" t="n">
         <v>7302.333333333333</v>
       </c>
       <c r="BJ302" t="n">
-        <v>38.1</v>
+        <v>18.09308346213292</v>
       </c>
       <c r="BK302" t="n">
         <v>1899195.449999999</v>
@@ -58319,13 +58319,13 @@
         <v>0.0003485535029627048</v>
       </c>
       <c r="BH303" t="n">
-        <v>270.6666666666667</v>
+        <v>282.6273557966876</v>
       </c>
       <c r="BI303" t="n">
         <v>6926.333333333333</v>
       </c>
       <c r="BJ303" t="n">
-        <v>30.35</v>
+        <v>27.95603628750872</v>
       </c>
       <c r="BK303" t="n">
         <v>491951.1600000003</v>
@@ -58510,7 +58510,7 @@
         <v>0.0006261740763932373</v>
       </c>
       <c r="BH304" t="n">
-        <v>216.25</v>
+        <v>216.4762741652021</v>
       </c>
       <c r="BI304" t="n">
         <v>8328</v>
@@ -58701,13 +58701,13 @@
         <v>0.006789524733268671</v>
       </c>
       <c r="BH305" t="n">
-        <v>199</v>
+        <v>212.0539845758355</v>
       </c>
       <c r="BI305" t="n">
         <v>5923.666666666667</v>
       </c>
       <c r="BJ305" t="n">
-        <v>25.7</v>
+        <v>20.17870905587668</v>
       </c>
       <c r="BK305" t="n">
         <v>480376.0599999999</v>
@@ -58892,13 +58892,13 @@
         <v>0.002405498281786942</v>
       </c>
       <c r="BH306" t="n">
-        <v>272</v>
+        <v>291.2369014790675</v>
       </c>
       <c r="BI306" t="n">
         <v>2941.5</v>
       </c>
       <c r="BJ306" t="n">
-        <v>34.9</v>
+        <v>19.23943565037853</v>
       </c>
       <c r="BK306" t="n">
         <v>512770.8000000002</v>
@@ -59083,13 +59083,13 @@
         <v>0</v>
       </c>
       <c r="BH307" t="n">
-        <v>403.6666666666667</v>
+        <v>358.7367475292004</v>
       </c>
       <c r="BI307" t="n">
         <v>702.5</v>
       </c>
       <c r="BJ307" t="n">
-        <v>33.3</v>
+        <v>16.7521472392638</v>
       </c>
       <c r="BK307" t="n">
         <v>602854.63</v>
@@ -59465,13 +59465,13 @@
         <v>0.001574493209998032</v>
       </c>
       <c r="BH309" t="n">
-        <v>238.6666666666667</v>
+        <v>231.0400444938821</v>
       </c>
       <c r="BI309" t="n">
         <v>3884.333333333333</v>
       </c>
       <c r="BJ309" t="n">
-        <v>30.16666666666667</v>
+        <v>24.32122356495468</v>
       </c>
       <c r="BK309" t="n">
         <v>755108.8700000005</v>
@@ -59847,7 +59847,7 @@
         <v>0.001895734597156398</v>
       </c>
       <c r="BH311" t="n">
-        <v>215.75</v>
+        <v>211.0169039145908</v>
       </c>
       <c r="BI311" t="n">
         <v>4315.875</v>
@@ -60038,7 +60038,7 @@
         <v>0</v>
       </c>
       <c r="BH312" t="n">
-        <v>581</v>
+        <v>555.0625</v>
       </c>
       <c r="BI312" t="n">
         <v>867.5</v>
@@ -60229,7 +60229,7 @@
         <v>0.0009168704156479218</v>
       </c>
       <c r="BH313" t="n">
-        <v>213.2</v>
+        <v>219.3894633185623</v>
       </c>
       <c r="BI313" t="n">
         <v>4618.4</v>
@@ -60611,7 +60611,7 @@
         <v>0</v>
       </c>
       <c r="BH315" t="n">
-        <v>232</v>
+        <v>223.3803418803419</v>
       </c>
       <c r="BI315" t="n">
         <v>4572</v>
@@ -60802,13 +60802,13 @@
         <v>0.000380952380952381</v>
       </c>
       <c r="BH316" t="n">
-        <v>358</v>
+        <v>351.9770700636943</v>
       </c>
       <c r="BI316" t="n">
         <v>1663</v>
       </c>
       <c r="BJ316" t="n">
-        <v>32.40000000000001</v>
+        <v>25.6864782276547</v>
       </c>
       <c r="BK316" t="n">
         <v>569299.0599999998</v>
@@ -60993,13 +60993,13 @@
         <v>0</v>
       </c>
       <c r="BH317" t="n">
-        <v>297</v>
+        <v>296.2857142857143</v>
       </c>
       <c r="BI317" t="n">
         <v>5253.4</v>
       </c>
       <c r="BJ317" t="n">
-        <v>35.4</v>
+        <v>10.23481865284974</v>
       </c>
       <c r="BK317" t="n">
         <v>650471.65</v>
@@ -61184,13 +61184,13 @@
         <v>0.001177394034536892</v>
       </c>
       <c r="BH318" t="n">
-        <v>313</v>
+        <v>312.5597352838732</v>
       </c>
       <c r="BI318" t="n">
         <v>3138.25</v>
       </c>
       <c r="BJ318" t="n">
-        <v>32</v>
+        <v>12.67450980392157</v>
       </c>
       <c r="BK318" t="n">
         <v>656332.2200000001</v>
@@ -61375,13 +61375,13 @@
         <v>0.001031991744066047</v>
       </c>
       <c r="BH319" t="n">
-        <v>537</v>
+        <v>449.3828571428571</v>
       </c>
       <c r="BI319" t="n">
         <v>1534</v>
       </c>
       <c r="BJ319" t="n">
-        <v>37.1</v>
+        <v>35.59779141104295</v>
       </c>
       <c r="BK319" t="n">
         <v>460402.1700000001</v>
@@ -61566,7 +61566,7 @@
         <v>0.0009960159362549801</v>
       </c>
       <c r="BH320" t="n">
-        <v>396</v>
+        <v>338.2284794851167</v>
       </c>
       <c r="BI320" t="n">
         <v>2032.5</v>
@@ -61757,13 +61757,13 @@
         <v>0.000791765637371338</v>
       </c>
       <c r="BH321" t="n">
-        <v>293</v>
+        <v>288.5441176470588</v>
       </c>
       <c r="BI321" t="n">
         <v>2630.5</v>
       </c>
       <c r="BJ321" t="n">
-        <v>28.9</v>
+        <v>24.77664141414141</v>
       </c>
       <c r="BK321" t="n">
         <v>191007.95</v>
@@ -61948,13 +61948,13 @@
         <v>0</v>
       </c>
       <c r="BH322" t="n">
-        <v>318</v>
+        <v>345.684496124031</v>
       </c>
       <c r="BI322" t="n">
         <v>2024.5</v>
       </c>
       <c r="BJ322" t="n">
-        <v>32.8</v>
+        <v>27.57562326869806</v>
       </c>
       <c r="BK322" t="n">
         <v>191673.55</v>
@@ -62139,13 +62139,13 @@
         <v>0.0008295313148071339</v>
       </c>
       <c r="BH323" t="n">
-        <v>276.5</v>
+        <v>262.6764290755116</v>
       </c>
       <c r="BI323" t="n">
         <v>4249.5</v>
       </c>
       <c r="BJ323" t="n">
-        <v>25.8</v>
+        <v>16.57195020746888</v>
       </c>
       <c r="BK323" t="n">
         <v>492022.6</v>
@@ -62330,13 +62330,13 @@
         <v>0</v>
       </c>
       <c r="BH324" t="n">
-        <v>328</v>
+        <v>321.3925826929502</v>
       </c>
       <c r="BI324" t="n">
         <v>5406</v>
       </c>
       <c r="BJ324" t="n">
-        <v>29.2</v>
+        <v>23.531625</v>
       </c>
       <c r="BK324" t="n">
         <v>535919.85</v>
@@ -62521,7 +62521,7 @@
         <v>0</v>
       </c>
       <c r="BH325" t="n">
-        <v>466</v>
+        <v>386.7183364839319</v>
       </c>
       <c r="BI325" t="n">
         <v>504</v>
@@ -63088,7 +63088,7 @@
         <v>0</v>
       </c>
       <c r="BH328" t="n">
-        <v>267.5</v>
+        <v>307.0643185298622</v>
       </c>
       <c r="BI328" t="n">
         <v>782.5</v>
@@ -63470,13 +63470,13 @@
         <v>0.004163775156141568</v>
       </c>
       <c r="BH330" t="n">
-        <v>408.3333333333333</v>
+        <v>327.0047669491526</v>
       </c>
       <c r="BI330" t="n">
         <v>615.8</v>
       </c>
       <c r="BJ330" t="n">
-        <v>27.3</v>
+        <v>21.09130434782609</v>
       </c>
       <c r="BK330" t="n">
         <v>433984.06</v>
@@ -63846,7 +63846,7 @@
         <v>0.002281368821292776</v>
       </c>
       <c r="BH332" t="n">
-        <v>381.6666666666667</v>
+        <v>320.1702819956616</v>
       </c>
       <c r="BI332" t="n">
         <v>7500.833333333333</v>
@@ -64037,7 +64037,7 @@
         <v>0.0007057163020465773</v>
       </c>
       <c r="BH333" t="n">
-        <v>298.3333333333333</v>
+        <v>310.5677990294034</v>
       </c>
       <c r="BI333" t="n">
         <v>6725.333333333333</v>
@@ -64228,7 +64228,7 @@
         <v>0</v>
       </c>
       <c r="BH334" t="n">
-        <v>239.25</v>
+        <v>239.3593516209476</v>
       </c>
       <c r="BI334" t="n">
         <v>8351.75</v>
@@ -64419,7 +64419,7 @@
         <v>0.008157389635316698</v>
       </c>
       <c r="BH335" t="n">
-        <v>239</v>
+        <v>196.3341902313625</v>
       </c>
       <c r="BI335" t="n">
         <v>5982</v>
@@ -64610,7 +64610,7 @@
         <v>0.002480510276399716</v>
       </c>
       <c r="BH336" t="n">
-        <v>291</v>
+        <v>308.131454227987</v>
       </c>
       <c r="BI336" t="n">
         <v>2833.166666666667</v>
@@ -64801,7 +64801,7 @@
         <v>0.001328609388839681</v>
       </c>
       <c r="BH337" t="n">
-        <v>474.6</v>
+        <v>385.0080609046126</v>
       </c>
       <c r="BI337" t="n">
         <v>695.6666666666666</v>
@@ -64992,7 +64992,7 @@
         <v>0</v>
       </c>
       <c r="BH338" t="n">
-        <v>256</v>
+        <v>191.0985915492958</v>
       </c>
       <c r="BI338" t="n">
         <v>66.33333333333333</v>
@@ -65183,7 +65183,7 @@
         <v>0.001511715797430083</v>
       </c>
       <c r="BH339" t="n">
-        <v>260.8333333333333</v>
+        <v>251.9294611249508</v>
       </c>
       <c r="BI339" t="n">
         <v>4067.833333333333</v>
@@ -65565,7 +65565,7 @@
         <v>0.001684311838306063</v>
       </c>
       <c r="BH341" t="n">
-        <v>235.375</v>
+        <v>228.2691960252936</v>
       </c>
       <c r="BI341" t="n">
         <v>4243.75</v>
@@ -65756,7 +65756,7 @@
         <v>0</v>
       </c>
       <c r="BH342" t="n">
-        <v>622</v>
+        <v>595.4188034188035</v>
       </c>
       <c r="BI342" t="n">
         <v>906</v>
@@ -65947,7 +65947,7 @@
         <v>0.0009208103130755065</v>
       </c>
       <c r="BH343" t="n">
-        <v>227</v>
+        <v>232.2014760147601</v>
       </c>
       <c r="BI343" t="n">
         <v>4614.6</v>
@@ -66329,7 +66329,7 @@
         <v>0.0007215007215007215</v>
       </c>
       <c r="BH345" t="n">
-        <v>321.8</v>
+        <v>244.5349404943546</v>
       </c>
       <c r="BI345" t="n">
         <v>4566.6</v>
@@ -66520,7 +66520,7 @@
         <v>0.0007662835249042146</v>
       </c>
       <c r="BH346" t="n">
-        <v>410</v>
+        <v>374.6974075648109</v>
       </c>
       <c r="BI346" t="n">
         <v>1652.6</v>
@@ -66711,7 +66711,7 @@
         <v>0</v>
       </c>
       <c r="BH347" t="n">
-        <v>314</v>
+        <v>312.8391959798995</v>
       </c>
       <c r="BI347" t="n">
         <v>5167.4</v>
@@ -66902,7 +66902,7 @@
         <v>0.001572327044025157</v>
       </c>
       <c r="BH348" t="n">
-        <v>331</v>
+        <v>330.0372285418821</v>
       </c>
       <c r="BI348" t="n">
         <v>3137.75</v>
@@ -67093,7 +67093,7 @@
         <v>0.0005149330587023687</v>
       </c>
       <c r="BH349" t="n">
-        <v>558.5</v>
+        <v>473.2776510832383</v>
       </c>
       <c r="BI349" t="n">
         <v>1539</v>
@@ -67284,7 +67284,7 @@
         <v>0</v>
       </c>
       <c r="BH350" t="n">
-        <v>419.5</v>
+        <v>358.9496402877698</v>
       </c>
       <c r="BI350" t="n">
         <v>2096.5</v>
@@ -67475,7 +67475,7 @@
         <v>0.00319744204636291</v>
       </c>
       <c r="BH351" t="n">
-        <v>303</v>
+        <v>263.68788249694</v>
       </c>
       <c r="BI351" t="n">
         <v>2593.5</v>
@@ -67666,7 +67666,7 @@
         <v>0</v>
       </c>
       <c r="BH352" t="n">
-        <v>274.3333333333333</v>
+        <v>340.2125572269457</v>
       </c>
       <c r="BI352" t="n">
         <v>2449.25</v>
@@ -67857,7 +67857,7 @@
         <v>0.002079002079002079</v>
       </c>
       <c r="BH353" t="n">
-        <v>294.5</v>
+        <v>281.0095271700776</v>
       </c>
       <c r="BI353" t="n">
         <v>4234</v>
@@ -68048,7 +68048,7 @@
         <v>0</v>
       </c>
       <c r="BH354" t="n">
-        <v>343.6666666666667</v>
+        <v>335.9103034344782</v>
       </c>
       <c r="BI354" t="n">
         <v>5405.333333333333</v>
@@ -68239,7 +68239,7 @@
         <v>0.001730103806228374</v>
       </c>
       <c r="BH355" t="n">
-        <v>620</v>
+        <v>511.3368421052631</v>
       </c>
       <c r="BI355" t="n">
         <v>552</v>
@@ -68430,7 +68430,7 @@
         <v>0</v>
       </c>
       <c r="BH356" t="n">
-        <v>571</v>
+        <v>556.1587301587301</v>
       </c>
       <c r="BI356" t="n">
         <v>132</v>
@@ -68806,7 +68806,7 @@
         <v>0</v>
       </c>
       <c r="BH358" t="n">
-        <v>279.5</v>
+        <v>318.3942598187311</v>
       </c>
       <c r="BI358" t="n">
         <v>798.5</v>
@@ -69188,7 +69188,7 @@
         <v>0.004804392587508579</v>
       </c>
       <c r="BH360" t="n">
-        <v>445.5</v>
+        <v>283.7674661105318</v>
       </c>
       <c r="BI360" t="n">
         <v>611.6</v>

--- a/data_merged_analysis.xlsx
+++ b/data_merged_analysis.xlsx
@@ -1068,7 +1068,7 @@
         <v>0.001044277360066834</v>
       </c>
       <c r="BH2" t="n">
-        <v>269.5119291070211</v>
+        <v>241.3359375</v>
       </c>
       <c r="BI2" t="n">
         <v>6818</v>
@@ -1265,7 +1265,7 @@
         <v>0.0007304601899196494</v>
       </c>
       <c r="BH3" t="n">
-        <v>246.78125</v>
+        <v>338.1443298969072</v>
       </c>
       <c r="BI3" t="n">
         <v>6578.333333333333</v>
@@ -1659,7 +1659,7 @@
         <v>0.001926782273603083</v>
       </c>
       <c r="BH5" t="n">
-        <v>208.2902621722847</v>
+        <v>302.6186770428016</v>
       </c>
       <c r="BI5" t="n">
         <v>5819</v>
@@ -1856,13 +1856,13 @@
         <v>0.003419452887537994</v>
       </c>
       <c r="BH6" t="n">
-        <v>263.844537815126</v>
+        <v>199.065543071161</v>
       </c>
       <c r="BI6" t="n">
         <v>2776.5</v>
       </c>
       <c r="BJ6" t="n">
-        <v>23.03378891419894</v>
+        <v>23.21002295332823</v>
       </c>
       <c r="BK6" t="n">
         <v>11676015</v>
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="BH7" t="n">
-        <v>377.6348448687351</v>
+        <v>302.6007326007326</v>
       </c>
       <c r="BI7" t="n">
         <v>702.1666666666666</v>
       </c>
       <c r="BJ7" t="n">
-        <v>29.37785714285714</v>
+        <v>30.4377428307123</v>
       </c>
       <c r="BK7" t="n">
         <v>13765026</v>
@@ -2250,14 +2250,12 @@
         <v>0</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>253.8494475138122</v>
       </c>
       <c r="BI8" t="n">
         <v>64.33333333333333</v>
       </c>
-      <c r="BJ8" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ8" t="s"/>
       <c r="BK8" t="n">
         <v>3800559</v>
       </c>
@@ -2447,13 +2445,13 @@
         <v>0.0002279462046956918</v>
       </c>
       <c r="BH9" t="n">
-        <v>212.6535714285714</v>
+        <v>458</v>
       </c>
       <c r="BI9" t="n">
         <v>4160.2</v>
       </c>
       <c r="BJ9" t="n">
-        <v>22.29602272727273</v>
+        <v>22.30577175338872</v>
       </c>
       <c r="BK9" t="n">
         <v>18920163</v>
@@ -2644,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="BH10" t="n">
-        <v>204</v>
+        <v>339.6006508600651</v>
       </c>
       <c r="BI10" t="n">
         <v>6517</v>
@@ -2841,7 +2839,7 @@
         <v>0.001421800947867299</v>
       </c>
       <c r="BH11" t="n">
-        <v>205.837019790454</v>
+        <v>294.7193708609271</v>
       </c>
       <c r="BI11" t="n">
         <v>4349.75</v>
@@ -3037,14 +3035,12 @@
       <c r="BG12" t="n">
         <v>0</v>
       </c>
-      <c r="BH12" t="n">
-        <v>496.9411764705882</v>
-      </c>
+      <c r="BH12" t="s"/>
       <c r="BI12" t="n">
         <v>642</v>
       </c>
       <c r="BJ12" t="n">
-        <v>36.95255474452555</v>
+        <v>40.5</v>
       </c>
       <c r="BK12" t="n">
         <v>3363316</v>
@@ -3235,7 +3231,7 @@
         <v>0.0005924170616113745</v>
       </c>
       <c r="BH13" t="n">
-        <v>218.5964240102171</v>
+        <v>238.6521197007481</v>
       </c>
       <c r="BI13" t="n">
         <v>4875.8</v>
@@ -3432,14 +3428,12 @@
         <v>0</v>
       </c>
       <c r="BH14" t="n">
-        <v>0</v>
+        <v>169.969454887218</v>
       </c>
       <c r="BI14" t="n">
         <v>26</v>
       </c>
-      <c r="BJ14" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ14" t="s"/>
       <c r="BK14" t="n">
         <v>950056</v>
       </c>
@@ -3629,13 +3623,13 @@
         <v>0</v>
       </c>
       <c r="BH15" t="n">
-        <v>226.1334355828221</v>
+        <v>277.8814382896015</v>
       </c>
       <c r="BI15" t="n">
         <v>4739.4</v>
       </c>
       <c r="BJ15" t="n">
-        <v>21.63635107118176</v>
+        <v>21.87826694619147</v>
       </c>
       <c r="BK15" t="n">
         <v>12982307</v>
@@ -3826,13 +3820,13 @@
         <v>0</v>
       </c>
       <c r="BH16" t="n">
-        <v>348.4397321428572</v>
+        <v>318.8200371057514</v>
       </c>
       <c r="BI16" t="n">
         <v>1592.6</v>
       </c>
       <c r="BJ16" t="n">
-        <v>23.5803317535545</v>
+        <v>24.17222672064777</v>
       </c>
       <c r="BK16" t="n">
         <v>11039375</v>
@@ -4023,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="BH17" t="n">
-        <v>302.6186770428016</v>
+        <v>277.8924731182796</v>
       </c>
       <c r="BI17" t="n">
         <v>5550</v>
@@ -4220,13 +4214,13 @@
         <v>0.0007785130400934215</v>
       </c>
       <c r="BH18" t="n">
-        <v>317.3875685557587</v>
+        <v>182.1903012490816</v>
       </c>
       <c r="BI18" t="n">
         <v>3091</v>
       </c>
       <c r="BJ18" t="n">
-        <v>23.72040498442368</v>
+        <v>23.96302124311566</v>
       </c>
       <c r="BK18" t="n">
         <v>15802538</v>
@@ -4417,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="BH19" t="n">
-        <v>487</v>
+        <v>272.5766475644699</v>
       </c>
       <c r="BI19" t="n">
         <v>2564</v>
@@ -4614,7 +4608,7 @@
         <v>0.00364963503649635</v>
       </c>
       <c r="BH20" t="n">
-        <v>337.9016393442623</v>
+        <v>252.2665714285714</v>
       </c>
       <c r="BI20" t="n">
         <v>2223.5</v>
@@ -4811,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="BH21" t="n">
-        <v>294.0756578947368</v>
+        <v>340.3722563652327</v>
       </c>
       <c r="BI21" t="n">
         <v>2800.5</v>
@@ -5008,13 +5002,13 @@
         <v>0</v>
       </c>
       <c r="BH22" t="n">
-        <v>269.1860465116279</v>
+        <v>328.0343855693349</v>
       </c>
       <c r="BI22" t="n">
         <v>1137</v>
       </c>
       <c r="BJ22" t="n">
-        <v>26.38779069767442</v>
+        <v>26.54210526315789</v>
       </c>
       <c r="BK22" t="n">
         <v>1922741</v>
@@ -5204,9 +5198,7 @@
       <c r="BG23" t="n">
         <v>0.0004291845493562232</v>
       </c>
-      <c r="BH23" t="n">
-        <v>258.228624535316</v>
-      </c>
+      <c r="BH23" t="s"/>
       <c r="BI23" t="n">
         <v>4148</v>
       </c>
@@ -5402,13 +5394,13 @@
         <v>0</v>
       </c>
       <c r="BH24" t="n">
-        <v>320.6150943396227</v>
+        <v>307.0643185298622</v>
       </c>
       <c r="BI24" t="n">
         <v>3354.5</v>
       </c>
       <c r="BJ24" t="n">
-        <v>23.46333780160858</v>
+        <v>24.3783426183844</v>
       </c>
       <c r="BK24" t="n">
         <v>11704806</v>
@@ -5599,13 +5591,13 @@
         <v>0</v>
       </c>
       <c r="BH25" t="n">
-        <v>434.6666666666667</v>
+        <v>622</v>
       </c>
       <c r="BI25" t="n">
         <v>443.75</v>
       </c>
       <c r="BJ25" t="n">
-        <v>23.19397993311037</v>
+        <v>27.74</v>
       </c>
       <c r="BK25" t="n">
         <v>3274089</v>
@@ -5796,14 +5788,12 @@
         <v>0</v>
       </c>
       <c r="BH26" t="n">
-        <v>0</v>
+        <v>545.8089887640449</v>
       </c>
       <c r="BI26" t="n">
         <v>248</v>
       </c>
-      <c r="BJ26" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ26" t="s"/>
       <c r="BK26" t="n">
         <v>2648928</v>
       </c>
@@ -6948,7 +6938,7 @@
         <v>0.001037559659680432</v>
       </c>
       <c r="BH32" t="n">
-        <v>261.1578231292517</v>
+        <v>207.0560344827586</v>
       </c>
       <c r="BI32" t="n">
         <v>6806.833333333333</v>
@@ -7145,7 +7135,7 @@
         <v>0.0003614022406938923</v>
       </c>
       <c r="BH33" t="n">
-        <v>239.1010719754977</v>
+        <v>303.0181112548512</v>
       </c>
       <c r="BI33" t="n">
         <v>6657.333333333333</v>
@@ -7342,7 +7332,7 @@
         <v>0</v>
       </c>
       <c r="BH34" t="n">
-        <v>200.5394190871369</v>
+        <v>208.2902621722847</v>
       </c>
       <c r="BI34" t="n">
         <v>7736.5</v>
@@ -7539,7 +7529,7 @@
         <v>0.00192492781520693</v>
       </c>
       <c r="BH35" t="n">
-        <v>199.065543071161</v>
+        <v>319.1378676470588</v>
       </c>
       <c r="BI35" t="n">
         <v>5851</v>
@@ -7736,13 +7726,13 @@
         <v>0.001907668828691339</v>
       </c>
       <c r="BH36" t="n">
-        <v>253.3776223776224</v>
+        <v>254.4452247191011</v>
       </c>
       <c r="BI36" t="n">
         <v>2768.5</v>
       </c>
       <c r="BJ36" t="n">
-        <v>24.42454268292683</v>
+        <v>24.63105303612606</v>
       </c>
       <c r="BK36" t="n">
         <v>12009047</v>
@@ -7933,13 +7923,13 @@
         <v>0</v>
       </c>
       <c r="BH37" t="n">
-        <v>369.425</v>
+        <v>465</v>
       </c>
       <c r="BI37" t="n">
         <v>709.6666666666666</v>
       </c>
       <c r="BJ37" t="n">
-        <v>27.78202643171806</v>
+        <v>28.30574506283662</v>
       </c>
       <c r="BK37" t="n">
         <v>13973483</v>
@@ -8130,13 +8120,13 @@
         <v>0</v>
       </c>
       <c r="BH38" t="n">
-        <v>0</v>
+        <v>367.8855140186916</v>
       </c>
       <c r="BI38" t="n">
         <v>68.33333333333333</v>
       </c>
       <c r="BJ38" t="n">
-        <v>14.26</v>
+        <v>18.6</v>
       </c>
       <c r="BK38" t="n">
         <v>3568858</v>
@@ -8327,13 +8317,13 @@
         <v>0.0009009009009009009</v>
       </c>
       <c r="BH39" t="n">
-        <v>204.3065371024735</v>
+        <v>318.1239669421487</v>
       </c>
       <c r="BI39" t="n">
         <v>4236.8</v>
       </c>
       <c r="BJ39" t="n">
-        <v>21.86351059230437</v>
+        <v>21.87296712802768</v>
       </c>
       <c r="BK39" t="n">
         <v>19009199</v>
@@ -8523,9 +8513,7 @@
       <c r="BG40" t="n">
         <v>0.0006106870229007634</v>
       </c>
-      <c r="BH40" t="n">
-        <v>191</v>
-      </c>
+      <c r="BH40" t="s"/>
       <c r="BI40" t="n">
         <v>6258</v>
       </c>
@@ -8721,7 +8709,7 @@
         <v>0.001636661211129296</v>
       </c>
       <c r="BH41" t="n">
-        <v>198.6180555555555</v>
+        <v>256.5291536050157</v>
       </c>
       <c r="BI41" t="n">
         <v>4394.625</v>
@@ -8918,13 +8906,13 @@
         <v>0</v>
       </c>
       <c r="BH42" t="n">
-        <v>474.3529411764706</v>
+        <v>175.2204984320845</v>
       </c>
       <c r="BI42" t="n">
         <v>638</v>
       </c>
       <c r="BJ42" t="n">
-        <v>32.36764705882353</v>
+        <v>35.5</v>
       </c>
       <c r="BK42" t="n">
         <v>3366722</v>
@@ -9115,7 +9103,7 @@
         <v>0.0008823529411764706</v>
       </c>
       <c r="BH43" t="n">
-        <v>206.3769035532995</v>
+        <v>280.2245720040282</v>
       </c>
       <c r="BI43" t="n">
         <v>4878.8</v>
@@ -9312,14 +9300,12 @@
         <v>0</v>
       </c>
       <c r="BH44" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="BI44" t="n">
         <v>29</v>
       </c>
-      <c r="BJ44" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ44" t="s"/>
       <c r="BK44" t="n">
         <v>850061</v>
       </c>
@@ -9509,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="BH45" t="n">
-        <v>215.3087557603687</v>
+        <v>207.9918641669614</v>
       </c>
       <c r="BI45" t="n">
         <v>4677.2</v>
       </c>
       <c r="BJ45" t="n">
-        <v>21.87220291869354</v>
+        <v>22.10259831460674</v>
       </c>
       <c r="BK45" t="n">
         <v>13127535</v>
@@ -9705,14 +9691,12 @@
       <c r="BG46" t="n">
         <v>0.0003913894324853229</v>
       </c>
-      <c r="BH46" t="n">
-        <v>335.3022222222222</v>
-      </c>
+      <c r="BH46" t="s"/>
       <c r="BI46" t="n">
         <v>1616.6</v>
       </c>
       <c r="BJ46" t="n">
-        <v>24.35766823161189</v>
+        <v>24.49181746656176</v>
       </c>
       <c r="BK46" t="n">
         <v>11232754</v>
@@ -9903,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="BH47" t="n">
-        <v>287.3880983182406</v>
+        <v>242.5735294117647</v>
       </c>
       <c r="BI47" t="n">
         <v>5572.4</v>
@@ -10100,13 +10084,13 @@
         <v>0.0007911392405063291</v>
       </c>
       <c r="BH48" t="n">
-        <v>300.9471766848816</v>
+        <v>237.8421610169491</v>
       </c>
       <c r="BI48" t="n">
         <v>3047</v>
       </c>
       <c r="BJ48" t="n">
-        <v>23.71579778830964</v>
+        <v>23.94274322169059</v>
       </c>
       <c r="BK48" t="n">
         <v>15813631</v>
@@ -10297,7 +10281,7 @@
         <v>0.001705514496873223</v>
       </c>
       <c r="BH49" t="n">
-        <v>465</v>
+        <v>390.1869918699187</v>
       </c>
       <c r="BI49" t="n">
         <v>2546</v>
@@ -10494,7 +10478,7 @@
         <v>0.001833180568285976</v>
       </c>
       <c r="BH50" t="n">
-        <v>320.6157024793388</v>
+        <v>198.6669242658423</v>
       </c>
       <c r="BI50" t="n">
         <v>2188.5</v>
@@ -10691,7 +10675,7 @@
         <v>0.002265861027190333</v>
       </c>
       <c r="BH51" t="n">
-        <v>277.7631578947368</v>
+        <v>274.7620489528135</v>
       </c>
       <c r="BI51" t="n">
         <v>2777</v>
@@ -10888,13 +10872,13 @@
         <v>0</v>
       </c>
       <c r="BH52" t="n">
-        <v>286.4615384615385</v>
+        <v>302.6671939644683</v>
       </c>
       <c r="BI52" t="n">
         <v>2131.5</v>
       </c>
       <c r="BJ52" t="n">
-        <v>25.73422619047619</v>
+        <v>25.8110447761194</v>
       </c>
       <c r="BK52" t="n">
         <v>2698062</v>
@@ -11085,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="BH53" t="n">
-        <v>250.5996409335727</v>
+        <v>225.792656587473</v>
       </c>
       <c r="BI53" t="n">
         <v>4249.5</v>
@@ -11282,7 +11266,7 @@
         <v>0</v>
       </c>
       <c r="BH54" t="n">
-        <v>300.3996212121212</v>
+        <v>454</v>
       </c>
       <c r="BI54" t="n">
         <v>4863.333333333333</v>
@@ -11479,7 +11463,7 @@
         <v>0.003401360544217687</v>
       </c>
       <c r="BH55" t="n">
-        <v>411.3796296296296</v>
+        <v>232.2014760147601</v>
       </c>
       <c r="BI55" t="n">
         <v>453.75</v>
@@ -11676,13 +11660,13 @@
         <v>0</v>
       </c>
       <c r="BH56" t="n">
-        <v>0</v>
+        <v>556.1587301587301</v>
       </c>
       <c r="BI56" t="n">
         <v>137.5</v>
       </c>
       <c r="BJ56" t="n">
-        <v>7.257142857142857</v>
+        <v>12.7</v>
       </c>
       <c r="BK56" t="n">
         <v>3135686</v>
@@ -12828,7 +12812,7 @@
         <v>0.001633653257096181</v>
       </c>
       <c r="BH62" t="n">
-        <v>260.1676849966055</v>
+        <v>207.563670411985</v>
       </c>
       <c r="BI62" t="n">
         <v>6884.333333333333</v>
@@ -13025,7 +13009,7 @@
         <v>0.000718132854578097</v>
       </c>
       <c r="BH63" t="n">
-        <v>236.0076923076923</v>
+        <v>317.1834862385321</v>
       </c>
       <c r="BI63" t="n">
         <v>6777.666666666667</v>
@@ -13222,7 +13206,7 @@
         <v>0.0003192848020434228</v>
       </c>
       <c r="BH64" t="n">
-        <v>200.4341926729986</v>
+        <v>264.957805907173</v>
       </c>
       <c r="BI64" t="n">
         <v>7921.5</v>
@@ -13419,7 +13403,7 @@
         <v>0.002029426686960933</v>
       </c>
       <c r="BH65" t="n">
-        <v>200.2178988326848</v>
+        <v>487</v>
       </c>
       <c r="BI65" t="n">
         <v>4605.666666666667</v>
@@ -13616,13 +13600,13 @@
         <v>0.002609992542878449</v>
       </c>
       <c r="BH66" t="n">
-        <v>252.8019257221458</v>
+        <v>379.7827102803738</v>
       </c>
       <c r="BI66" t="n">
         <v>2766.333333333333</v>
       </c>
       <c r="BJ66" t="n">
-        <v>24.97524235645041</v>
+        <v>25.04996260284218</v>
       </c>
       <c r="BK66" t="n">
         <v>12320649</v>
@@ -13813,13 +13797,13 @@
         <v>0</v>
       </c>
       <c r="BH67" t="n">
-        <v>357.8522727272727</v>
+        <v>320.6157024793388</v>
       </c>
       <c r="BI67" t="n">
         <v>722.8333333333334</v>
       </c>
       <c r="BJ67" t="n">
-        <v>28.89283246977547</v>
+        <v>29.45237676056338</v>
       </c>
       <c r="BK67" t="n">
         <v>14396357</v>
@@ -14009,14 +13993,12 @@
       <c r="BG68" t="n">
         <v>0</v>
       </c>
-      <c r="BH68" t="n">
-        <v>0</v>
-      </c>
+      <c r="BH68" t="s"/>
       <c r="BI68" t="n">
         <v>69</v>
       </c>
       <c r="BJ68" t="n">
-        <v>15.32666666666667</v>
+        <v>20.9</v>
       </c>
       <c r="BK68" t="n">
         <v>4281852</v>
@@ -14207,13 +14189,13 @@
         <v>0.001114827201783724</v>
       </c>
       <c r="BH69" t="n">
-        <v>205.3603133159269</v>
+        <v>273.6907894736842</v>
       </c>
       <c r="BI69" t="n">
         <v>4291.6</v>
       </c>
       <c r="BJ69" t="n">
-        <v>22.31165381319623</v>
+        <v>22.32121731675954</v>
       </c>
       <c r="BK69" t="n">
         <v>19966910</v>
@@ -14404,7 +14386,7 @@
         <v>0.000308641975308642</v>
       </c>
       <c r="BH70" t="n">
-        <v>195</v>
+        <v>188.3019976498237</v>
       </c>
       <c r="BI70" t="n">
         <v>6209</v>
@@ -14601,7 +14583,7 @@
         <v>0.001401541695865452</v>
       </c>
       <c r="BH71" t="n">
-        <v>194.5474537037037</v>
+        <v>299.2812172088143</v>
       </c>
       <c r="BI71" t="n">
         <v>4420</v>
@@ -14798,13 +14780,13 @@
         <v>0</v>
       </c>
       <c r="BH72" t="n">
-        <v>474.3529411764706</v>
+        <v>169</v>
       </c>
       <c r="BI72" t="n">
         <v>607</v>
       </c>
       <c r="BJ72" t="n">
-        <v>33.86923076923077</v>
+        <v>37</v>
       </c>
       <c r="BK72" t="n">
         <v>3407142</v>
@@ -14995,7 +14977,7 @@
         <v>0.0005887547836326171</v>
       </c>
       <c r="BH73" t="n">
-        <v>202.6649874055416</v>
+        <v>211.6750353606789</v>
       </c>
       <c r="BI73" t="n">
         <v>4874.6</v>
@@ -15192,14 +15174,12 @@
         <v>0</v>
       </c>
       <c r="BH74" t="n">
-        <v>0</v>
+        <v>169.7326472520254</v>
       </c>
       <c r="BI74" t="n">
         <v>23</v>
       </c>
-      <c r="BJ74" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ74" t="s"/>
       <c r="BK74" t="n">
         <v>887752</v>
       </c>
@@ -15389,13 +15369,13 @@
         <v>0</v>
       </c>
       <c r="BH75" t="n">
-        <v>210.5038284839204</v>
+        <v>261.2720510095643</v>
       </c>
       <c r="BI75" t="n">
         <v>4723</v>
       </c>
       <c r="BJ75" t="n">
-        <v>22.17773949000689</v>
+        <v>22.42501742160279</v>
       </c>
       <c r="BK75" t="n">
         <v>13683699</v>
@@ -15586,13 +15566,13 @@
         <v>0</v>
       </c>
       <c r="BH76" t="n">
-        <v>330.6940133037694</v>
+        <v>172.8688175315781</v>
       </c>
       <c r="BI76" t="n">
         <v>1631.6</v>
       </c>
       <c r="BJ76" t="n">
-        <v>25.13678516228748</v>
+        <v>25.23429014740109</v>
       </c>
       <c r="BK76" t="n">
         <v>12067094</v>
@@ -15783,7 +15763,7 @@
         <v>0</v>
       </c>
       <c r="BH77" t="n">
-        <v>280.1034928848642</v>
+        <v>296.3583180987203</v>
       </c>
       <c r="BI77" t="n">
         <v>5548.2</v>
@@ -15980,13 +15960,13 @@
         <v>0.0003976143141153082</v>
       </c>
       <c r="BH78" t="n">
-        <v>296.3970856102003</v>
+        <v>326.3456732993984</v>
       </c>
       <c r="BI78" t="n">
         <v>3032.75</v>
       </c>
       <c r="BJ78" t="n">
-        <v>24.31230158730159</v>
+        <v>24.5068</v>
       </c>
       <c r="BK78" t="n">
         <v>16551549</v>
@@ -16177,7 +16157,7 @@
         <v>0</v>
       </c>
       <c r="BH79" t="n">
-        <v>458</v>
+        <v>289.9108910891089</v>
       </c>
       <c r="BI79" t="n">
         <v>2559</v>
@@ -16374,7 +16354,7 @@
         <v>0.003676470588235294</v>
       </c>
       <c r="BH80" t="n">
-        <v>318.1239669421487</v>
+        <v>198.2405435181785</v>
       </c>
       <c r="BI80" t="n">
         <v>2183.5</v>
@@ -16571,7 +16551,7 @@
         <v>0.0007616146230007616</v>
       </c>
       <c r="BH81" t="n">
-        <v>273.6907894736842</v>
+        <v>291.1887062187276</v>
       </c>
       <c r="BI81" t="n">
         <v>2757</v>
@@ -16768,13 +16748,13 @@
         <v>0</v>
       </c>
       <c r="BH82" t="n">
-        <v>301.1146496815286</v>
+        <v>282.6273557966876</v>
       </c>
       <c r="BI82" t="n">
         <v>2572</v>
       </c>
       <c r="BJ82" t="n">
-        <v>26.73480392156863</v>
+        <v>26.8004914004914</v>
       </c>
       <c r="BK82" t="n">
         <v>3390954</v>
@@ -16965,7 +16945,7 @@
         <v>0</v>
       </c>
       <c r="BH83" t="n">
-        <v>245.4491978609626</v>
+        <v>359.1447140381283</v>
       </c>
       <c r="BI83" t="n">
         <v>4330.5</v>
@@ -17162,7 +17142,7 @@
         <v>0</v>
       </c>
       <c r="BH84" t="n">
-        <v>299.2321755027422</v>
+        <v>340.9083379348426</v>
       </c>
       <c r="BI84" t="n">
         <v>5001.666666666667</v>
@@ -17358,14 +17338,12 @@
       <c r="BG85" t="n">
         <v>0.003502626970227671</v>
       </c>
-      <c r="BH85" t="n">
-        <v>371.2</v>
-      </c>
+      <c r="BH85" t="s"/>
       <c r="BI85" t="n">
         <v>437.25</v>
       </c>
       <c r="BJ85" t="n">
-        <v>28.30309278350515</v>
+        <v>29.84130434782609</v>
       </c>
       <c r="BK85" t="n">
         <v>3448914</v>
@@ -17556,13 +17534,13 @@
         <v>0</v>
       </c>
       <c r="BH86" t="n">
-        <v>0</v>
+        <v>318.3942598187311</v>
       </c>
       <c r="BI86" t="n">
         <v>140.5</v>
       </c>
       <c r="BJ86" t="n">
-        <v>8.011363636363637</v>
+        <v>14.1</v>
       </c>
       <c r="BK86" t="n">
         <v>3301320</v>
@@ -18708,7 +18686,7 @@
         <v>0.001818916734033953</v>
       </c>
       <c r="BH92" t="n">
-        <v>242.741896107419</v>
+        <v>261.1495726495726</v>
       </c>
       <c r="BI92" t="n">
         <v>7018</v>
@@ -18905,7 +18883,7 @@
         <v>0.0007158196134574087</v>
       </c>
       <c r="BH93" t="n">
-        <v>221.2726423902895</v>
+        <v>482</v>
       </c>
       <c r="BI93" t="n">
         <v>6823</v>
@@ -19102,7 +19080,7 @@
         <v>0.0006426735218508997</v>
       </c>
       <c r="BH94" t="n">
-        <v>186.5406788793103</v>
+        <v>388.7690417690418</v>
       </c>
       <c r="BI94" t="n">
         <v>7867.25</v>
@@ -19299,7 +19277,7 @@
         <v>0.002497502497502498</v>
       </c>
       <c r="BH95" t="n">
-        <v>184.1452959028832</v>
+        <v>337.9016393442623</v>
       </c>
       <c r="BI95" t="n">
         <v>5078</v>
@@ -19495,14 +19473,12 @@
       <c r="BG96" t="n">
         <v>0.002574475910261125</v>
       </c>
-      <c r="BH96" t="n">
-        <v>231.783798576902</v>
-      </c>
+      <c r="BH96" t="s"/>
       <c r="BI96" t="n">
         <v>3398.8</v>
       </c>
       <c r="BJ96" t="n">
-        <v>24.75453874538745</v>
+        <v>24.8094674556213</v>
       </c>
       <c r="BK96" t="n">
         <v>12037194</v>
@@ -19693,13 +19669,13 @@
         <v>0</v>
       </c>
       <c r="BH97" t="n">
-        <v>330.3848937132519</v>
+        <v>277.7631578947368</v>
       </c>
       <c r="BI97" t="n">
         <v>718.3333333333334</v>
       </c>
       <c r="BJ97" t="n">
-        <v>29.18264248704663</v>
+        <v>29.72163588390501</v>
       </c>
       <c r="BK97" t="n">
         <v>13902548</v>
@@ -19890,13 +19866,13 @@
         <v>0</v>
       </c>
       <c r="BH98" t="n">
-        <v>0</v>
+        <v>205.3603133159269</v>
       </c>
       <c r="BI98" t="n">
         <v>73.33333333333333</v>
       </c>
       <c r="BJ98" t="n">
-        <v>14.91290322580645</v>
+        <v>20.1</v>
       </c>
       <c r="BK98" t="n">
         <v>4412365</v>
@@ -20087,7 +20063,7 @@
         <v>0.00088261253309797</v>
       </c>
       <c r="BH99" t="n">
-        <v>188.2072147651007</v>
+        <v>301.1146496815286</v>
       </c>
       <c r="BI99" t="n">
         <v>4376.4</v>
@@ -20481,7 +20457,7 @@
         <v>0.001413427561837456</v>
       </c>
       <c r="BH101" t="n">
-        <v>183.2897565255539</v>
+        <v>226.6542948038176</v>
       </c>
       <c r="BI101" t="n">
         <v>4379.375</v>
@@ -20678,13 +20654,13 @@
         <v>0.01083032490974729</v>
       </c>
       <c r="BH102" t="n">
-        <v>420.2334630350194</v>
+        <v>172.1515484296069</v>
       </c>
       <c r="BI102" t="n">
         <v>648.5</v>
       </c>
       <c r="BJ102" t="n">
-        <v>32.49705882352941</v>
+        <v>34.8</v>
       </c>
       <c r="BK102" t="n">
         <v>3389435</v>
@@ -20875,7 +20851,7 @@
         <v>0.001186591515870662</v>
       </c>
       <c r="BH103" t="n">
-        <v>189.6668369954011</v>
+        <v>267.1935483870968</v>
       </c>
       <c r="BI103" t="n">
         <v>4829.4</v>
@@ -21072,14 +21048,12 @@
         <v>0</v>
       </c>
       <c r="BH104" t="n">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="BI104" t="n">
         <v>21</v>
       </c>
-      <c r="BJ104" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ104" t="s"/>
       <c r="BK104" t="n">
         <v>808592</v>
       </c>
@@ -21269,13 +21243,13 @@
         <v>0</v>
       </c>
       <c r="BH105" t="n">
-        <v>193.992053789731</v>
+        <v>378</v>
       </c>
       <c r="BI105" t="n">
         <v>4637</v>
       </c>
       <c r="BJ105" t="n">
-        <v>22.35838552540014</v>
+        <v>22.61013370865588</v>
       </c>
       <c r="BK105" t="n">
         <v>13409222</v>
@@ -21466,13 +21440,13 @@
         <v>0.0003824091778202677</v>
       </c>
       <c r="BH106" t="n">
-        <v>311.9729370008873</v>
+        <v>165</v>
       </c>
       <c r="BI106" t="n">
         <v>1647.6</v>
       </c>
       <c r="BJ106" t="n">
-        <v>25.28913542463657</v>
+        <v>25.36676899462778</v>
       </c>
       <c r="BK106" t="n">
         <v>11822381</v>
@@ -21663,7 +21637,7 @@
         <v>0</v>
       </c>
       <c r="BH107" t="n">
-        <v>259.7312467666839</v>
+        <v>215.3247258577998</v>
       </c>
       <c r="BI107" t="n">
         <v>5474.2</v>
@@ -21859,14 +21833,12 @@
       <c r="BG108" t="n">
         <v>0</v>
       </c>
-      <c r="BH108" t="n">
-        <v>273.9104748097137</v>
-      </c>
+      <c r="BH108" t="s"/>
       <c r="BI108" t="n">
         <v>3029</v>
       </c>
       <c r="BJ108" t="n">
-        <v>24.78671439936356</v>
+        <v>24.94547638110489</v>
       </c>
       <c r="BK108" t="n">
         <v>16083340</v>
@@ -22057,7 +22029,7 @@
         <v>0.00221483942414175</v>
       </c>
       <c r="BH109" t="n">
-        <v>399</v>
+        <v>252.9221336603311</v>
       </c>
       <c r="BI109" t="n">
         <v>2643</v>
@@ -22254,7 +22226,7 @@
         <v>0</v>
       </c>
       <c r="BH110" t="n">
-        <v>294.7193708609271</v>
+        <v>265.416120906801</v>
       </c>
       <c r="BI110" t="n">
         <v>2103</v>
@@ -22451,7 +22423,7 @@
         <v>0.0007704160246533128</v>
       </c>
       <c r="BH111" t="n">
-        <v>256.5291536050157</v>
+        <v>411.0767441860465</v>
       </c>
       <c r="BI111" t="n">
         <v>2730.5</v>
@@ -22648,7 +22620,7 @@
         <v>0</v>
       </c>
       <c r="BH112" t="n">
-        <v>298.6544502617801</v>
+        <v>216.4762741652021</v>
       </c>
       <c r="BI112" t="n">
         <v>3046.5</v>
@@ -22845,7 +22817,7 @@
         <v>0</v>
       </c>
       <c r="BH113" t="n">
-        <v>226.6542948038176</v>
+        <v>296.2857142857143</v>
       </c>
       <c r="BI113" t="n">
         <v>4380.5</v>
@@ -23042,7 +23014,7 @@
         <v>0</v>
       </c>
       <c r="BH114" t="n">
-        <v>283.12402551382</v>
+        <v>320.1702819956616</v>
       </c>
       <c r="BI114" t="n">
         <v>5235</v>
@@ -23239,13 +23211,13 @@
         <v>0</v>
       </c>
       <c r="BH115" t="n">
-        <v>348.8854368932039</v>
+        <v>244.5349404943546</v>
       </c>
       <c r="BI115" t="n">
         <v>426.25</v>
       </c>
       <c r="BJ115" t="n">
-        <v>28.7556338028169</v>
+        <v>30.24666666666667</v>
       </c>
       <c r="BK115" t="n">
         <v>3400939</v>
@@ -23436,13 +23408,13 @@
         <v>0</v>
       </c>
       <c r="BH116" t="n">
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="BI116" t="n">
         <v>135.5</v>
       </c>
       <c r="BJ116" t="n">
-        <v>9.199999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="BK116" t="n">
         <v>3306817</v>
@@ -24588,7 +24560,7 @@
         <v>0.001410721483272874</v>
       </c>
       <c r="BH122" t="n">
-        <v>227.7051728759046</v>
+        <v>391.1699507389163</v>
       </c>
       <c r="BI122" t="n">
         <v>7041.666666666667</v>
@@ -24785,7 +24757,7 @@
         <v>0.0003531073446327684</v>
       </c>
       <c r="BH123" t="n">
-        <v>208.3160762942779</v>
+        <v>334.7178423236514</v>
       </c>
       <c r="BI123" t="n">
         <v>6937</v>
@@ -24981,9 +24953,7 @@
       <c r="BG124" t="n">
         <v>0.0003208213025344883</v>
       </c>
-      <c r="BH124" t="n">
-        <v>174.3162853297443</v>
-      </c>
+      <c r="BH124" t="s"/>
       <c r="BI124" t="n">
         <v>7885.75</v>
       </c>
@@ -25179,7 +25149,7 @@
         <v>0.003373493975903614</v>
       </c>
       <c r="BH125" t="n">
-        <v>172.3063432835821</v>
+        <v>294.0756578947368</v>
       </c>
       <c r="BI125" t="n">
         <v>5679</v>
@@ -25376,13 +25346,13 @@
         <v>0.002539912917271408</v>
       </c>
       <c r="BH126" t="n">
-        <v>219.8651289009498</v>
+        <v>204.3065371024735</v>
       </c>
       <c r="BI126" t="n">
         <v>2891.5</v>
       </c>
       <c r="BJ126" t="n">
-        <v>25.48917937545389</v>
+        <v>25.58206997084548</v>
       </c>
       <c r="BK126" t="n">
         <v>12042674</v>
@@ -25573,13 +25543,13 @@
         <v>0.0004308487720809996</v>
       </c>
       <c r="BH127" t="n">
-        <v>311.8912550974173</v>
+        <v>286.4615384615385</v>
       </c>
       <c r="BI127" t="n">
         <v>720.6666666666666</v>
       </c>
       <c r="BJ127" t="n">
-        <v>29.96194158075602</v>
+        <v>30.48575174825175</v>
       </c>
       <c r="BK127" t="n">
         <v>13689079</v>
@@ -25770,13 +25740,13 @@
         <v>0</v>
       </c>
       <c r="BH128" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="BI128" t="n">
         <v>66.33333333333333</v>
       </c>
       <c r="BJ128" t="n">
-        <v>19.51034482758621</v>
+        <v>24.6</v>
       </c>
       <c r="BK128" t="n">
         <v>4219806</v>
@@ -25967,7 +25937,7 @@
         <v>0.0006635700066357001</v>
       </c>
       <c r="BH129" t="n">
-        <v>175.1915841584158</v>
+        <v>245.4491978609626</v>
       </c>
       <c r="BI129" t="n">
         <v>4360.2</v>
@@ -26164,7 +26134,7 @@
         <v>0.0008831321754489255</v>
       </c>
       <c r="BH130" t="n">
-        <v>169</v>
+        <v>183.2897565255539</v>
       </c>
       <c r="BI130" t="n">
         <v>6527</v>
@@ -26361,7 +26331,7 @@
         <v>0.001890359168241966</v>
       </c>
       <c r="BH131" t="n">
-        <v>172.1515484296069</v>
+        <v>283.12402551382</v>
       </c>
       <c r="BI131" t="n">
         <v>4360.25</v>
@@ -26558,13 +26528,13 @@
         <v>0.006451612903225806</v>
       </c>
       <c r="BH132" t="n">
-        <v>414.2395833333333</v>
+        <v>437</v>
       </c>
       <c r="BI132" t="n">
         <v>726</v>
       </c>
       <c r="BJ132" t="n">
-        <v>36.12631578947369</v>
+        <v>38.4</v>
       </c>
       <c r="BK132" t="n">
         <v>3520802</v>
@@ -26755,7 +26725,7 @@
         <v>0.0008973975471133712</v>
       </c>
       <c r="BH133" t="n">
-        <v>179.6008551307847</v>
+        <v>386</v>
       </c>
       <c r="BI133" t="n">
         <v>4786.6</v>
@@ -26952,14 +26922,12 @@
         <v>0</v>
       </c>
       <c r="BH134" t="n">
-        <v>0</v>
+        <v>179.5476907630522</v>
       </c>
       <c r="BI134" t="n">
         <v>23</v>
       </c>
-      <c r="BJ134" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ134" t="s"/>
       <c r="BK134" t="n">
         <v>783473</v>
       </c>
@@ -27148,14 +27116,12 @@
       <c r="BG135" t="n">
         <v>0</v>
       </c>
-      <c r="BH135" t="n">
-        <v>182.5990839694657</v>
-      </c>
+      <c r="BH135" t="s"/>
       <c r="BI135" t="n">
         <v>4652.4</v>
       </c>
       <c r="BJ135" t="n">
-        <v>22.63456189151599</v>
+        <v>22.90534834623504</v>
       </c>
       <c r="BK135" t="n">
         <v>13204106</v>
@@ -27346,7 +27312,7 @@
         <v>0.0003824091778202677</v>
       </c>
       <c r="BH136" t="n">
-        <v>297.739902352419</v>
+        <v>175.5833876929767</v>
       </c>
       <c r="BI136" t="n">
         <v>2052.25</v>
@@ -27543,7 +27509,7 @@
         <v>0.0002529724260055654</v>
       </c>
       <c r="BH137" t="n">
-        <v>243.8755175983437</v>
+        <v>272.3946280991735</v>
       </c>
       <c r="BI137" t="n">
         <v>5447.2</v>
@@ -27740,13 +27706,13 @@
         <v>0.0007974481658692185</v>
       </c>
       <c r="BH138" t="n">
-        <v>255.9254322766571</v>
+        <v>183.0846338535414</v>
       </c>
       <c r="BI138" t="n">
         <v>3034</v>
       </c>
       <c r="BJ138" t="n">
-        <v>25.21185361972951</v>
+        <v>25.39366987179487</v>
       </c>
       <c r="BK138" t="n">
         <v>16228498</v>
@@ -27937,7 +27903,7 @@
         <v>0.001639344262295082</v>
       </c>
       <c r="BH139" t="n">
-        <v>377</v>
+        <v>309.8832891246684</v>
       </c>
       <c r="BI139" t="n">
         <v>2704</v>
@@ -28134,7 +28100,7 @@
         <v>0.0009487666034155598</v>
       </c>
       <c r="BH140" t="n">
-        <v>275.4341342170671</v>
+        <v>346.9126213592233</v>
       </c>
       <c r="BI140" t="n">
         <v>2101</v>
@@ -28331,7 +28297,7 @@
         <v>0.0007727975270479134</v>
       </c>
       <c r="BH141" t="n">
-        <v>238.6521197007481</v>
+        <v>312.004942339374</v>
       </c>
       <c r="BI141" t="n">
         <v>2715</v>
@@ -28528,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="BH142" t="n">
-        <v>279.6613065326633</v>
+        <v>212.0539845758355</v>
       </c>
       <c r="BI142" t="n">
         <v>3331</v>
@@ -28725,7 +28691,7 @@
         <v>0.0008173273395995096</v>
       </c>
       <c r="BH143" t="n">
-        <v>211.6750353606789</v>
+        <v>314.3113835376532</v>
       </c>
       <c r="BI143" t="n">
         <v>4336</v>
@@ -28922,13 +28888,13 @@
         <v>0.0003145643284051588</v>
       </c>
       <c r="BH144" t="n">
-        <v>266.7208067940552</v>
+        <v>310.5677990294034</v>
       </c>
       <c r="BI144" t="n">
         <v>3929.5</v>
       </c>
       <c r="BJ144" t="n">
-        <v>25.67699171446781</v>
+        <v>25.75907928388747</v>
       </c>
       <c r="BK144" t="n">
         <v>12778450</v>
@@ -29119,13 +29085,13 @@
         <v>0.001773049645390071</v>
       </c>
       <c r="BH145" t="n">
-        <v>325.2893203883495</v>
+        <v>375.9756929637527</v>
       </c>
       <c r="BI145" t="n">
         <v>424.25</v>
       </c>
       <c r="BJ145" t="n">
-        <v>28.01872791519435</v>
+        <v>33.88589743589743</v>
       </c>
       <c r="BK145" t="n">
         <v>3327669</v>
@@ -29316,13 +29282,13 @@
         <v>0</v>
       </c>
       <c r="BH146" t="n">
-        <v>0</v>
+        <v>335.1391625615764</v>
       </c>
       <c r="BI146" t="n">
         <v>123.5</v>
       </c>
       <c r="BJ146" t="n">
-        <v>10.68</v>
+        <v>17.8</v>
       </c>
       <c r="BK146" t="n">
         <v>3419207</v>
@@ -30468,7 +30434,7 @@
         <v>0.001602564102564103</v>
       </c>
       <c r="BH152" t="n">
-        <v>222.2488952430465</v>
+        <v>239</v>
       </c>
       <c r="BI152" t="n">
         <v>7072.833333333333</v>
@@ -30665,7 +30631,7 @@
         <v>0.0003453038674033149</v>
       </c>
       <c r="BH153" t="n">
-        <v>208.2848046309696</v>
+        <v>291.8684210526316</v>
       </c>
       <c r="BI153" t="n">
         <v>7026.333333333333</v>
@@ -30862,7 +30828,7 @@
         <v>0.0009572431397574984</v>
       </c>
       <c r="BH154" t="n">
-        <v>169.9556742323097</v>
+        <v>212.6535714285714</v>
       </c>
       <c r="BI154" t="n">
         <v>7920</v>
@@ -31059,7 +31025,7 @@
         <v>0.003894839337877313</v>
       </c>
       <c r="BH155" t="n">
-        <v>167.1682173427614</v>
+        <v>269.1860465116279</v>
       </c>
       <c r="BI155" t="n">
         <v>5692.333333333333</v>
@@ -31256,13 +31222,13 @@
         <v>0.001449275362318841</v>
       </c>
       <c r="BH156" t="n">
-        <v>212.9986541049798</v>
+        <v>191</v>
       </c>
       <c r="BI156" t="n">
         <v>3494.2</v>
       </c>
       <c r="BJ156" t="n">
-        <v>26.72489114658926</v>
+        <v>26.80269286754003</v>
       </c>
       <c r="BK156" t="n">
         <v>11927429</v>
@@ -31453,13 +31419,13 @@
         <v>0</v>
       </c>
       <c r="BH157" t="n">
-        <v>305.1047404063206</v>
+        <v>250.5996409335727</v>
       </c>
       <c r="BI157" t="n">
         <v>720</v>
       </c>
       <c r="BJ157" t="n">
-        <v>31.53743545611016</v>
+        <v>32.57466666666667</v>
       </c>
       <c r="BK157" t="n">
         <v>13548500</v>
@@ -31650,13 +31616,13 @@
         <v>0</v>
       </c>
       <c r="BH158" t="n">
-        <v>0</v>
+        <v>194.5474537037037</v>
       </c>
       <c r="BI158" t="n">
         <v>67.66666666666667</v>
       </c>
       <c r="BJ158" t="n">
-        <v>20.4</v>
+        <v>25.5</v>
       </c>
       <c r="BK158" t="n">
         <v>4389643</v>
@@ -31847,7 +31813,7 @@
         <v>0.0008770006577504934</v>
       </c>
       <c r="BH159" t="n">
-        <v>169.9428347689898</v>
+        <v>299.2321755027422</v>
       </c>
       <c r="BI159" t="n">
         <v>4404.8</v>
@@ -32044,7 +32010,7 @@
         <v>0.000585308750365818</v>
       </c>
       <c r="BH160" t="n">
-        <v>163</v>
+        <v>450</v>
       </c>
       <c r="BI160" t="n">
         <v>6575</v>
@@ -32241,7 +32207,7 @@
         <v>0.001422137947380896</v>
       </c>
       <c r="BH161" t="n">
-        <v>169.6954903677758</v>
+        <v>414</v>
       </c>
       <c r="BI161" t="n">
         <v>4350</v>
@@ -32438,13 +32404,13 @@
         <v>0.003225806451612903</v>
       </c>
       <c r="BH162" t="n">
-        <v>422.019801980198</v>
+        <v>179.6008551307847</v>
       </c>
       <c r="BI162" t="n">
         <v>742</v>
       </c>
       <c r="BJ162" t="n">
-        <v>38.46818181818181</v>
+        <v>40.3</v>
       </c>
       <c r="BK162" t="n">
         <v>3542035</v>
@@ -32634,9 +32600,7 @@
       <c r="BG163" t="n">
         <v>0.0008995502248875562</v>
       </c>
-      <c r="BH163" t="n">
-        <v>179.5476907630522</v>
-      </c>
+      <c r="BH163" t="s"/>
       <c r="BI163" t="n">
         <v>4774.2</v>
       </c>
@@ -32831,15 +32795,11 @@
       <c r="BG164" t="n">
         <v>0</v>
       </c>
-      <c r="BH164" t="n">
-        <v>0</v>
-      </c>
+      <c r="BH164" t="s"/>
       <c r="BI164" t="n">
         <v>30</v>
       </c>
-      <c r="BJ164" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ164" t="s"/>
       <c r="BK164" t="n">
         <v>754984</v>
       </c>
@@ -33029,13 +32989,13 @@
         <v>0</v>
       </c>
       <c r="BH165" t="n">
-        <v>180.1306471306471</v>
+        <v>240.2058047493404</v>
       </c>
       <c r="BI165" t="n">
         <v>4655</v>
       </c>
       <c r="BJ165" t="n">
-        <v>23.42204450625869</v>
+        <v>23.70225193525686</v>
       </c>
       <c r="BK165" t="n">
         <v>12792065</v>
@@ -33226,13 +33186,13 @@
         <v>0.0003812428516965307</v>
       </c>
       <c r="BH166" t="n">
-        <v>291.9859030837005</v>
+        <v>456</v>
       </c>
       <c r="BI166" t="n">
         <v>1652</v>
       </c>
       <c r="BJ166" t="n">
-        <v>27.31400153022188</v>
+        <v>27.39785111281658</v>
       </c>
       <c r="BK166" t="n">
         <v>12093577</v>
@@ -33423,7 +33383,7 @@
         <v>0.0002547770700636942</v>
       </c>
       <c r="BH167" t="n">
-        <v>239.6124710126256</v>
+        <v>394</v>
       </c>
       <c r="BI167" t="n">
         <v>5414.2</v>
@@ -33620,13 +33580,13 @@
         <v>0</v>
       </c>
       <c r="BH168" t="n">
-        <v>250.0447868147617</v>
+        <v>174</v>
       </c>
       <c r="BI168" t="n">
         <v>3019.25</v>
       </c>
       <c r="BJ168" t="n">
-        <v>26.21292897047087</v>
+        <v>26.36019261637239</v>
       </c>
       <c r="BK168" t="n">
         <v>15741321</v>
@@ -33817,7 +33777,7 @@
         <v>0.002754820936639119</v>
       </c>
       <c r="BH169" t="n">
-        <v>369</v>
+        <v>222.3161244695898</v>
       </c>
       <c r="BI169" t="n">
         <v>2685</v>
@@ -34013,9 +33973,7 @@
       <c r="BG170" t="n">
         <v>0.0009596928982725527</v>
       </c>
-      <c r="BH170" t="n">
-        <v>269.1466445733223</v>
-      </c>
+      <c r="BH170" t="s"/>
       <c r="BI170" t="n">
         <v>2088</v>
       </c>
@@ -34211,7 +34169,7 @@
         <v>0</v>
       </c>
       <c r="BH171" t="n">
-        <v>234.7486068111455</v>
+        <v>268.4095646842428</v>
       </c>
       <c r="BI171" t="n">
         <v>2680</v>
@@ -34408,7 +34366,7 @@
         <v>0</v>
       </c>
       <c r="BH172" t="n">
-        <v>277.6116504854369</v>
+        <v>292.1891348088531</v>
       </c>
       <c r="BI172" t="n">
         <v>3542</v>
@@ -34605,7 +34563,7 @@
         <v>0.001221498371335505</v>
       </c>
       <c r="BH173" t="n">
-        <v>207.9918641669614</v>
+        <v>449.3828571428571</v>
       </c>
       <c r="BI173" t="n">
         <v>4361.5</v>
@@ -34802,7 +34760,7 @@
         <v>0</v>
       </c>
       <c r="BH174" t="n">
-        <v>261.2720510095643</v>
+        <v>239.3593516209476</v>
       </c>
       <c r="BI174" t="n">
         <v>5263.333333333333</v>
@@ -34999,13 +34957,13 @@
         <v>0.001795332136445242</v>
       </c>
       <c r="BH175" t="n">
-        <v>307.6578947368421</v>
+        <v>312.8391959798995</v>
       </c>
       <c r="BI175" t="n">
         <v>421</v>
       </c>
       <c r="BJ175" t="n">
-        <v>29.23642857142857</v>
+        <v>35.13390557939914</v>
       </c>
       <c r="BK175" t="n">
         <v>3259393</v>
@@ -35195,14 +35153,12 @@
       <c r="BG176" t="n">
         <v>0</v>
       </c>
-      <c r="BH176" t="n">
-        <v>0</v>
-      </c>
+      <c r="BH176" t="s"/>
       <c r="BI176" t="n">
         <v>139</v>
       </c>
       <c r="BJ176" t="n">
-        <v>11.25714285714286</v>
+        <v>19.7</v>
       </c>
       <c r="BK176" t="n">
         <v>3429494</v>
@@ -35583,9 +35539,7 @@
       <c r="BG178" t="n">
         <v>0</v>
       </c>
-      <c r="BH178" t="n">
-        <v>240.2058047493404</v>
-      </c>
+      <c r="BH178" t="s"/>
       <c r="BI178" t="n">
         <v>723</v>
       </c>
@@ -35780,9 +35734,7 @@
       <c r="BG179" t="n">
         <v>0</v>
       </c>
-      <c r="BH179" t="n">
-        <v>383</v>
-      </c>
+      <c r="BH179" t="s"/>
       <c r="BI179" t="n">
         <v>76</v>
       </c>
@@ -35977,14 +35929,12 @@
       <c r="BG180" t="n">
         <v>0.00365764447695684</v>
       </c>
-      <c r="BH180" t="n">
-        <v>292.2377701934016</v>
-      </c>
+      <c r="BH180" t="s"/>
       <c r="BI180" t="n">
         <v>615.8</v>
       </c>
       <c r="BJ180" t="n">
-        <v>23.04814814814815</v>
+        <v>23.56639053254438</v>
       </c>
       <c r="BK180" t="n">
         <v>8361050</v>
@@ -36366,7 +36316,7 @@
         <v>0.001381760757994473</v>
       </c>
       <c r="BH182" t="n">
-        <v>234.3905415713196</v>
+        <v>209.6370302474794</v>
       </c>
       <c r="BI182" t="n">
         <v>7275.333333333333</v>
@@ -36563,7 +36513,7 @@
         <v>0.0006868131868131869</v>
       </c>
       <c r="BH183" t="n">
-        <v>217.7978298115363</v>
+        <v>205</v>
       </c>
       <c r="BI183" t="n">
         <v>7023.333333333333</v>
@@ -36760,7 +36710,7 @@
         <v>0</v>
       </c>
       <c r="BH184" t="n">
-        <v>178.1786367197702</v>
+        <v>204</v>
       </c>
       <c r="BI184" t="n">
         <v>8224</v>
@@ -36957,7 +36907,7 @@
         <v>0.006240998559769563</v>
       </c>
       <c r="BH185" t="n">
-        <v>175.8114663726571</v>
+        <v>258.228624535316</v>
       </c>
       <c r="BI185" t="n">
         <v>6007.333333333333</v>
@@ -37154,13 +37104,13 @@
         <v>0.001078748651564185</v>
       </c>
       <c r="BH186" t="n">
-        <v>226.0189941144997</v>
+        <v>198.6180555555555</v>
       </c>
       <c r="BI186" t="n">
         <v>3501.8</v>
       </c>
       <c r="BJ186" t="n">
-        <v>27.31743515850144</v>
+        <v>27.39638728323699</v>
       </c>
       <c r="BK186" t="n">
         <v>11642045</v>
@@ -37351,13 +37301,13 @@
         <v>0</v>
       </c>
       <c r="BH187" t="n">
-        <v>310.187725631769</v>
+        <v>300.3996212121212</v>
       </c>
       <c r="BI187" t="n">
         <v>713.3333333333334</v>
       </c>
       <c r="BJ187" t="n">
-        <v>32.20946643717728</v>
+        <v>33.29839857651245</v>
       </c>
       <c r="BK187" t="n">
         <v>13280039</v>
@@ -37548,13 +37498,13 @@
         <v>0</v>
       </c>
       <c r="BH188" t="n">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="BI188" t="n">
         <v>70</v>
       </c>
       <c r="BJ188" t="n">
-        <v>20.71875</v>
+        <v>25.5</v>
       </c>
       <c r="BK188" t="n">
         <v>4388104</v>
@@ -37745,7 +37695,7 @@
         <v>0.001299826689774697</v>
       </c>
       <c r="BH189" t="n">
-        <v>172.8425136944614</v>
+        <v>448</v>
       </c>
       <c r="BI189" t="n">
         <v>4213</v>
@@ -37942,7 +37892,7 @@
         <v>0.000587026709715292</v>
       </c>
       <c r="BH190" t="n">
-        <v>165</v>
+        <v>189.6668369954011</v>
       </c>
       <c r="BI190" t="n">
         <v>6418</v>
@@ -38138,9 +38088,7 @@
       <c r="BG191" t="n">
         <v>0.001890805956038762</v>
       </c>
-      <c r="BH191" t="n">
-        <v>175.5070636818083</v>
-      </c>
+      <c r="BH191" t="s"/>
       <c r="BI191" t="n">
         <v>4346.75</v>
       </c>
@@ -38335,14 +38283,12 @@
       <c r="BG192" t="n">
         <v>0</v>
       </c>
-      <c r="BH192" t="n">
-        <v>434.3544303797468</v>
-      </c>
+      <c r="BH192" t="s"/>
       <c r="BI192" t="n">
         <v>793</v>
       </c>
       <c r="BJ192" t="n">
-        <v>38.01575757575758</v>
+        <v>39.7</v>
       </c>
       <c r="BK192" t="n">
         <v>3774295</v>
@@ -38533,7 +38479,7 @@
         <v>0.0006025911419102139</v>
       </c>
       <c r="BH193" t="n">
-        <v>185.0925507900677</v>
+        <v>222.2488952430465</v>
       </c>
       <c r="BI193" t="n">
         <v>4698.2</v>
@@ -38730,14 +38676,12 @@
         <v>0</v>
       </c>
       <c r="BH194" t="n">
-        <v>0</v>
+        <v>182.0197409006786</v>
       </c>
       <c r="BI194" t="n">
         <v>29</v>
       </c>
-      <c r="BJ194" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ194" t="s"/>
       <c r="BK194" t="n">
         <v>722149</v>
       </c>
@@ -38927,13 +38871,13 @@
         <v>0.0006995452955578874</v>
       </c>
       <c r="BH195" t="n">
-        <v>186.942612942613</v>
+        <v>383</v>
       </c>
       <c r="BI195" t="n">
         <v>4727.2</v>
       </c>
       <c r="BJ195" t="n">
-        <v>24.1713581984518</v>
+        <v>24.44661921708185</v>
       </c>
       <c r="BK195" t="n">
         <v>12423778</v>
@@ -39124,13 +39068,13 @@
         <v>0</v>
       </c>
       <c r="BH196" t="n">
-        <v>303.6309784993418</v>
+        <v>185.0925507900677</v>
       </c>
       <c r="BI196" t="n">
         <v>1644.4</v>
       </c>
       <c r="BJ196" t="n">
-        <v>28.33869230769231</v>
+        <v>28.42615740740741</v>
       </c>
       <c r="BK196" t="n">
         <v>11842453</v>
@@ -39320,9 +39264,7 @@
       <c r="BG197" t="n">
         <v>0.00051440329218107</v>
       </c>
-      <c r="BH197" t="n">
-        <v>246.6160783303272</v>
-      </c>
+      <c r="BH197" t="s"/>
       <c r="BI197" t="n">
         <v>5339.2</v>
       </c>
@@ -39518,13 +39460,13 @@
         <v>0</v>
       </c>
       <c r="BH198" t="n">
-        <v>259.3190271816881</v>
+        <v>183.5627970128988</v>
       </c>
       <c r="BI198" t="n">
         <v>3081.25</v>
       </c>
       <c r="BJ198" t="n">
-        <v>27.36031746031746</v>
+        <v>27.53514376996805</v>
       </c>
       <c r="BK198" t="n">
         <v>15157742</v>
@@ -39715,7 +39657,7 @@
         <v>0.0016</v>
       </c>
       <c r="BH199" t="n">
-        <v>372.1836734693878</v>
+        <v>282.2795180722891</v>
       </c>
       <c r="BI199" t="n">
         <v>1468</v>
@@ -39912,7 +39854,7 @@
         <v>0</v>
       </c>
       <c r="BH200" t="n">
-        <v>277.8924731182796</v>
+        <v>207.8365985235662</v>
       </c>
       <c r="BI200" t="n">
         <v>2091.5</v>
@@ -40109,7 +40051,7 @@
         <v>0</v>
       </c>
       <c r="BH201" t="n">
-        <v>242.5735294117647</v>
+        <v>335.3218997361478</v>
       </c>
       <c r="BI201" t="n">
         <v>2672</v>
@@ -40306,13 +40248,13 @@
         <v>0</v>
       </c>
       <c r="BH202" t="n">
-        <v>295.8175182481752</v>
+        <v>368.8443418013857</v>
       </c>
       <c r="BI202" t="n">
         <v>3322</v>
       </c>
       <c r="BJ202" t="n">
-        <v>28.68480801335559</v>
+        <v>28.73277591973244</v>
       </c>
       <c r="BK202" t="n">
         <v>3806243</v>
@@ -40503,7 +40445,7 @@
         <v>0.001231527093596059</v>
       </c>
       <c r="BH203" t="n">
-        <v>215.3247258577998</v>
+        <v>338.2284794851167</v>
       </c>
       <c r="BI203" t="n">
         <v>4293</v>
@@ -40700,7 +40642,7 @@
         <v>0</v>
       </c>
       <c r="BH204" t="n">
-        <v>272.3946280991735</v>
+        <v>238.2433155080214</v>
       </c>
       <c r="BI204" t="n">
         <v>5431.333333333333</v>
@@ -40897,13 +40839,13 @@
         <v>0.005405405405405406</v>
       </c>
       <c r="BH205" t="n">
-        <v>327.4194831013917</v>
+        <v>331.8675909878683</v>
       </c>
       <c r="BI205" t="n">
         <v>540</v>
       </c>
       <c r="BJ205" t="n">
-        <v>30.04569288389513</v>
+        <v>35.49646017699115</v>
       </c>
       <c r="BK205" t="n">
         <v>3021413</v>
@@ -41093,14 +41035,12 @@
       <c r="BG206" t="n">
         <v>0</v>
       </c>
-      <c r="BH206" t="n">
-        <v>0</v>
-      </c>
+      <c r="BH206" t="s"/>
       <c r="BI206" t="n">
         <v>145</v>
       </c>
       <c r="BJ206" t="n">
-        <v>15.42857142857143</v>
+        <v>27</v>
       </c>
       <c r="BK206" t="n">
         <v>3517672</v>
@@ -41481,9 +41421,7 @@
       <c r="BG208" t="n">
         <v>0</v>
       </c>
-      <c r="BH208" t="n">
-        <v>249.6158940397351</v>
-      </c>
+      <c r="BH208" t="s"/>
       <c r="BI208" t="n">
         <v>745.5</v>
       </c>
@@ -41678,9 +41616,7 @@
       <c r="BG209" t="n">
         <v>0</v>
       </c>
-      <c r="BH209" t="n">
-        <v>380</v>
-      </c>
+      <c r="BH209" t="s"/>
       <c r="BI209" t="n">
         <v>76</v>
       </c>
@@ -41875,14 +41811,12 @@
       <c r="BG210" t="n">
         <v>0.005873715124816446</v>
       </c>
-      <c r="BH210" t="n">
-        <v>293.402376910017</v>
-      </c>
+      <c r="BH210" t="s"/>
       <c r="BI210" t="n">
         <v>584.4</v>
       </c>
       <c r="BJ210" t="n">
-        <v>24.11742160278746</v>
+        <v>24.66163895486936</v>
       </c>
       <c r="BK210" t="n">
         <v>8014867</v>
@@ -42264,7 +42198,7 @@
         <v>0.001762977473065622</v>
       </c>
       <c r="BH212" t="n">
-        <v>248.2497534516765</v>
+        <v>204</v>
       </c>
       <c r="BI212" t="n">
         <v>7310.666666666667</v>
@@ -42461,7 +42395,7 @@
         <v>0.000341180484476288</v>
       </c>
       <c r="BH213" t="n">
-        <v>229.4247281053234</v>
+        <v>262.8258426966292</v>
       </c>
       <c r="BI213" t="n">
         <v>7074</v>
@@ -42658,7 +42592,7 @@
         <v>0</v>
       </c>
       <c r="BH214" t="n">
-        <v>181.9457060819629</v>
+        <v>205.837019790454</v>
       </c>
       <c r="BI214" t="n">
         <v>8241.75</v>
@@ -42855,7 +42789,7 @@
         <v>0.006190476190476191</v>
       </c>
       <c r="BH215" t="n">
-        <v>182.1903012490816</v>
+        <v>320.6150943396227</v>
       </c>
       <c r="BI215" t="n">
         <v>6024</v>
@@ -43052,13 +42986,13 @@
         <v>0.001418942887548776</v>
       </c>
       <c r="BH216" t="n">
-        <v>237.0261282660333</v>
+        <v>504</v>
       </c>
       <c r="BI216" t="n">
         <v>3489.4</v>
       </c>
       <c r="BJ216" t="n">
-        <v>29.10184790334044</v>
+        <v>29.1848182466144</v>
       </c>
       <c r="BK216" t="n">
         <v>11446119</v>
@@ -43249,13 +43183,13 @@
         <v>0.0004315925766076823</v>
       </c>
       <c r="BH217" t="n">
-        <v>317.3865886588659</v>
+        <v>453.3571428571428</v>
       </c>
       <c r="BI217" t="n">
         <v>712</v>
       </c>
       <c r="BJ217" t="n">
-        <v>34.0706390328152</v>
+        <v>34.63898156277436</v>
       </c>
       <c r="BK217" t="n">
         <v>13261683</v>
@@ -43446,13 +43380,13 @@
         <v>0</v>
       </c>
       <c r="BH218" t="n">
-        <v>0</v>
+        <v>202.6649874055416</v>
       </c>
       <c r="BI218" t="n">
         <v>65.33333333333333</v>
       </c>
       <c r="BJ218" t="n">
-        <v>22.59310344827586</v>
+        <v>27.3</v>
       </c>
       <c r="BK218" t="n">
         <v>4789623</v>
@@ -43642,9 +43576,7 @@
       <c r="BG219" t="n">
         <v>0.001492537313432836</v>
       </c>
-      <c r="BH219" t="n">
-        <v>183.029702970297</v>
-      </c>
+      <c r="BH219" t="s"/>
       <c r="BI219" t="n">
         <v>4302.6</v>
       </c>
@@ -43839,9 +43771,7 @@
       <c r="BG220" t="n">
         <v>0.00141643059490085</v>
       </c>
-      <c r="BH220" t="n">
-        <v>174</v>
-      </c>
+      <c r="BH220" t="s"/>
       <c r="BI220" t="n">
         <v>6553</v>
       </c>
@@ -44037,7 +43967,7 @@
         <v>0.001921229586935639</v>
       </c>
       <c r="BH221" t="n">
-        <v>183.4797557113775</v>
+        <v>227.7051728759046</v>
       </c>
       <c r="BI221" t="n">
         <v>4286.75</v>
@@ -44234,13 +44164,13 @@
         <v>0</v>
       </c>
       <c r="BH222" t="n">
-        <v>457.4234234234234</v>
+        <v>184.5146559703795</v>
       </c>
       <c r="BI222" t="n">
         <v>802.5</v>
       </c>
       <c r="BJ222" t="n">
-        <v>39.32530120481928</v>
+        <v>40.8</v>
       </c>
       <c r="BK222" t="n">
         <v>3765815</v>
@@ -44431,7 +44361,7 @@
         <v>0.00120918984280532</v>
       </c>
       <c r="BH223" t="n">
-        <v>190.9203059462127</v>
+        <v>208.2848046309696</v>
       </c>
       <c r="BI223" t="n">
         <v>4683.6</v>
@@ -44628,14 +44558,12 @@
         <v>0</v>
       </c>
       <c r="BH224" t="n">
-        <v>0</v>
+        <v>297.4901256732496</v>
       </c>
       <c r="BI224" t="n">
         <v>26</v>
       </c>
-      <c r="BJ224" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ224" t="s"/>
       <c r="BK224" t="n">
         <v>692870</v>
       </c>
@@ -44825,13 +44753,13 @@
         <v>0.00070298769771529</v>
       </c>
       <c r="BH225" t="n">
-        <v>194.4735877862595</v>
+        <v>305.4423305588585</v>
       </c>
       <c r="BI225" t="n">
         <v>4696.8</v>
       </c>
       <c r="BJ225" t="n">
-        <v>24.77636234961076</v>
+        <v>25.07808022922636</v>
       </c>
       <c r="BK225" t="n">
         <v>12113274</v>
@@ -45021,14 +44949,12 @@
       <c r="BG226" t="n">
         <v>0</v>
       </c>
-      <c r="BH226" t="n">
-        <v>313.067818574514</v>
-      </c>
+      <c r="BH226" t="s"/>
       <c r="BI226" t="n">
         <v>1652.4</v>
       </c>
       <c r="BJ226" t="n">
-        <v>29.50766871165644</v>
+        <v>29.59846153846154</v>
       </c>
       <c r="BK226" t="n">
         <v>11785327</v>
@@ -45219,7 +45145,7 @@
         <v>0.0002587991718426501</v>
       </c>
       <c r="BH227" t="n">
-        <v>258.6223758320533</v>
+        <v>249.6158940397351</v>
       </c>
       <c r="BI227" t="n">
         <v>5308</v>
@@ -45416,13 +45342,13 @@
         <v>0.0003932363350373574</v>
       </c>
       <c r="BH228" t="n">
-        <v>271.0235042735043</v>
+        <v>479</v>
       </c>
       <c r="BI228" t="n">
         <v>3114.5</v>
       </c>
       <c r="BJ228" t="n">
-        <v>27.88295365278869</v>
+        <v>28.05928853754941</v>
       </c>
       <c r="BK228" t="n">
         <v>14747865</v>
@@ -45613,7 +45539,7 @@
         <v>0.002071465561885033</v>
       </c>
       <c r="BH229" t="n">
-        <v>390.1869918699187</v>
+        <v>411</v>
       </c>
       <c r="BI229" t="n">
         <v>1522</v>
@@ -45810,7 +45736,7 @@
         <v>0</v>
       </c>
       <c r="BH230" t="n">
-        <v>289.9108910891089</v>
+        <v>188</v>
       </c>
       <c r="BI230" t="n">
         <v>2020</v>
@@ -46007,7 +45933,7 @@
         <v>0</v>
       </c>
       <c r="BH231" t="n">
-        <v>252.9221336603311</v>
+        <v>239.6862190812721</v>
       </c>
       <c r="BI231" t="n">
         <v>2670</v>
@@ -46203,14 +46129,12 @@
       <c r="BG232" t="n">
         <v>0</v>
       </c>
-      <c r="BH232" t="n">
-        <v>309.063492063492</v>
-      </c>
+      <c r="BH232" t="s"/>
       <c r="BI232" t="n">
         <v>3549</v>
       </c>
       <c r="BJ232" t="n">
-        <v>29.77644305772231</v>
+        <v>29.82296875</v>
       </c>
       <c r="BK232" t="n">
         <v>4528499</v>
@@ -46401,7 +46325,7 @@
         <v>0.0008163265306122449</v>
       </c>
       <c r="BH233" t="n">
-        <v>222.3161244695898</v>
+        <v>288.5441176470588</v>
       </c>
       <c r="BI233" t="n">
         <v>4314.5</v>
@@ -46598,7 +46522,7 @@
         <v>0</v>
       </c>
       <c r="BH234" t="n">
-        <v>282.2795180722891</v>
+        <v>309.1338838838839</v>
       </c>
       <c r="BI234" t="n">
         <v>5389</v>
@@ -46795,13 +46719,13 @@
         <v>0.003636363636363636</v>
       </c>
       <c r="BH235" t="n">
-        <v>341.0079207920792</v>
+        <v>473.2776510832383</v>
       </c>
       <c r="BI235" t="n">
         <v>526</v>
       </c>
       <c r="BJ235" t="n">
-        <v>33.83082706766918</v>
+        <v>39.12608695652174</v>
       </c>
       <c r="BK235" t="n">
         <v>3062551</v>
@@ -46991,14 +46915,12 @@
       <c r="BG236" t="n">
         <v>0</v>
       </c>
-      <c r="BH236" t="n">
-        <v>0</v>
-      </c>
+      <c r="BH236" t="s"/>
       <c r="BI236" t="n">
         <v>136</v>
       </c>
       <c r="BJ236" t="n">
-        <v>15.3525</v>
+        <v>26.7</v>
       </c>
       <c r="BK236" t="n">
         <v>3593690</v>
@@ -47379,9 +47301,7 @@
       <c r="BG238" t="n">
         <v>0</v>
       </c>
-      <c r="BH238" t="n">
-        <v>284.8468899521531</v>
-      </c>
+      <c r="BH238" t="s"/>
       <c r="BI238" t="n">
         <v>755</v>
       </c>
@@ -47576,9 +47496,7 @@
       <c r="BG239" t="n">
         <v>0</v>
       </c>
-      <c r="BH239" t="n">
-        <v>415</v>
-      </c>
+      <c r="BH239" t="s"/>
       <c r="BI239" t="n">
         <v>77</v>
       </c>
@@ -47773,14 +47691,12 @@
       <c r="BG240" t="n">
         <v>0.005830903790087463</v>
       </c>
-      <c r="BH240" t="n">
-        <v>292.9872151195108</v>
-      </c>
+      <c r="BH240" t="s"/>
       <c r="BI240" t="n">
         <v>589.4</v>
       </c>
       <c r="BJ240" t="n">
-        <v>26.15758980301275</v>
+        <v>26.74644549763033</v>
       </c>
       <c r="BK240" t="n">
         <v>7996371</v>
@@ -48162,7 +48078,7 @@
         <v>0.0021355076684139</v>
       </c>
       <c r="BH242" t="n">
-        <v>272.4054945054945</v>
+        <v>204.3570581257414</v>
       </c>
       <c r="BI242" t="n">
         <v>7347.666666666667</v>
@@ -48359,13 +48275,13 @@
         <v>0.0003431708991077557</v>
       </c>
       <c r="BH243" t="n">
-        <v>252.2665714285714</v>
+        <v>325.3466135458168</v>
       </c>
       <c r="BI243" t="n">
-        <v>7071</v>
+        <v>8234.5</v>
       </c>
       <c r="BJ243" t="n">
-        <v>29.1021978021978</v>
+        <v>23.39407643312102</v>
       </c>
       <c r="BK243" t="n">
         <v>10369972.88</v>
@@ -48556,13 +48472,13 @@
         <v>0</v>
       </c>
       <c r="BH244" t="n">
-        <v>198.6669242658423</v>
+        <v>528</v>
       </c>
       <c r="BI244" t="n">
-        <v>8234.5</v>
+        <v>3533</v>
       </c>
       <c r="BJ244" t="n">
-        <v>23.39407643312102</v>
+        <v>28.4880701754386</v>
       </c>
       <c r="BK244" t="n">
         <v>12327634.94</v>
@@ -48753,13 +48669,13 @@
         <v>0.005760921747479597</v>
       </c>
       <c r="BH245" t="n">
-        <v>198.2405435181785</v>
+        <v>479.0204081632653</v>
       </c>
       <c r="BI245" t="n">
-        <v>5951</v>
+        <v>62.66666666666666</v>
       </c>
       <c r="BJ245" t="n">
-        <v>24.19398854961832</v>
+        <v>30.7</v>
       </c>
       <c r="BK245" t="n">
         <v>10111155.34</v>
@@ -48950,13 +48866,13 @@
         <v>0.001748251748251748</v>
       </c>
       <c r="BH246" t="n">
-        <v>264.5498368064273</v>
+        <v>206.3769035532995</v>
       </c>
       <c r="BI246" t="n">
-        <v>3533</v>
+        <v>6657</v>
       </c>
       <c r="BJ246" t="n">
-        <v>28.42822128851541</v>
+        <v>20.5</v>
       </c>
       <c r="BK246" t="n">
         <v>11512132.00000001</v>
@@ -49146,14 +49062,12 @@
       <c r="BG247" t="n">
         <v>0.0004344048653344917</v>
       </c>
-      <c r="BH247" t="n">
-        <v>337.3974820143885</v>
-      </c>
+      <c r="BH247" t="s"/>
       <c r="BI247" t="n">
-        <v>707.3333333333334</v>
+        <v>873.5</v>
       </c>
       <c r="BJ247" t="n">
-        <v>33.93808695652174</v>
+        <v>41.2</v>
       </c>
       <c r="BK247" t="n">
         <v>12854731.87</v>
@@ -49343,15 +49257,11 @@
       <c r="BG248" t="n">
         <v>0</v>
       </c>
-      <c r="BH248" t="n">
-        <v>0</v>
-      </c>
+      <c r="BH248" t="s"/>
       <c r="BI248" t="n">
-        <v>62.66666666666666</v>
-      </c>
-      <c r="BJ248" t="n">
-        <v>25.21785714285714</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="BJ248" t="s"/>
       <c r="BK248" t="n">
         <v>5200490.350000001</v>
       </c>
@@ -49541,13 +49451,13 @@
         <v>0.001811958928930944</v>
       </c>
       <c r="BH249" t="n">
-        <v>207.8365985235662</v>
+        <v>242.741896107419</v>
       </c>
       <c r="BI249" t="n">
-        <v>3754.333333333333</v>
+        <v>1661.6</v>
       </c>
       <c r="BJ249" t="n">
-        <v>27.91257231006556</v>
+        <v>30.05761285386381</v>
       </c>
       <c r="BK249" t="n">
         <v>20123465.75999999</v>
@@ -49738,13 +49648,13 @@
         <v>0.0008401008120974517</v>
       </c>
       <c r="BH250" t="n">
-        <v>188</v>
+        <v>195.908024691358</v>
       </c>
       <c r="BI250" t="n">
-        <v>6657</v>
+        <v>3098.5</v>
       </c>
       <c r="BJ250" t="n">
-        <v>20.5</v>
+        <v>28.57233704292528</v>
       </c>
       <c r="BK250" t="n">
         <v>14438816.56</v>
@@ -49935,13 +49845,13 @@
         <v>0.00215311004784689</v>
       </c>
       <c r="BH251" t="n">
-        <v>196.284088322331</v>
+        <v>208.3160762942779</v>
       </c>
       <c r="BI251" t="n">
-        <v>4287.125</v>
+        <v>2000</v>
       </c>
       <c r="BJ251" t="n">
-        <v>21.32786885245902</v>
+        <v>27.9</v>
       </c>
       <c r="BK251" t="n">
         <v>16461765.17</v>
@@ -50132,13 +50042,13 @@
         <v>0.002747252747252747</v>
       </c>
       <c r="BH252" t="n">
-        <v>505.3839285714286</v>
+        <v>302.7111913357401</v>
       </c>
       <c r="BI252" t="n">
-        <v>873.5</v>
+        <v>2458</v>
       </c>
       <c r="BJ252" t="n">
-        <v>39.60662983425414</v>
+        <v>31.77134146341463</v>
       </c>
       <c r="BK252" t="n">
         <v>3551235.19</v>
@@ -50329,13 +50239,13 @@
         <v>0.001214329083181542</v>
       </c>
       <c r="BH253" t="n">
-        <v>205.2087342709104</v>
+        <v>169.9556742323097</v>
       </c>
       <c r="BI253" t="n">
-        <v>4657.8</v>
+        <v>5381</v>
       </c>
       <c r="BJ253" t="n">
-        <v>22.70104956268221</v>
+        <v>29.67570621468927</v>
       </c>
       <c r="BK253" t="n">
         <v>12736579.04</v>
@@ -50526,13 +50436,13 @@
         <v>0</v>
       </c>
       <c r="BH254" t="n">
-        <v>0</v>
+        <v>239.6124710126256</v>
       </c>
       <c r="BI254" t="n">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="BJ254" t="n">
-        <v>0</v>
+        <v>25.9</v>
       </c>
       <c r="BK254" t="n">
         <v>1550628.99</v>
@@ -50723,13 +50633,13 @@
         <v>0</v>
       </c>
       <c r="BH255" t="n">
-        <v>207.8748473748474</v>
+        <v>234.3905415713196</v>
       </c>
       <c r="BI255" t="n">
-        <v>4642.2</v>
+        <v>79</v>
       </c>
       <c r="BJ255" t="n">
-        <v>25.31472480343102</v>
+        <v>26.5</v>
       </c>
       <c r="BK255" t="n">
         <v>11977144.60000001</v>
@@ -50920,13 +50830,13 @@
         <v>0.00076103500761035</v>
       </c>
       <c r="BH256" t="n">
-        <v>333.3482373172829</v>
+        <v>188.9031462060456</v>
       </c>
       <c r="BI256" t="n">
-        <v>1661.6</v>
+        <v>7302.333333333333</v>
       </c>
       <c r="BJ256" t="n">
-        <v>29.96590389016018</v>
+        <v>38.1</v>
       </c>
       <c r="BK256" t="n">
         <v>11908654.89</v>
@@ -51117,14 +51027,12 @@
         <v>0</v>
       </c>
       <c r="BH257" t="n">
-        <v>274.7620489528135</v>
+        <v>380</v>
       </c>
       <c r="BI257" t="n">
-        <v>5273</v>
-      </c>
-      <c r="BJ257" t="n">
-        <v>30.60495356037152</v>
-      </c>
+        <v>8328</v>
+      </c>
+      <c r="BJ257" t="s"/>
       <c r="BK257" t="n">
         <v>14863077.81999999</v>
       </c>
@@ -51314,13 +51222,13 @@
         <v>0.000791765637371338</v>
       </c>
       <c r="BH258" t="n">
-        <v>289.5330490405117</v>
+        <v>190.9203059462127</v>
       </c>
       <c r="BI258" t="n">
-        <v>3098.5</v>
+        <v>2941.5</v>
       </c>
       <c r="BJ258" t="n">
-        <v>28.41422924901186</v>
+        <v>34.9</v>
       </c>
       <c r="BK258" t="n">
         <v>14754488.32</v>
@@ -51510,15 +51418,11 @@
       <c r="BG259" t="n">
         <v>0.001545595054095827</v>
       </c>
-      <c r="BH259" t="n">
-        <v>411.0767441860465</v>
-      </c>
+      <c r="BH259" t="s"/>
       <c r="BI259" t="n">
-        <v>1537</v>
-      </c>
-      <c r="BJ259" t="n">
-        <v>35.55422276621787</v>
-      </c>
+        <v>83.5</v>
+      </c>
+      <c r="BJ259" t="s"/>
       <c r="BK259" t="n">
         <v>9431614.369999999</v>
       </c>
@@ -51708,13 +51612,13 @@
         <v>0</v>
       </c>
       <c r="BH260" t="n">
-        <v>312.004942339374</v>
+        <v>196.3734912320656</v>
       </c>
       <c r="BI260" t="n">
-        <v>2000</v>
+        <v>6696</v>
       </c>
       <c r="BJ260" t="n">
-        <v>27.9</v>
+        <v>21.2</v>
       </c>
       <c r="BK260" t="n">
         <v>4356970.990000001</v>
@@ -51905,14 +51809,12 @@
         <v>0.001583531274742676</v>
       </c>
       <c r="BH261" t="n">
-        <v>268.4095646842428</v>
+        <v>300.5242155525239</v>
       </c>
       <c r="BI261" t="n">
-        <v>2639</v>
-      </c>
-      <c r="BJ261" t="n">
-        <v>27.575</v>
-      </c>
+        <v>867.5</v>
+      </c>
+      <c r="BJ261" t="s"/>
       <c r="BK261" t="n">
         <v>4649633.82</v>
       </c>
@@ -52102,14 +52004,12 @@
         <v>0</v>
       </c>
       <c r="BH262" t="n">
-        <v>325.3080204778157</v>
+        <v>231.0400444938821</v>
       </c>
       <c r="BI262" t="n">
-        <v>2458</v>
-      </c>
-      <c r="BJ262" t="n">
-        <v>31.38855421686747</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="BJ262" t="s"/>
       <c r="BK262" t="n">
         <v>4586741.709999999</v>
       </c>
@@ -52299,13 +52199,13 @@
         <v>0.0008176614881439084</v>
       </c>
       <c r="BH263" t="n">
-        <v>239.6862190812721</v>
+        <v>355.0421974522293</v>
       </c>
       <c r="BI263" t="n">
-        <v>4308.5</v>
+        <v>1663</v>
       </c>
       <c r="BJ263" t="n">
-        <v>26.81185609157809</v>
+        <v>32.42391513982642</v>
       </c>
       <c r="BK263" t="n">
         <v>10607407.50000001</v>
@@ -52496,13 +52396,13 @@
         <v>0</v>
       </c>
       <c r="BH264" t="n">
-        <v>300.5242155525239</v>
+        <v>386.0453524921419</v>
       </c>
       <c r="BI264" t="n">
-        <v>5381</v>
+        <v>3138.25</v>
       </c>
       <c r="BJ264" t="n">
-        <v>29.67570621468927</v>
+        <v>32</v>
       </c>
       <c r="BK264" t="n">
         <v>11952834.46</v>
@@ -52693,14 +52593,12 @@
         <v>0</v>
       </c>
       <c r="BH265" t="n">
-        <v>359.7308447937132</v>
+        <v>358.9496402877698</v>
       </c>
       <c r="BI265" t="n">
-        <v>501.6666666666667</v>
-      </c>
-      <c r="BJ265" t="n">
-        <v>32.23754940711463</v>
-      </c>
+        <v>2032.5</v>
+      </c>
+      <c r="BJ265" t="s"/>
       <c r="BK265" t="n">
         <v>3229209.290000001</v>
       </c>
@@ -52889,14 +52787,12 @@
       <c r="BG266" t="n">
         <v>0</v>
       </c>
-      <c r="BH266" t="n">
-        <v>0</v>
-      </c>
+      <c r="BH266" t="s"/>
       <c r="BI266" t="n">
-        <v>134</v>
+        <v>2024.5</v>
       </c>
       <c r="BJ266" t="n">
-        <v>14.7</v>
+        <v>32.8</v>
       </c>
       <c r="BK266" t="n">
         <v>3882999.819999999</v>
@@ -53277,14 +53173,12 @@
       <c r="BG268" t="n">
         <v>0</v>
       </c>
-      <c r="BH268" t="n">
-        <v>290.8605388272583</v>
-      </c>
+      <c r="BH268" t="s"/>
       <c r="BI268" t="n">
-        <v>777.5</v>
+        <v>5406</v>
       </c>
       <c r="BJ268" t="n">
-        <v>25.91928783382789</v>
+        <v>29.23183229813664</v>
       </c>
       <c r="BK268" t="n">
         <v>3787199.800000001</v>
@@ -53474,15 +53368,11 @@
       <c r="BG269" t="n">
         <v>0</v>
       </c>
-      <c r="BH269" t="n">
-        <v>434</v>
-      </c>
+      <c r="BH269" t="s"/>
       <c r="BI269" t="n">
-        <v>79</v>
-      </c>
-      <c r="BJ269" t="n">
-        <v>26.5</v>
-      </c>
+        <v>133.5</v>
+      </c>
+      <c r="BJ269" t="s"/>
       <c r="BK269" t="n">
         <v>1693827.96</v>
       </c>
@@ -53671,15 +53561,11 @@
       <c r="BG270" t="n">
         <v>0.004297994269340974</v>
       </c>
-      <c r="BH270" t="n">
-        <v>314.5583783783784</v>
-      </c>
+      <c r="BH270" t="s"/>
       <c r="BI270" t="n">
-        <v>593.2</v>
-      </c>
-      <c r="BJ270" t="n">
-        <v>26.58388571428571</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="BJ270" t="s"/>
       <c r="BK270" t="n">
         <v>8295297.630000002</v>
       </c>
@@ -54060,13 +53946,13 @@
         <v>0.002886836027713626</v>
       </c>
       <c r="BH272" t="n">
-        <v>302.6671939644683</v>
+        <v>524</v>
       </c>
       <c r="BI272" t="n">
-        <v>7302.333333333333</v>
+        <v>7071</v>
       </c>
       <c r="BJ272" t="n">
-        <v>18.09308346213292</v>
+        <v>29.1021978021978</v>
       </c>
       <c r="BK272" t="n">
         <v>46492384.34</v>
@@ -54257,13 +54143,13 @@
         <v>0.0003485535029627048</v>
       </c>
       <c r="BH273" t="n">
-        <v>282.6273557966876</v>
+        <v>474.469387755102</v>
       </c>
       <c r="BI273" t="n">
-        <v>6926.333333333333</v>
+        <v>5951</v>
       </c>
       <c r="BJ273" t="n">
-        <v>27.95603628750872</v>
+        <v>24.19398854961832</v>
       </c>
       <c r="BK273" t="n">
         <v>10051484.91</v>
@@ -54454,13 +54340,13 @@
         <v>0.0006261740763932373</v>
       </c>
       <c r="BH274" t="n">
-        <v>216.4762741652021</v>
+        <v>218.5964240102171</v>
       </c>
       <c r="BI274" t="n">
-        <v>8328</v>
+        <v>707.3333333333334</v>
       </c>
       <c r="BJ274" t="n">
-        <v>0</v>
+        <v>34.50822281167109</v>
       </c>
       <c r="BK274" t="n">
         <v>12186851.44</v>
@@ -54650,14 +54536,12 @@
       <c r="BG275" t="n">
         <v>0.006789524733268671</v>
       </c>
-      <c r="BH275" t="n">
-        <v>212.0539845758355</v>
-      </c>
+      <c r="BH275" t="s"/>
       <c r="BI275" t="n">
-        <v>5923.666666666667</v>
+        <v>3754.333333333333</v>
       </c>
       <c r="BJ275" t="n">
-        <v>20.17870905587668</v>
+        <v>27.91257231006556</v>
       </c>
       <c r="BK275" t="n">
         <v>9924207.409999996</v>
@@ -54847,14 +54731,12 @@
       <c r="BG276" t="n">
         <v>0.002405498281786942</v>
       </c>
-      <c r="BH276" t="n">
-        <v>291.2369014790675</v>
-      </c>
+      <c r="BH276" t="s"/>
       <c r="BI276" t="n">
-        <v>2941.5</v>
+        <v>4287.125</v>
       </c>
       <c r="BJ276" t="n">
-        <v>19.23943565037853</v>
+        <v>21.32786885245902</v>
       </c>
       <c r="BK276" t="n">
         <v>11852452.22999999</v>
@@ -55045,13 +54927,13 @@
         <v>0</v>
       </c>
       <c r="BH277" t="n">
-        <v>358.7367475292004</v>
+        <v>260.1676849966055</v>
       </c>
       <c r="BI277" t="n">
-        <v>702.5</v>
+        <v>4657.8</v>
       </c>
       <c r="BJ277" t="n">
-        <v>16.7521472392638</v>
+        <v>22.70104956268221</v>
       </c>
       <c r="BK277" t="n">
         <v>12592225.98</v>
@@ -55242,13 +55124,13 @@
         <v>0</v>
       </c>
       <c r="BH278" t="n">
-        <v>0</v>
+        <v>212.4559505409583</v>
       </c>
       <c r="BI278" t="n">
-        <v>83.5</v>
+        <v>4642.2</v>
       </c>
       <c r="BJ278" t="n">
-        <v>0</v>
+        <v>25.60759219088937</v>
       </c>
       <c r="BK278" t="n">
         <v>5078073.94</v>
@@ -55439,13 +55321,13 @@
         <v>0.001574493209998032</v>
       </c>
       <c r="BH279" t="n">
-        <v>231.0400444938821</v>
+        <v>221.2726423902895</v>
       </c>
       <c r="BI279" t="n">
-        <v>3884.333333333333</v>
+        <v>5273</v>
       </c>
       <c r="BJ279" t="n">
-        <v>24.32122356495468</v>
+        <v>30.60495356037152</v>
       </c>
       <c r="BK279" t="n">
         <v>19931641.14</v>
@@ -55636,13 +55518,13 @@
         <v>0.0008368200836820083</v>
       </c>
       <c r="BH280" t="n">
-        <v>202</v>
+        <v>317.7528242205152</v>
       </c>
       <c r="BI280" t="n">
-        <v>6696</v>
+        <v>1537</v>
       </c>
       <c r="BJ280" t="n">
-        <v>21.2</v>
+        <v>35.55422276621787</v>
       </c>
       <c r="BK280" t="n">
         <v>14312140.71</v>
@@ -55833,13 +55715,13 @@
         <v>0.001895734597156398</v>
       </c>
       <c r="BH281" t="n">
-        <v>211.0169039145908</v>
+        <v>174.3162853297443</v>
       </c>
       <c r="BI281" t="n">
-        <v>4315.875</v>
+        <v>2639</v>
       </c>
       <c r="BJ281" t="n">
-        <v>0</v>
+        <v>27.575</v>
       </c>
       <c r="BK281" t="n">
         <v>16402842.52</v>
@@ -56030,13 +55912,13 @@
         <v>0</v>
       </c>
       <c r="BH282" t="n">
-        <v>555.0625</v>
+        <v>243.8755175983437</v>
       </c>
       <c r="BI282" t="n">
-        <v>867.5</v>
+        <v>4308.5</v>
       </c>
       <c r="BJ282" t="n">
-        <v>0</v>
+        <v>26.81185609157809</v>
       </c>
       <c r="BK282" t="n">
         <v>3987371.459999999</v>
@@ -56227,13 +56109,13 @@
         <v>0.0009168704156479218</v>
       </c>
       <c r="BH283" t="n">
-        <v>219.3894633185623</v>
+        <v>167.1682173427614</v>
       </c>
       <c r="BI283" t="n">
-        <v>4618.4</v>
+        <v>501.6666666666667</v>
       </c>
       <c r="BJ283" t="n">
-        <v>0</v>
+        <v>36.41116071428571</v>
       </c>
       <c r="BK283" t="n">
         <v>12465592.59</v>
@@ -56424,13 +56306,13 @@
         <v>0</v>
       </c>
       <c r="BH284" t="n">
-        <v>0</v>
+        <v>251.3958933717579</v>
       </c>
       <c r="BI284" t="n">
-        <v>27</v>
+        <v>777.5</v>
       </c>
       <c r="BJ284" t="n">
-        <v>0</v>
+        <v>25.91928783382789</v>
       </c>
       <c r="BK284" t="n">
         <v>1481199.98</v>
@@ -56621,13 +56503,13 @@
         <v>0</v>
       </c>
       <c r="BH285" t="n">
-        <v>223.3803418803419</v>
+        <v>217.7978298115363</v>
       </c>
       <c r="BI285" t="n">
-        <v>4572</v>
+        <v>593.2</v>
       </c>
       <c r="BJ285" t="n">
-        <v>0</v>
+        <v>27.17394859813084</v>
       </c>
       <c r="BK285" t="n">
         <v>11791212.88</v>
@@ -56818,13 +56700,13 @@
         <v>0.000380952380952381</v>
       </c>
       <c r="BH286" t="n">
-        <v>351.9770700636943</v>
+        <v>309.7470904207699</v>
       </c>
       <c r="BI286" t="n">
-        <v>1663</v>
+        <v>6926.333333333333</v>
       </c>
       <c r="BJ286" t="n">
-        <v>25.6864782276547</v>
+        <v>30.44148936170213</v>
       </c>
       <c r="BK286" t="n">
         <v>11909730.28</v>
@@ -57015,13 +56897,13 @@
         <v>0</v>
       </c>
       <c r="BH287" t="n">
-        <v>296.2857142857143</v>
+        <v>306.2268163024218</v>
       </c>
       <c r="BI287" t="n">
-        <v>5253.4</v>
+        <v>5923.666666666667</v>
       </c>
       <c r="BJ287" t="n">
-        <v>10.23481865284974</v>
+        <v>25.7</v>
       </c>
       <c r="BK287" t="n">
         <v>14616059.46000001</v>
@@ -57211,14 +57093,12 @@
       <c r="BG288" t="n">
         <v>0.001177394034536892</v>
       </c>
-      <c r="BH288" t="n">
-        <v>312.5597352838732</v>
-      </c>
+      <c r="BH288" t="s"/>
       <c r="BI288" t="n">
-        <v>3138.25</v>
+        <v>702.5</v>
       </c>
       <c r="BJ288" t="n">
-        <v>12.67450980392157</v>
+        <v>33.3</v>
       </c>
       <c r="BK288" t="n">
         <v>14797848.39</v>
@@ -57409,13 +57289,13 @@
         <v>0.001031991744066047</v>
       </c>
       <c r="BH289" t="n">
-        <v>449.3828571428571</v>
+        <v>284.8468899521531</v>
       </c>
       <c r="BI289" t="n">
-        <v>1534</v>
+        <v>3884.333333333333</v>
       </c>
       <c r="BJ289" t="n">
-        <v>35.59779141104295</v>
+        <v>28.97103013945119</v>
       </c>
       <c r="BK289" t="n">
         <v>9632968.68</v>
@@ -57606,14 +57486,12 @@
         <v>0.0009960159362549801</v>
       </c>
       <c r="BH290" t="n">
-        <v>338.2284794851167</v>
+        <v>529</v>
       </c>
       <c r="BI290" t="n">
-        <v>2032.5</v>
-      </c>
-      <c r="BJ290" t="n">
-        <v>0</v>
-      </c>
+        <v>4315.875</v>
+      </c>
+      <c r="BJ290" t="s"/>
       <c r="BK290" t="n">
         <v>4345349.42</v>
       </c>
@@ -57803,14 +57681,12 @@
         <v>0.000791765637371338</v>
       </c>
       <c r="BH291" t="n">
-        <v>288.5441176470588</v>
+        <v>437</v>
       </c>
       <c r="BI291" t="n">
-        <v>2630.5</v>
-      </c>
-      <c r="BJ291" t="n">
-        <v>24.77664141414141</v>
-      </c>
+        <v>4618.4</v>
+      </c>
+      <c r="BJ291" t="s"/>
       <c r="BK291" t="n">
         <v>4526357.779999999</v>
       </c>
@@ -58000,14 +57876,12 @@
         <v>0</v>
       </c>
       <c r="BH292" t="n">
-        <v>345.684496124031</v>
+        <v>202</v>
       </c>
       <c r="BI292" t="n">
-        <v>2024.5</v>
-      </c>
-      <c r="BJ292" t="n">
-        <v>27.57562326869806</v>
-      </c>
+        <v>4572</v>
+      </c>
+      <c r="BJ292" t="s"/>
       <c r="BK292" t="n">
         <v>4913561.95</v>
       </c>
@@ -58200,10 +58074,10 @@
         <v>262.6764290755116</v>
       </c>
       <c r="BI293" t="n">
-        <v>4249.5</v>
+        <v>5253.4</v>
       </c>
       <c r="BJ293" t="n">
-        <v>16.57195020746888</v>
+        <v>35.4</v>
       </c>
       <c r="BK293" t="n">
         <v>10418831.65</v>
@@ -58394,13 +58268,13 @@
         <v>0</v>
       </c>
       <c r="BH294" t="n">
-        <v>321.3925826929502</v>
+        <v>256</v>
       </c>
       <c r="BI294" t="n">
-        <v>5406</v>
+        <v>1534</v>
       </c>
       <c r="BJ294" t="n">
-        <v>23.531625</v>
+        <v>37.1</v>
       </c>
       <c r="BK294" t="n">
         <v>11760412.22000001</v>
@@ -58591,13 +58465,13 @@
         <v>0</v>
       </c>
       <c r="BH295" t="n">
-        <v>386.7183364839319</v>
+        <v>303</v>
       </c>
       <c r="BI295" t="n">
-        <v>504</v>
+        <v>2630.5</v>
       </c>
       <c r="BJ295" t="n">
-        <v>0</v>
+        <v>28.9</v>
       </c>
       <c r="BK295" t="n">
         <v>3289991.09</v>
@@ -58787,14 +58661,12 @@
       <c r="BG296" t="n">
         <v>0</v>
       </c>
-      <c r="BH296" t="n">
-        <v>0</v>
-      </c>
+      <c r="BH296" t="s"/>
       <c r="BI296" t="n">
-        <v>133.5</v>
+        <v>4249.5</v>
       </c>
       <c r="BJ296" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="BK296" t="n">
         <v>3845776.13</v>
@@ -59175,15 +59047,11 @@
       <c r="BG298" t="n">
         <v>0</v>
       </c>
-      <c r="BH298" t="n">
-        <v>307.0643185298622</v>
-      </c>
+      <c r="BH298" t="s"/>
       <c r="BI298" t="n">
-        <v>782.5</v>
-      </c>
-      <c r="BJ298" t="n">
-        <v>0</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="BJ298" t="s"/>
       <c r="BK298" t="n">
         <v>3750512.26</v>
       </c>
@@ -59372,15 +59240,11 @@
       <c r="BG299" t="n">
         <v>0</v>
       </c>
-      <c r="BH299" t="n">
-        <v>454</v>
-      </c>
+      <c r="BH299" t="s"/>
       <c r="BI299" t="n">
-        <v>79</v>
-      </c>
-      <c r="BJ299" t="n">
-        <v>0</v>
-      </c>
+        <v>782.5</v>
+      </c>
+      <c r="BJ299" t="s"/>
       <c r="BK299" t="n">
         <v>1698028.28</v>
       </c>
@@ -59569,14 +59433,12 @@
       <c r="BG300" t="n">
         <v>0.004163775156141568</v>
       </c>
-      <c r="BH300" t="n">
-        <v>327.0047669491526</v>
-      </c>
+      <c r="BH300" t="s"/>
       <c r="BI300" t="n">
         <v>615.8</v>
       </c>
       <c r="BJ300" t="n">
-        <v>21.09130434782609</v>
+        <v>27.3</v>
       </c>
       <c r="BK300" t="n">
         <v>8202195.379999998</v>
@@ -59958,14 +59820,12 @@
         <v>0.002281368821292776</v>
       </c>
       <c r="BH302" t="n">
-        <v>320.1702819956616</v>
+        <v>213.5862977602108</v>
       </c>
       <c r="BI302" t="n">
         <v>7500.833333333333</v>
       </c>
-      <c r="BJ302" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ302" t="s"/>
       <c r="BK302" t="n">
         <v>45718226.89999998</v>
       </c>
@@ -60154,15 +60014,11 @@
       <c r="BG303" t="n">
         <v>0.0007057163020465773</v>
       </c>
-      <c r="BH303" t="n">
-        <v>310.5677990294034</v>
-      </c>
+      <c r="BH303" t="s"/>
       <c r="BI303" t="n">
         <v>6725.333333333333</v>
       </c>
-      <c r="BJ303" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ303" t="s"/>
       <c r="BK303" t="n">
         <v>9750632.85</v>
       </c>
@@ -60351,15 +60207,11 @@
       <c r="BG304" t="n">
         <v>0</v>
       </c>
-      <c r="BH304" t="n">
-        <v>239.3593516209476</v>
-      </c>
+      <c r="BH304" t="s"/>
       <c r="BI304" t="n">
         <v>8351.75</v>
       </c>
-      <c r="BJ304" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ304" t="s"/>
       <c r="BK304" t="n">
         <v>12013783.37</v>
       </c>
@@ -60549,14 +60401,12 @@
         <v>0.008157389635316698</v>
       </c>
       <c r="BH305" t="n">
-        <v>196.3341902313625</v>
+        <v>261.1578231292517</v>
       </c>
       <c r="BI305" t="n">
         <v>5982</v>
       </c>
-      <c r="BJ305" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ305" t="s"/>
       <c r="BK305" t="n">
         <v>9727567.030000001</v>
       </c>
@@ -60746,14 +60596,12 @@
         <v>0.002480510276399716</v>
       </c>
       <c r="BH306" t="n">
-        <v>308.131454227987</v>
+        <v>217.3116279069768</v>
       </c>
       <c r="BI306" t="n">
         <v>2833.166666666667</v>
       </c>
-      <c r="BJ306" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ306" t="s"/>
       <c r="BK306" t="n">
         <v>11605276.21</v>
       </c>
@@ -60943,14 +60791,12 @@
         <v>0.001328609388839681</v>
       </c>
       <c r="BH307" t="n">
-        <v>385.0080609046126</v>
+        <v>236.0076923076923</v>
       </c>
       <c r="BI307" t="n">
         <v>695.6666666666666</v>
       </c>
-      <c r="BJ307" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ307" t="s"/>
       <c r="BK307" t="n">
         <v>11928377.07</v>
       </c>
@@ -61140,14 +60986,12 @@
         <v>0</v>
       </c>
       <c r="BH308" t="n">
-        <v>191.0985915492958</v>
+        <v>336.6659142212189</v>
       </c>
       <c r="BI308" t="n">
         <v>66.33333333333333</v>
       </c>
-      <c r="BJ308" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ308" t="s"/>
       <c r="BK308" t="n">
         <v>4894324.08</v>
       </c>
@@ -61337,14 +61181,12 @@
         <v>0.001511715797430083</v>
       </c>
       <c r="BH309" t="n">
-        <v>251.9294611249508</v>
+        <v>186.5406788793103</v>
       </c>
       <c r="BI309" t="n">
         <v>4067.833333333333</v>
       </c>
-      <c r="BJ309" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ309" t="s"/>
       <c r="BK309" t="n">
         <v>20502081.81</v>
       </c>
@@ -61534,14 +61376,12 @@
         <v>0.000846262341325811</v>
       </c>
       <c r="BH310" t="n">
-        <v>215</v>
+        <v>259.7312467666839</v>
       </c>
       <c r="BI310" t="n">
         <v>6619</v>
       </c>
-      <c r="BJ310" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ310" t="s"/>
       <c r="BK310" t="n">
         <v>13773219.83</v>
       </c>
@@ -61731,14 +61571,12 @@
         <v>0.001684311838306063</v>
       </c>
       <c r="BH311" t="n">
-        <v>228.2691960252936</v>
+        <v>172.3063432835821</v>
       </c>
       <c r="BI311" t="n">
         <v>4243.75</v>
       </c>
-      <c r="BJ311" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ311" t="s"/>
       <c r="BK311" t="n">
         <v>15674700.79</v>
       </c>
@@ -61928,14 +61766,12 @@
         <v>0</v>
       </c>
       <c r="BH312" t="n">
-        <v>595.4188034188035</v>
+        <v>257.2226647356987</v>
       </c>
       <c r="BI312" t="n">
         <v>906</v>
       </c>
-      <c r="BJ312" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ312" t="s"/>
       <c r="BK312" t="n">
         <v>4012237.76</v>
       </c>
@@ -62125,14 +61961,12 @@
         <v>0.0009208103130755065</v>
       </c>
       <c r="BH313" t="n">
-        <v>232.2014760147601</v>
+        <v>213.6312095032397</v>
       </c>
       <c r="BI313" t="n">
         <v>4614.6</v>
       </c>
-      <c r="BJ313" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ313" t="s"/>
       <c r="BK313" t="n">
         <v>12018988.74000001</v>
       </c>
@@ -62322,14 +62156,12 @@
         <v>0</v>
       </c>
       <c r="BH314" t="n">
-        <v>0</v>
+        <v>369</v>
       </c>
       <c r="BI314" t="n">
         <v>24</v>
       </c>
-      <c r="BJ314" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ314" t="s"/>
       <c r="BK314" t="n">
         <v>1437695.16</v>
       </c>
@@ -62519,14 +62351,12 @@
         <v>0.0007215007215007215</v>
       </c>
       <c r="BH315" t="n">
-        <v>244.5349404943546</v>
+        <v>178.1786367197702</v>
       </c>
       <c r="BI315" t="n">
         <v>4566.6</v>
       </c>
-      <c r="BJ315" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ315" t="s"/>
       <c r="BK315" t="n">
         <v>11320288.1</v>
       </c>
@@ -62716,14 +62546,12 @@
         <v>0.0007662835249042146</v>
       </c>
       <c r="BH316" t="n">
-        <v>374.6974075648109</v>
+        <v>246.6160783303272</v>
       </c>
       <c r="BI316" t="n">
         <v>1652.6</v>
       </c>
-      <c r="BJ316" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ316" t="s"/>
       <c r="BK316" t="n">
         <v>11740165.45</v>
       </c>
@@ -62913,14 +62741,12 @@
         <v>0</v>
       </c>
       <c r="BH317" t="n">
-        <v>312.8391959798995</v>
+        <v>248.2497534516765</v>
       </c>
       <c r="BI317" t="n">
         <v>5167.4</v>
       </c>
-      <c r="BJ317" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ317" t="s"/>
       <c r="BK317" t="n">
         <v>13958275.45</v>
       </c>
@@ -63110,14 +62936,12 @@
         <v>0.001572327044025157</v>
       </c>
       <c r="BH318" t="n">
-        <v>330.0372285418821</v>
+        <v>196.513730330145</v>
       </c>
       <c r="BI318" t="n">
         <v>3137.75</v>
       </c>
-      <c r="BJ318" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ318" t="s"/>
       <c r="BK318" t="n">
         <v>14331272.4</v>
       </c>
@@ -63307,14 +63131,12 @@
         <v>0.0005149330587023687</v>
       </c>
       <c r="BH319" t="n">
-        <v>473.2776510832383</v>
+        <v>415</v>
       </c>
       <c r="BI319" t="n">
         <v>1539</v>
       </c>
-      <c r="BJ319" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ319" t="s"/>
       <c r="BK319" t="n">
         <v>9409375.259999998</v>
       </c>
@@ -63504,14 +63326,12 @@
         <v>0</v>
       </c>
       <c r="BH320" t="n">
-        <v>358.9496402877698</v>
+        <v>205.2087342709104</v>
       </c>
       <c r="BI320" t="n">
         <v>2096.5</v>
       </c>
-      <c r="BJ320" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ320" t="s"/>
       <c r="BK320" t="n">
         <v>4170799.990000001</v>
       </c>
@@ -63700,15 +63520,11 @@
       <c r="BG321" t="n">
         <v>0.00319744204636291</v>
       </c>
-      <c r="BH321" t="n">
-        <v>263.68788249694</v>
-      </c>
+      <c r="BH321" t="s"/>
       <c r="BI321" t="n">
         <v>2593.5</v>
       </c>
-      <c r="BJ321" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ321" t="s"/>
       <c r="BK321" t="n">
         <v>4363455.209999999</v>
       </c>
@@ -63898,14 +63714,12 @@
         <v>0</v>
       </c>
       <c r="BH322" t="n">
-        <v>340.2125572269457</v>
+        <v>211.1108144192256</v>
       </c>
       <c r="BI322" t="n">
         <v>2449.25</v>
       </c>
-      <c r="BJ322" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ322" t="s"/>
       <c r="BK322" t="n">
         <v>5682392.739999999</v>
       </c>
@@ -64095,14 +63909,12 @@
         <v>0.002079002079002079</v>
       </c>
       <c r="BH323" t="n">
-        <v>281.0095271700776</v>
+        <v>321.3925826929502</v>
       </c>
       <c r="BI323" t="n">
         <v>4234</v>
       </c>
-      <c r="BJ323" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ323" t="s"/>
       <c r="BK323" t="n">
         <v>10212995.42000001</v>
       </c>
@@ -64292,14 +64104,12 @@
         <v>0</v>
       </c>
       <c r="BH324" t="n">
-        <v>335.9103034344782</v>
+        <v>251.9294611249508</v>
       </c>
       <c r="BI324" t="n">
         <v>5405.333333333333</v>
       </c>
-      <c r="BJ324" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ324" t="s"/>
       <c r="BK324" t="n">
         <v>11319729.57000001</v>
       </c>
@@ -64489,14 +64299,12 @@
         <v>0.001730103806228374</v>
       </c>
       <c r="BH325" t="n">
-        <v>511.3368421052631</v>
+        <v>379.9744338933528</v>
       </c>
       <c r="BI325" t="n">
         <v>552</v>
       </c>
-      <c r="BJ325" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ325" t="s"/>
       <c r="BK325" t="n">
         <v>3283786.350000001</v>
       </c>
@@ -64685,15 +64493,11 @@
       <c r="BG326" t="n">
         <v>0</v>
       </c>
-      <c r="BH326" t="n">
-        <v>556.1587301587301</v>
-      </c>
+      <c r="BH326" t="s"/>
       <c r="BI326" t="n">
         <v>132</v>
       </c>
-      <c r="BJ326" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ326" t="s"/>
       <c r="BK326" t="n">
         <v>3721151.52</v>
       </c>
@@ -65073,15 +64877,11 @@
       <c r="BG328" t="n">
         <v>0</v>
       </c>
-      <c r="BH328" t="n">
-        <v>318.3942598187311</v>
-      </c>
+      <c r="BH328" t="s"/>
       <c r="BI328" t="n">
         <v>798.5</v>
       </c>
-      <c r="BJ328" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ328" t="s"/>
       <c r="BK328" t="n">
         <v>3406352.330000001</v>
       </c>
@@ -65270,15 +65070,11 @@
       <c r="BG329" t="n">
         <v>0</v>
       </c>
-      <c r="BH329" t="n">
-        <v>495</v>
-      </c>
+      <c r="BH329" t="s"/>
       <c r="BI329" t="n">
         <v>79</v>
       </c>
-      <c r="BJ329" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ329" t="s"/>
       <c r="BK329" t="n">
         <v>1673111.81</v>
       </c>
@@ -65467,15 +65263,11 @@
       <c r="BG330" t="n">
         <v>0.004804392587508579</v>
       </c>
-      <c r="BH330" t="n">
-        <v>283.7674661105318</v>
-      </c>
+      <c r="BH330" t="s"/>
       <c r="BI330" t="n">
         <v>611.6</v>
       </c>
-      <c r="BJ330" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ330" t="s"/>
       <c r="BK330" t="n">
         <v>8019883.270000003</v>
       </c>
@@ -65859,9 +65651,7 @@
       <c r="BI332" t="n">
         <v>7444.166666666667</v>
       </c>
-      <c r="BJ332" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ332" t="s"/>
       <c r="BK332" t="n">
         <v>43802220.48999999</v>
       </c>
@@ -66050,13 +65840,13 @@
       <c r="BG333" t="n">
         <v>0.001069137562366358</v>
       </c>
-      <c r="BH333" t="s"/>
+      <c r="BH333" t="n">
+        <v>269.5119291070211</v>
+      </c>
       <c r="BI333" t="n">
         <v>6663</v>
       </c>
-      <c r="BJ333" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ333" t="s"/>
       <c r="BK333" t="n">
         <v>9663974.499999996</v>
       </c>
@@ -66245,13 +66035,13 @@
       <c r="BG334" t="n">
         <v>0.0003095017022593624</v>
       </c>
-      <c r="BH334" t="s"/>
+      <c r="BH334" t="n">
+        <v>228.233746130031</v>
+      </c>
       <c r="BI334" t="n">
         <v>8301.75</v>
       </c>
-      <c r="BJ334" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ334" t="s"/>
       <c r="BK334" t="n">
         <v>11816437.44999999</v>
       </c>
@@ -66440,13 +66230,13 @@
       <c r="BG335" t="n">
         <v>0.006259027443428021</v>
       </c>
-      <c r="BH335" t="s"/>
+      <c r="BH335" t="n">
+        <v>239.1010719754977</v>
+      </c>
       <c r="BI335" t="n">
         <v>5930</v>
       </c>
-      <c r="BJ335" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ335" t="s"/>
       <c r="BK335" t="n">
         <v>9609282.349999998</v>
       </c>
@@ -66635,13 +66425,13 @@
       <c r="BG336" t="n">
         <v>0.002821869488536155</v>
       </c>
-      <c r="BH336" t="s"/>
+      <c r="BH336" t="n">
+        <v>341.3710407239819</v>
+      </c>
       <c r="BI336" t="n">
         <v>3367.2</v>
       </c>
-      <c r="BJ336" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ336" t="s"/>
       <c r="BK336" t="n">
         <v>11591803.16</v>
       </c>
@@ -66830,13 +66620,13 @@
       <c r="BG337" t="n">
         <v>0.0004458314757021846</v>
       </c>
-      <c r="BH337" t="s"/>
+      <c r="BH337" t="n">
+        <v>200.4341926729986</v>
+      </c>
       <c r="BI337" t="n">
         <v>687.8333333333334</v>
       </c>
-      <c r="BJ337" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ337" t="s"/>
       <c r="BK337" t="n">
         <v>11838395.66000001</v>
       </c>
@@ -67025,13 +66815,13 @@
       <c r="BG338" t="n">
         <v>0</v>
       </c>
-      <c r="BH338" t="s"/>
+      <c r="BH338" t="n">
+        <v>280.1034928848642</v>
+      </c>
       <c r="BI338" t="n">
         <v>67.66666666666667</v>
       </c>
-      <c r="BJ338" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ338" t="s"/>
       <c r="BK338" t="n">
         <v>4698553.500000001</v>
       </c>
@@ -67220,13 +67010,13 @@
       <c r="BG339" t="n">
         <v>0.001497566454511419</v>
       </c>
-      <c r="BH339" t="s"/>
+      <c r="BH339" t="n">
+        <v>184.1452959028832</v>
+      </c>
       <c r="BI339" t="n">
         <v>4120.333333333333</v>
       </c>
-      <c r="BJ339" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ339" t="s"/>
       <c r="BK339" t="n">
         <v>20395711.07999999</v>
       </c>
@@ -67415,13 +67205,13 @@
       <c r="BG340" t="n">
         <v>0.0005660911406736484</v>
       </c>
-      <c r="BH340" t="s"/>
+      <c r="BH340" t="n">
+        <v>275.3074681238616</v>
+      </c>
       <c r="BI340" t="n">
         <v>6600</v>
       </c>
-      <c r="BJ340" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ340" t="s"/>
       <c r="BK340" t="n">
         <v>13848218.4</v>
       </c>
@@ -67610,13 +67400,13 @@
       <c r="BG341" t="n">
         <v>0.002171814671814672</v>
       </c>
-      <c r="BH341" t="s"/>
+      <c r="BH341" t="n">
+        <v>220.5234077299945</v>
+      </c>
       <c r="BI341" t="n">
         <v>4243.125</v>
       </c>
-      <c r="BJ341" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ341" t="s"/>
       <c r="BK341" t="n">
         <v>15831890.27000001</v>
       </c>
@@ -67805,13 +67595,13 @@
       <c r="BG342" t="n">
         <v>0</v>
       </c>
-      <c r="BH342" t="s"/>
+      <c r="BH342" t="n">
+        <v>377</v>
+      </c>
       <c r="BI342" t="n">
         <v>1150</v>
       </c>
-      <c r="BJ342" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ342" t="s"/>
       <c r="BK342" t="n">
         <v>4391320.32</v>
       </c>
@@ -68000,13 +67790,13 @@
       <c r="BG343" t="n">
         <v>0.0009191176470588235</v>
       </c>
-      <c r="BH343" t="s"/>
+      <c r="BH343" t="n">
+        <v>313.599535962877</v>
+      </c>
       <c r="BI343" t="n">
         <v>4597</v>
       </c>
-      <c r="BJ343" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ343" t="s"/>
       <c r="BK343" t="n">
         <v>12245215.49</v>
       </c>
@@ -68195,13 +67985,13 @@
       <c r="BG344" t="n">
         <v>0</v>
       </c>
-      <c r="BH344" t="s"/>
+      <c r="BH344" t="n">
+        <v>269.1466445733223</v>
+      </c>
       <c r="BI344" t="n">
         <v>26</v>
       </c>
-      <c r="BJ344" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ344" t="s"/>
       <c r="BK344" t="n">
         <v>1288554.02</v>
       </c>
@@ -68390,13 +68180,13 @@
       <c r="BG345" t="n">
         <v>0.000360100828231905</v>
       </c>
-      <c r="BH345" t="s"/>
+      <c r="BH345" t="n">
+        <v>175.8114663726571</v>
+      </c>
       <c r="BI345" t="n">
         <v>4545.8</v>
       </c>
-      <c r="BJ345" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ345" t="s"/>
       <c r="BK345" t="n">
         <v>11853385.49</v>
       </c>
@@ -68585,13 +68375,13 @@
       <c r="BG346" t="n">
         <v>0</v>
       </c>
-      <c r="BH346" t="s"/>
+      <c r="BH346" t="n">
+        <v>260.8115107913669</v>
+      </c>
       <c r="BI346" t="n">
         <v>1650.2</v>
       </c>
-      <c r="BJ346" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ346" t="s"/>
       <c r="BK346" t="n">
         <v>12094854.8</v>
       </c>
@@ -68780,13 +68570,13 @@
       <c r="BG347" t="n">
         <v>0.0008008542445274959</v>
       </c>
-      <c r="BH347" t="s"/>
+      <c r="BH347" t="n">
+        <v>229.4247281053234</v>
+      </c>
       <c r="BI347" t="n">
         <v>5168.8</v>
       </c>
-      <c r="BJ347" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ347" t="s"/>
       <c r="BK347" t="n">
         <v>13887991.26</v>
       </c>
@@ -68975,13 +68765,13 @@
       <c r="BG348" t="n">
         <v>0.00156128024980484</v>
       </c>
-      <c r="BH348" t="s"/>
+      <c r="BH348" t="n">
+        <v>319.5555555555555</v>
+      </c>
       <c r="BI348" t="n">
         <v>3166</v>
       </c>
-      <c r="BJ348" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ348" t="s"/>
       <c r="BK348" t="n">
         <v>13982119.47</v>
       </c>
@@ -69170,13 +68960,13 @@
       <c r="BG349" t="n">
         <v>0.001023541453428864</v>
       </c>
-      <c r="BH349" t="s"/>
+      <c r="BH349" t="n">
+        <v>305.7331786542923</v>
+      </c>
       <c r="BI349" t="n">
         <v>1555</v>
       </c>
-      <c r="BJ349" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ349" t="s"/>
       <c r="BK349" t="n">
         <v>9292831.829999996</v>
       </c>
@@ -69369,9 +69159,7 @@
       <c r="BI350" t="n">
         <v>2135</v>
       </c>
-      <c r="BJ350" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ350" t="s"/>
       <c r="BK350" t="n">
         <v>4194468.84</v>
       </c>
@@ -69560,13 +69348,13 @@
       <c r="BG351" t="n">
         <v>0.001631321370309951</v>
       </c>
-      <c r="BH351" t="s"/>
+      <c r="BH351" t="n">
+        <v>290.8605388272583</v>
+      </c>
       <c r="BI351" t="n">
         <v>2548</v>
       </c>
-      <c r="BJ351" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ351" t="s"/>
       <c r="BK351" t="n">
         <v>4375882.620000001</v>
       </c>
@@ -69755,13 +69543,13 @@
       <c r="BG352" t="n">
         <v>0</v>
       </c>
-      <c r="BH352" t="s"/>
+      <c r="BH352" t="n">
+        <v>581</v>
+      </c>
       <c r="BI352" t="n">
         <v>2552</v>
       </c>
-      <c r="BJ352" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ352" t="s"/>
       <c r="BK352" t="n">
         <v>6392134.48</v>
       </c>
@@ -69950,13 +69738,13 @@
       <c r="BG353" t="n">
         <v>0.001676445934618609</v>
       </c>
-      <c r="BH353" t="s"/>
+      <c r="BH353" t="n">
+        <v>466</v>
+      </c>
       <c r="BI353" t="n">
         <v>4199</v>
       </c>
-      <c r="BJ353" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ353" t="s"/>
       <c r="BK353" t="n">
         <v>10142265.33</v>
       </c>
@@ -70145,13 +69933,13 @@
       <c r="BG354" t="n">
         <v>0</v>
       </c>
-      <c r="BH354" t="s"/>
+      <c r="BH354" t="n">
+        <v>215</v>
+      </c>
       <c r="BI354" t="n">
         <v>5357.666666666667</v>
       </c>
-      <c r="BJ354" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ354" t="s"/>
       <c r="BK354" t="n">
         <v>11373865.65</v>
       </c>
@@ -70340,13 +70128,13 @@
       <c r="BG355" t="n">
         <v>0.003424657534246575</v>
       </c>
-      <c r="BH355" t="s"/>
+      <c r="BH355" t="n">
+        <v>281.0095271700776</v>
+      </c>
       <c r="BI355" t="n">
         <v>557</v>
       </c>
-      <c r="BJ355" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ355" t="s"/>
       <c r="BK355" t="n">
         <v>3285046.89</v>
       </c>
@@ -70539,9 +70327,7 @@
       <c r="BI356" t="n">
         <v>120</v>
       </c>
-      <c r="BJ356" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ356" t="s"/>
       <c r="BK356" t="n">
         <v>3340380.01</v>
       </c>
@@ -70925,9 +70711,7 @@
       <c r="BI358" t="n">
         <v>797.5</v>
       </c>
-      <c r="BJ358" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ358" t="s"/>
       <c r="BK358" t="n">
         <v>3530069.76</v>
       </c>
@@ -71120,9 +70904,7 @@
       <c r="BI359" t="n">
         <v>80</v>
       </c>
-      <c r="BJ359" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ359" t="s"/>
       <c r="BK359" t="n">
         <v>1722272.01</v>
       </c>
@@ -71315,9 +71097,7 @@
       <c r="BI360" t="n">
         <v>619.8</v>
       </c>
-      <c r="BJ360" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ360" t="s"/>
       <c r="BK360" t="n">
         <v>8115978.239999998</v>
       </c>

--- a/data_merged_analysis.xlsx
+++ b/data_merged_analysis.xlsx
@@ -5793,13 +5793,13 @@
         <v>19.07014531043593</v>
       </c>
       <c r="BK26" t="n">
-        <v>12320947</v>
+        <v>12150385</v>
       </c>
       <c r="BL26" t="n">
-        <v>3592</v>
+        <v>3561</v>
       </c>
       <c r="BM26" t="n">
-        <v>3430.107739420936</v>
+        <v>3412.071047458579</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -5990,13 +5990,13 @@
         <v>19.31955815464588</v>
       </c>
       <c r="BK27" t="n">
-        <v>12687305</v>
+        <v>12519975</v>
       </c>
       <c r="BL27" t="n">
-        <v>3702</v>
+        <v>3673</v>
       </c>
       <c r="BM27" t="n">
-        <v>3427.148838465694</v>
+        <v>3408.650966512388</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -6187,13 +6187,13 @@
         <v>19.85725239616614</v>
       </c>
       <c r="BK28" t="n">
-        <v>13096182</v>
+        <v>12887149</v>
       </c>
       <c r="BL28" t="n">
-        <v>3822</v>
+        <v>3791</v>
       </c>
       <c r="BM28" t="n">
-        <v>3426.52590266876</v>
+        <v>3399.406225270377</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -6384,13 +6384,13 @@
         <v>20.37490347490348</v>
       </c>
       <c r="BK29" t="n">
-        <v>12896029</v>
+        <v>12728029</v>
       </c>
       <c r="BL29" t="n">
-        <v>3823</v>
+        <v>3793</v>
       </c>
       <c r="BM29" t="n">
-        <v>3373.274653413549</v>
+        <v>3355.662799894543</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -6581,13 +6581,13 @@
         <v>20.72059012187299</v>
       </c>
       <c r="BK30" t="n">
-        <v>12760553</v>
+        <v>12591413</v>
       </c>
       <c r="BL30" t="n">
-        <v>3830</v>
+        <v>3800</v>
       </c>
       <c r="BM30" t="n">
-        <v>3331.737075718016</v>
+        <v>3313.529736842105</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -6778,13 +6778,13 @@
         <v>21.91660280970626</v>
       </c>
       <c r="BK31" t="n">
-        <v>12379798</v>
+        <v>12218761</v>
       </c>
       <c r="BL31" t="n">
-        <v>3817</v>
+        <v>3788</v>
       </c>
       <c r="BM31" t="n">
-        <v>3243.331936075452</v>
+        <v>3225.649683210137</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -8149,13 +8149,13 @@
         <v>20.48893129770993</v>
       </c>
       <c r="BK38" t="n">
-        <v>9805015</v>
+        <v>9595765</v>
       </c>
       <c r="BL38" t="n">
-        <v>2446</v>
+        <v>2416</v>
       </c>
       <c r="BM38" t="n">
-        <v>4008.591578086672</v>
+        <v>3971.757036423841</v>
       </c>
     </row>
     <row r="39" spans="1:65">
@@ -8346,13 +8346,13 @@
         <v>20.85071496663489</v>
       </c>
       <c r="BK39" t="n">
-        <v>10184686</v>
+        <v>9971592</v>
       </c>
       <c r="BL39" t="n">
-        <v>2455</v>
+        <v>2424</v>
       </c>
       <c r="BM39" t="n">
-        <v>4148.548268839104</v>
+        <v>4113.693069306931</v>
       </c>
     </row>
     <row r="40" spans="1:65">
@@ -8543,13 +8543,13 @@
         <v>21.39798387096774</v>
       </c>
       <c r="BK40" t="n">
-        <v>10496266</v>
+        <v>10288039</v>
       </c>
       <c r="BL40" t="n">
-        <v>2502</v>
+        <v>2471</v>
       </c>
       <c r="BM40" t="n">
-        <v>4195.150279776179</v>
+        <v>4163.512343180899</v>
       </c>
     </row>
     <row r="41" spans="1:65">
@@ -8740,13 +8740,13 @@
         <v>21.13168316831683</v>
       </c>
       <c r="BK41" t="n">
-        <v>10617390</v>
+        <v>10412418</v>
       </c>
       <c r="BL41" t="n">
-        <v>2536</v>
+        <v>2505</v>
       </c>
       <c r="BM41" t="n">
-        <v>4186.667981072555</v>
+        <v>4156.653892215569</v>
       </c>
     </row>
     <row r="42" spans="1:65">
@@ -8937,13 +8937,13 @@
         <v>21.4829035339064</v>
       </c>
       <c r="BK42" t="n">
-        <v>10694911</v>
+        <v>10497286</v>
       </c>
       <c r="BL42" t="n">
-        <v>2603</v>
+        <v>2572</v>
       </c>
       <c r="BM42" t="n">
-        <v>4108.68651555897</v>
+        <v>4081.370917573872</v>
       </c>
     </row>
     <row r="43" spans="1:65">
@@ -9134,13 +9134,13 @@
         <v>22.59062801932367</v>
       </c>
       <c r="BK43" t="n">
-        <v>10531354</v>
+        <v>10339526</v>
       </c>
       <c r="BL43" t="n">
-        <v>2603</v>
+        <v>2572</v>
       </c>
       <c r="BM43" t="n">
-        <v>4045.852477910104</v>
+        <v>4020.033437013997</v>
       </c>
     </row>
     <row r="44" spans="1:65">
@@ -9331,13 +9331,13 @@
         <v>23.09265267175573</v>
       </c>
       <c r="BK44" t="n">
-        <v>10731951</v>
+        <v>10557328</v>
       </c>
       <c r="BL44" t="n">
-        <v>2674</v>
+        <v>2643</v>
       </c>
       <c r="BM44" t="n">
-        <v>4013.444652206432</v>
+        <v>3994.448732500946</v>
       </c>
     </row>
     <row r="45" spans="1:65">
@@ -9528,13 +9528,13 @@
         <v>23.63434247871334</v>
       </c>
       <c r="BK45" t="n">
-        <v>10399418</v>
+        <v>10213914</v>
       </c>
       <c r="BL45" t="n">
-        <v>2677</v>
+        <v>2646</v>
       </c>
       <c r="BM45" t="n">
-        <v>3884.728427344042</v>
+        <v>3860.133786848073</v>
       </c>
     </row>
     <row r="46" spans="1:65">
@@ -9725,13 +9725,13 @@
         <v>24.19398854961832</v>
       </c>
       <c r="BK46" t="n">
-        <v>10111155.34</v>
+        <v>9995999.289999995</v>
       </c>
       <c r="BL46" t="n">
-        <v>2676</v>
+        <v>2661</v>
       </c>
       <c r="BM46" t="n">
-        <v>3778.458647234677</v>
+        <v>3756.482258549416</v>
       </c>
     </row>
     <row r="47" spans="1:65">
@@ -9922,13 +9922,13 @@
         <v>25.7</v>
       </c>
       <c r="BK47" t="n">
-        <v>9924207.409999996</v>
+        <v>9816661.459999997</v>
       </c>
       <c r="BL47" t="n">
-        <v>2676</v>
+        <v>2661</v>
       </c>
       <c r="BM47" t="n">
-        <v>3708.597686846038</v>
+        <v>3689.087358136038</v>
       </c>
     </row>
     <row r="48" spans="1:65">
@@ -10117,13 +10117,13 @@
       </c>
       <c r="BJ48" t="s"/>
       <c r="BK48" t="n">
-        <v>9727567.030000001</v>
+        <v>9627241.030000001</v>
       </c>
       <c r="BL48" t="n">
-        <v>2670</v>
+        <v>2655</v>
       </c>
       <c r="BM48" t="n">
-        <v>3643.283531835206</v>
+        <v>3626.079483992467</v>
       </c>
     </row>
     <row r="49" spans="1:65">
@@ -10310,13 +10310,13 @@
       </c>
       <c r="BJ49" t="s"/>
       <c r="BK49" t="n">
-        <v>9609282.349999998</v>
+        <v>9507854.299999997</v>
       </c>
       <c r="BL49" t="n">
-        <v>2669</v>
+        <v>2654</v>
       </c>
       <c r="BM49" t="n">
-        <v>3600.330591982015</v>
+        <v>3582.462057272041</v>
       </c>
     </row>
     <row r="50" spans="1:65">
@@ -12865,13 +12865,13 @@
         <v>30.4377428307123</v>
       </c>
       <c r="BK62" t="n">
-        <v>13765026</v>
+        <v>13109434</v>
       </c>
       <c r="BL62" t="n">
-        <v>2210</v>
+        <v>2164</v>
       </c>
       <c r="BM62" t="n">
-        <v>6228.518552036199</v>
+        <v>6057.963955637708</v>
       </c>
     </row>
     <row r="63" spans="1:65">
@@ -13062,13 +13062,13 @@
         <v>28.30574506283662</v>
       </c>
       <c r="BK63" t="n">
-        <v>13973483</v>
+        <v>13179569</v>
       </c>
       <c r="BL63" t="n">
-        <v>2275</v>
+        <v>2229</v>
       </c>
       <c r="BM63" t="n">
-        <v>6142.190329670329</v>
+        <v>5912.772095109915</v>
       </c>
     </row>
     <row r="64" spans="1:65">
@@ -13259,13 +13259,13 @@
         <v>29.45237676056338</v>
       </c>
       <c r="BK64" t="n">
-        <v>14396357</v>
+        <v>13520917</v>
       </c>
       <c r="BL64" t="n">
-        <v>2355</v>
+        <v>2315</v>
       </c>
       <c r="BM64" t="n">
-        <v>6113.102760084926</v>
+        <v>5840.568898488121</v>
       </c>
     </row>
     <row r="65" spans="1:65">
@@ -13456,13 +13456,13 @@
         <v>29.72163588390501</v>
       </c>
       <c r="BK65" t="n">
-        <v>13902548</v>
+        <v>13082468</v>
       </c>
       <c r="BL65" t="n">
-        <v>2350</v>
+        <v>2310</v>
       </c>
       <c r="BM65" t="n">
-        <v>5915.977872340425</v>
+        <v>5663.40606060606</v>
       </c>
     </row>
     <row r="66" spans="1:65">
@@ -13653,13 +13653,13 @@
         <v>30.48575174825175</v>
       </c>
       <c r="BK66" t="n">
-        <v>13689079</v>
+        <v>12876279</v>
       </c>
       <c r="BL66" t="n">
-        <v>2356</v>
+        <v>2316</v>
       </c>
       <c r="BM66" t="n">
-        <v>5810.305178268251</v>
+        <v>5559.705958549222</v>
       </c>
     </row>
     <row r="67" spans="1:65">
@@ -13850,13 +13850,13 @@
         <v>32.57466666666667</v>
       </c>
       <c r="BK67" t="n">
-        <v>13548500</v>
+        <v>12821820</v>
       </c>
       <c r="BL67" t="n">
-        <v>2360</v>
+        <v>2320</v>
       </c>
       <c r="BM67" t="n">
-        <v>5740.889830508475</v>
+        <v>5526.646551724138</v>
       </c>
     </row>
     <row r="68" spans="1:65">
@@ -14047,13 +14047,13 @@
         <v>33.29839857651245</v>
       </c>
       <c r="BK68" t="n">
-        <v>13280039</v>
+        <v>12584146</v>
       </c>
       <c r="BL68" t="n">
-        <v>2358</v>
+        <v>2317</v>
       </c>
       <c r="BM68" t="n">
-        <v>5631.907972858355</v>
+        <v>5431.223996547259</v>
       </c>
     </row>
     <row r="69" spans="1:65">
@@ -14244,13 +14244,13 @@
         <v>34.63898156277436</v>
       </c>
       <c r="BK69" t="n">
-        <v>13261683</v>
+        <v>12574564</v>
       </c>
       <c r="BL69" t="n">
-        <v>2359</v>
+        <v>2318</v>
       </c>
       <c r="BM69" t="n">
-        <v>5621.739296311996</v>
+        <v>5424.747195858498</v>
       </c>
     </row>
     <row r="70" spans="1:65">
@@ -14441,13 +14441,13 @@
         <v>34.50822281167109</v>
       </c>
       <c r="BK70" t="n">
-        <v>12854731.87</v>
+        <v>12699990.9</v>
       </c>
       <c r="BL70" t="n">
-        <v>2359</v>
+        <v>2342</v>
       </c>
       <c r="BM70" t="n">
-        <v>5449.22927935566</v>
+        <v>5422.711742100769</v>
       </c>
     </row>
     <row r="71" spans="1:65">
@@ -14638,13 +14638,13 @@
         <v>33.3</v>
       </c>
       <c r="BK71" t="n">
-        <v>12592225.98</v>
+        <v>12450161.91</v>
       </c>
       <c r="BL71" t="n">
-        <v>2362</v>
+        <v>2345</v>
       </c>
       <c r="BM71" t="n">
-        <v>5331.171033022862</v>
+        <v>5309.23748827292</v>
       </c>
     </row>
     <row r="72" spans="1:65">
@@ -14833,13 +14833,13 @@
       </c>
       <c r="BJ72" t="s"/>
       <c r="BK72" t="n">
-        <v>11928377.07</v>
+        <v>11808672.11</v>
       </c>
       <c r="BL72" t="n">
-        <v>2342</v>
+        <v>2326</v>
       </c>
       <c r="BM72" t="n">
-        <v>5093.243838599489</v>
+        <v>5076.815180567499</v>
       </c>
     </row>
     <row r="73" spans="1:65">
@@ -15026,13 +15026,13 @@
       </c>
       <c r="BJ73" t="s"/>
       <c r="BK73" t="n">
-        <v>11838395.66000001</v>
+        <v>11716194.7</v>
       </c>
       <c r="BL73" t="n">
-        <v>2343</v>
+        <v>2327</v>
       </c>
       <c r="BM73" t="n">
-        <v>5052.665667947079</v>
+        <v>5034.892436613668</v>
       </c>
     </row>
     <row r="74" spans="1:65">
@@ -15219,13 +15219,13 @@
       </c>
       <c r="BJ74" t="s"/>
       <c r="BK74" t="n">
-        <v>3800559</v>
+        <v>3646769</v>
       </c>
       <c r="BL74" t="n">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="BM74" t="n">
-        <v>15640.16049382716</v>
+        <v>15855.51739130435</v>
       </c>
     </row>
     <row r="75" spans="1:65">
@@ -15414,13 +15414,13 @@
         <v>18.6</v>
       </c>
       <c r="BK75" t="n">
-        <v>3568858</v>
+        <v>3461674</v>
       </c>
       <c r="BL75" t="n">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="BM75" t="n">
-        <v>14162.13492063492</v>
+        <v>14544.8487394958</v>
       </c>
     </row>
     <row r="76" spans="1:65">
@@ -15609,13 +15609,13 @@
         <v>20.9</v>
       </c>
       <c r="BK76" t="n">
-        <v>4281852</v>
+        <v>4174797</v>
       </c>
       <c r="BL76" t="n">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="BM76" t="n">
-        <v>15237.90747330961</v>
+        <v>15694.72556390977</v>
       </c>
     </row>
     <row r="77" spans="1:65">
@@ -15804,13 +15804,13 @@
         <v>20.1</v>
       </c>
       <c r="BK77" t="n">
-        <v>4412365</v>
+        <v>4306030</v>
       </c>
       <c r="BL77" t="n">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="BM77" t="n">
-        <v>15110.83904109589</v>
+        <v>15545.23465703971</v>
       </c>
     </row>
     <row r="78" spans="1:65">
@@ -15999,13 +15999,13 @@
         <v>24.6</v>
       </c>
       <c r="BK78" t="n">
-        <v>4219806</v>
+        <v>4100078</v>
       </c>
       <c r="BL78" t="n">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="BM78" t="n">
-        <v>14451.3904109589</v>
+        <v>14855.35507246377</v>
       </c>
     </row>
     <row r="79" spans="1:65">
@@ -16194,13 +16194,13 @@
         <v>25.5</v>
       </c>
       <c r="BK79" t="n">
-        <v>4389643</v>
+        <v>4139723</v>
       </c>
       <c r="BL79" t="n">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="BM79" t="n">
-        <v>14632.14333333333</v>
+        <v>14576.48943661972</v>
       </c>
     </row>
     <row r="80" spans="1:65">
@@ -16389,13 +16389,13 @@
         <v>25.5</v>
       </c>
       <c r="BK80" t="n">
-        <v>4388104</v>
+        <v>4135671</v>
       </c>
       <c r="BL80" t="n">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="BM80" t="n">
-        <v>14530.14569536424</v>
+        <v>14511.12631578947</v>
       </c>
     </row>
     <row r="81" spans="1:65">
@@ -16584,13 +16584,13 @@
         <v>27.3</v>
       </c>
       <c r="BK81" t="n">
-        <v>4789623</v>
+        <v>4490337</v>
       </c>
       <c r="BL81" t="n">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="BM81" t="n">
-        <v>15500.39805825243</v>
+        <v>15430.71134020619</v>
       </c>
     </row>
     <row r="82" spans="1:65">
@@ -16779,13 +16779,13 @@
         <v>30.7</v>
       </c>
       <c r="BK82" t="n">
-        <v>5200490.350000001</v>
+        <v>4900096.27</v>
       </c>
       <c r="BL82" t="n">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="BM82" t="n">
-        <v>15617.08813813814</v>
+        <v>15555.86117460318</v>
       </c>
     </row>
     <row r="83" spans="1:65">
@@ -16972,13 +16972,13 @@
       </c>
       <c r="BJ83" t="s"/>
       <c r="BK83" t="n">
-        <v>5078073.94</v>
+        <v>4788032.86</v>
       </c>
       <c r="BL83" t="n">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="BM83" t="n">
-        <v>15158.42967164179</v>
+        <v>15056.70710691824</v>
       </c>
     </row>
     <row r="84" spans="1:65">
@@ -17167,13 +17167,13 @@
       </c>
       <c r="BJ84" t="s"/>
       <c r="BK84" t="n">
-        <v>4894324.08</v>
+        <v>4619563.08</v>
       </c>
       <c r="BL84" t="n">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="BM84" t="n">
-        <v>13943.94324786325</v>
+        <v>13872.5618018018</v>
       </c>
     </row>
     <row r="85" spans="1:65">
@@ -17360,13 +17360,13 @@
       </c>
       <c r="BJ85" t="s"/>
       <c r="BK85" t="n">
-        <v>4698553.500000001</v>
+        <v>4410052.560000001</v>
       </c>
       <c r="BL85" t="n">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="BM85" t="n">
-        <v>13310.34985835694</v>
+        <v>13164.336</v>
       </c>
     </row>
     <row r="86" spans="1:65">
@@ -22273,13 +22273,13 @@
         <v>17.54264633546483</v>
       </c>
       <c r="BK110" t="n">
-        <v>18426157</v>
+        <v>17469466</v>
       </c>
       <c r="BL110" t="n">
-        <v>4404</v>
+        <v>4377</v>
       </c>
       <c r="BM110" t="n">
-        <v>4183.959355131698</v>
+        <v>3991.196253141421</v>
       </c>
     </row>
     <row r="111" spans="1:65">
@@ -22470,13 +22470,13 @@
         <v>18.15244552058111</v>
       </c>
       <c r="BK111" t="n">
-        <v>18426689</v>
+        <v>17460689</v>
       </c>
       <c r="BL111" t="n">
-        <v>4447</v>
+        <v>4419</v>
       </c>
       <c r="BM111" t="n">
-        <v>4143.622442095795</v>
+        <v>3951.276080561213</v>
       </c>
     </row>
     <row r="112" spans="1:65">
@@ -22667,13 +22667,13 @@
         <v>18.47424975798645</v>
       </c>
       <c r="BK112" t="n">
-        <v>18401146</v>
+        <v>17402746</v>
       </c>
       <c r="BL112" t="n">
-        <v>4523</v>
+        <v>4498</v>
       </c>
       <c r="BM112" t="n">
-        <v>4068.349767853195</v>
+        <v>3868.996442863495</v>
       </c>
     </row>
     <row r="113" spans="1:65">
@@ -22864,13 +22864,13 @@
         <v>18.56684596577017</v>
       </c>
       <c r="BK113" t="n">
-        <v>18151080</v>
+        <v>17093996</v>
       </c>
       <c r="BL113" t="n">
-        <v>4518</v>
+        <v>4490</v>
       </c>
       <c r="BM113" t="n">
-        <v>4017.503320053121</v>
+        <v>3807.126057906459</v>
       </c>
     </row>
     <row r="114" spans="1:65">
@@ -23061,13 +23061,13 @@
         <v>18.91050049067713</v>
       </c>
       <c r="BK114" t="n">
-        <v>17756723</v>
+        <v>16818247</v>
       </c>
       <c r="BL114" t="n">
-        <v>4500</v>
+        <v>4472</v>
       </c>
       <c r="BM114" t="n">
-        <v>3945.938444444444</v>
+        <v>3760.788685152057</v>
       </c>
     </row>
     <row r="115" spans="1:65">
@@ -23258,13 +23258,13 @@
         <v>19.44645669291339</v>
       </c>
       <c r="BK115" t="n">
-        <v>17308320</v>
+        <v>16341025</v>
       </c>
       <c r="BL115" t="n">
-        <v>4519</v>
+        <v>4490</v>
       </c>
       <c r="BM115" t="n">
-        <v>3830.121708342554</v>
+        <v>3639.426503340757</v>
       </c>
     </row>
     <row r="116" spans="1:65">
@@ -23455,13 +23455,13 @@
         <v>20.2045142296369</v>
       </c>
       <c r="BK116" t="n">
-        <v>16857796</v>
+        <v>15941715</v>
       </c>
       <c r="BL116" t="n">
-        <v>4565</v>
+        <v>4536</v>
       </c>
       <c r="BM116" t="n">
-        <v>3692.835925520263</v>
+        <v>3514.487433862434</v>
       </c>
     </row>
     <row r="117" spans="1:65">
@@ -23652,13 +23652,13 @@
         <v>20.6460349127182</v>
       </c>
       <c r="BK117" t="n">
-        <v>16421524</v>
+        <v>15520059</v>
       </c>
       <c r="BL117" t="n">
-        <v>4455</v>
+        <v>4426</v>
       </c>
       <c r="BM117" t="n">
-        <v>3686.088439955106</v>
+        <v>3506.565521915951</v>
       </c>
     </row>
     <row r="118" spans="1:65">
@@ -23849,13 +23849,13 @@
         <v>21.32786885245902</v>
       </c>
       <c r="BK118" t="n">
-        <v>16461765.17</v>
+        <v>15627848.27</v>
       </c>
       <c r="BL118" t="n">
-        <v>4503</v>
+        <v>4473</v>
       </c>
       <c r="BM118" t="n">
-        <v>3655.732882522763</v>
+        <v>3493.818079588643</v>
       </c>
     </row>
     <row r="119" spans="1:65">
@@ -24044,13 +24044,13 @@
       </c>
       <c r="BJ119" t="s"/>
       <c r="BK119" t="n">
-        <v>16402842.52</v>
+        <v>15560669.62</v>
       </c>
       <c r="BL119" t="n">
-        <v>4559</v>
+        <v>4529</v>
       </c>
       <c r="BM119" t="n">
-        <v>3597.903601667033</v>
+        <v>3435.784857584456</v>
       </c>
     </row>
     <row r="120" spans="1:65">
@@ -24239,13 +24239,13 @@
       </c>
       <c r="BJ120" t="s"/>
       <c r="BK120" t="n">
-        <v>15674700.79</v>
+        <v>14831331.79</v>
       </c>
       <c r="BL120" t="n">
-        <v>4493</v>
+        <v>4463</v>
       </c>
       <c r="BM120" t="n">
-        <v>3488.69369908747</v>
+        <v>3323.175395473897</v>
       </c>
     </row>
     <row r="121" spans="1:65">
@@ -24432,13 +24432,13 @@
       </c>
       <c r="BJ121" t="s"/>
       <c r="BK121" t="n">
-        <v>15831890.27000001</v>
+        <v>15067444.37000001</v>
       </c>
       <c r="BL121" t="n">
-        <v>4552</v>
+        <v>4522</v>
       </c>
       <c r="BM121" t="n">
-        <v>3478.007528558877</v>
+        <v>3332.031041574527</v>
       </c>
     </row>
     <row r="122" spans="1:65">
@@ -24629,13 +24629,13 @@
         <v>40.5</v>
       </c>
       <c r="BK122" t="n">
-        <v>3363316</v>
+        <v>3053860</v>
       </c>
       <c r="BL122" t="n">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="BM122" t="n">
-        <v>10191.86666666667</v>
+        <v>10829.29078014184</v>
       </c>
     </row>
     <row r="123" spans="1:65">
@@ -24826,13 +24826,13 @@
         <v>35.5</v>
       </c>
       <c r="BK123" t="n">
-        <v>3366722</v>
+        <v>3055327</v>
       </c>
       <c r="BL123" t="n">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="BM123" t="n">
-        <v>10140.72891566265</v>
+        <v>10796.20848056537</v>
       </c>
     </row>
     <row r="124" spans="1:65">
@@ -25023,13 +25023,13 @@
         <v>37</v>
       </c>
       <c r="BK124" t="n">
-        <v>3407142</v>
+        <v>3098736</v>
       </c>
       <c r="BL124" t="n">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="BM124" t="n">
-        <v>10262.47590361446</v>
+        <v>10949.59717314488</v>
       </c>
     </row>
     <row r="125" spans="1:65">
@@ -25220,13 +25220,13 @@
         <v>34.8</v>
       </c>
       <c r="BK125" t="n">
-        <v>3389435</v>
+        <v>3081617</v>
       </c>
       <c r="BL125" t="n">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="BM125" t="n">
-        <v>10117.71641791045</v>
+        <v>10774.88461538462</v>
       </c>
     </row>
     <row r="126" spans="1:65">
@@ -25417,13 +25417,13 @@
         <v>38.4</v>
       </c>
       <c r="BK126" t="n">
-        <v>3520802</v>
+        <v>3231758</v>
       </c>
       <c r="BL126" t="n">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="BM126" t="n">
-        <v>9541.468834688347</v>
+        <v>9883.051987767583</v>
       </c>
     </row>
     <row r="127" spans="1:65">
@@ -25614,13 +25614,13 @@
         <v>40.3</v>
       </c>
       <c r="BK127" t="n">
-        <v>3542035</v>
+        <v>3264793</v>
       </c>
       <c r="BL127" t="n">
-        <v>387</v>
+        <v>345</v>
       </c>
       <c r="BM127" t="n">
-        <v>9152.545219638243</v>
+        <v>9463.16811594203</v>
       </c>
     </row>
     <row r="128" spans="1:65">
@@ -25811,13 +25811,13 @@
         <v>39.7</v>
       </c>
       <c r="BK128" t="n">
-        <v>3774295</v>
+        <v>3386719</v>
       </c>
       <c r="BL128" t="n">
-        <v>400</v>
+        <v>358</v>
       </c>
       <c r="BM128" t="n">
-        <v>9435.737499999999</v>
+        <v>9460.108938547486</v>
       </c>
     </row>
     <row r="129" spans="1:65">
@@ -26008,13 +26008,13 @@
         <v>40.8</v>
       </c>
       <c r="BK129" t="n">
-        <v>3765815</v>
+        <v>3378939</v>
       </c>
       <c r="BL129" t="n">
-        <v>423</v>
+        <v>382</v>
       </c>
       <c r="BM129" t="n">
-        <v>8902.635933806147</v>
+        <v>8845.390052356021</v>
       </c>
     </row>
     <row r="130" spans="1:65">
@@ -26205,13 +26205,13 @@
         <v>41.2</v>
       </c>
       <c r="BK130" t="n">
-        <v>3551235.19</v>
+        <v>3330994.13</v>
       </c>
       <c r="BL130" t="n">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="BM130" t="n">
-        <v>8355.847505882353</v>
+        <v>8348.356215538846</v>
       </c>
     </row>
     <row r="131" spans="1:65">
@@ -26400,13 +26400,13 @@
       </c>
       <c r="BJ131" t="s"/>
       <c r="BK131" t="n">
-        <v>3987371.459999999</v>
+        <v>3768466.54</v>
       </c>
       <c r="BL131" t="n">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="BM131" t="n">
-        <v>9338.106463700233</v>
+        <v>9397.672169576059</v>
       </c>
     </row>
     <row r="132" spans="1:65">
@@ -26595,13 +26595,13 @@
       </c>
       <c r="BJ132" t="s"/>
       <c r="BK132" t="n">
-        <v>4012237.76</v>
+        <v>3796969.72</v>
       </c>
       <c r="BL132" t="n">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="BM132" t="n">
-        <v>9181.322105263158</v>
+        <v>9238.369148418491</v>
       </c>
     </row>
     <row r="133" spans="1:65">
@@ -26788,13 +26788,13 @@
       </c>
       <c r="BJ133" t="s"/>
       <c r="BK133" t="n">
-        <v>4391320.32</v>
+        <v>4078609.4</v>
       </c>
       <c r="BL133" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="BM133" t="n">
-        <v>8132.074666666667</v>
+        <v>8060.492885375495</v>
       </c>
     </row>
     <row r="134" spans="1:65">
@@ -26985,13 +26985,13 @@
         <v>19.73732274532048</v>
       </c>
       <c r="BK134" t="n">
-        <v>14843258</v>
+        <v>13890518</v>
       </c>
       <c r="BL134" t="n">
-        <v>3636</v>
+        <v>3591</v>
       </c>
       <c r="BM134" t="n">
-        <v>4082.304180418042</v>
+        <v>3868.147591200223</v>
       </c>
     </row>
     <row r="135" spans="1:65">
@@ -27182,13 +27182,13 @@
         <v>20.17501410039481</v>
       </c>
       <c r="BK135" t="n">
-        <v>15018759</v>
+        <v>14012207</v>
       </c>
       <c r="BL135" t="n">
-        <v>3671</v>
+        <v>3624</v>
       </c>
       <c r="BM135" t="n">
-        <v>4091.190138926723</v>
+        <v>3866.503035320088</v>
       </c>
     </row>
     <row r="136" spans="1:65">
@@ -27379,13 +27379,13 @@
         <v>20.64051918735892</v>
       </c>
       <c r="BK136" t="n">
-        <v>15635043</v>
+        <v>14589363</v>
       </c>
       <c r="BL136" t="n">
-        <v>3764</v>
+        <v>3716</v>
       </c>
       <c r="BM136" t="n">
-        <v>4153.837141339001</v>
+        <v>3926.093379978472</v>
       </c>
     </row>
     <row r="137" spans="1:65">
@@ -27576,13 +27576,13 @@
         <v>20.75293113261241</v>
       </c>
       <c r="BK137" t="n">
-        <v>14982976</v>
+        <v>13978035</v>
       </c>
       <c r="BL137" t="n">
-        <v>3766</v>
+        <v>3717</v>
       </c>
       <c r="BM137" t="n">
-        <v>3978.485395645247</v>
+        <v>3760.569007263923</v>
       </c>
     </row>
     <row r="138" spans="1:65">
@@ -27773,13 +27773,13 @@
         <v>21.02744533947066</v>
       </c>
       <c r="BK138" t="n">
-        <v>14709984</v>
+        <v>13675447</v>
       </c>
       <c r="BL138" t="n">
-        <v>3756</v>
+        <v>3707</v>
       </c>
       <c r="BM138" t="n">
-        <v>3916.396166134185</v>
+        <v>3689.087402212031</v>
       </c>
     </row>
     <row r="139" spans="1:65">
@@ -27970,13 +27970,13 @@
         <v>21.55698677400805</v>
       </c>
       <c r="BK139" t="n">
-        <v>14466060</v>
+        <v>13417760</v>
       </c>
       <c r="BL139" t="n">
-        <v>3757</v>
+        <v>3707</v>
       </c>
       <c r="BM139" t="n">
-        <v>3850.428533404312</v>
+        <v>3619.573779336391</v>
       </c>
     </row>
     <row r="140" spans="1:65">
@@ -28167,13 +28167,13 @@
         <v>22.14624277456647</v>
       </c>
       <c r="BK140" t="n">
-        <v>13875429</v>
+        <v>12800729</v>
       </c>
       <c r="BL140" t="n">
-        <v>3763</v>
+        <v>3713</v>
       </c>
       <c r="BM140" t="n">
-        <v>3687.331650279033</v>
+        <v>3447.543495825478</v>
       </c>
     </row>
     <row r="141" spans="1:65">
@@ -28364,13 +28364,13 @@
         <v>22.27807424593967</v>
       </c>
       <c r="BK141" t="n">
-        <v>13481865</v>
+        <v>12526463</v>
       </c>
       <c r="BL141" t="n">
-        <v>3765</v>
+        <v>3716</v>
       </c>
       <c r="BM141" t="n">
-        <v>3580.840637450199</v>
+        <v>3370.953444564047</v>
       </c>
     </row>
     <row r="142" spans="1:65">
@@ -28561,13 +28561,13 @@
         <v>22.70104956268221</v>
       </c>
       <c r="BK142" t="n">
-        <v>12736579.04</v>
+        <v>12489906.02000001</v>
       </c>
       <c r="BL142" t="n">
-        <v>3742</v>
+        <v>3731</v>
       </c>
       <c r="BM142" t="n">
-        <v>3403.682266167826</v>
+        <v>3347.602792816941</v>
       </c>
     </row>
     <row r="143" spans="1:65">
@@ -28756,13 +28756,13 @@
       </c>
       <c r="BJ143" t="s"/>
       <c r="BK143" t="n">
-        <v>12465592.59</v>
+        <v>12220289.62</v>
       </c>
       <c r="BL143" t="n">
-        <v>3742</v>
+        <v>3731</v>
       </c>
       <c r="BM143" t="n">
-        <v>3331.264722073756</v>
+        <v>3275.338949343338</v>
       </c>
     </row>
     <row r="144" spans="1:65">
@@ -28951,13 +28951,13 @@
       </c>
       <c r="BJ144" t="s"/>
       <c r="BK144" t="n">
-        <v>12018988.74000001</v>
+        <v>11787889.74000001</v>
       </c>
       <c r="BL144" t="n">
-        <v>3740</v>
+        <v>3730</v>
       </c>
       <c r="BM144" t="n">
-        <v>3213.633352941179</v>
+        <v>3160.292155495981</v>
       </c>
     </row>
     <row r="145" spans="1:65">
@@ -29144,13 +29144,13 @@
       </c>
       <c r="BJ145" t="s"/>
       <c r="BK145" t="n">
-        <v>12245215.49</v>
+        <v>12049263.49</v>
       </c>
       <c r="BL145" t="n">
-        <v>3810</v>
+        <v>3800</v>
       </c>
       <c r="BM145" t="n">
-        <v>3213.967320209974</v>
+        <v>3170.858813157895</v>
       </c>
     </row>
     <row r="146" spans="1:65">
@@ -38729,13 +38729,13 @@
         <v>23.86384928716904</v>
       </c>
       <c r="BK194" t="n">
-        <v>15802538</v>
+        <v>15632586</v>
       </c>
       <c r="BL194" t="n">
-        <v>2858</v>
+        <v>2826</v>
       </c>
       <c r="BM194" t="n">
-        <v>5529.229531140658</v>
+        <v>5531.700636942675</v>
       </c>
     </row>
     <row r="195" spans="1:65">
@@ -38926,13 +38926,13 @@
         <v>24.07119341563786</v>
       </c>
       <c r="BK195" t="n">
-        <v>15813631</v>
+        <v>15644223</v>
       </c>
       <c r="BL195" t="n">
-        <v>2872</v>
+        <v>2840</v>
       </c>
       <c r="BM195" t="n">
-        <v>5506.138927576601</v>
+        <v>5508.529225352113</v>
       </c>
     </row>
     <row r="196" spans="1:65">
@@ -39123,13 +39123,13 @@
         <v>24.62314814814815</v>
       </c>
       <c r="BK196" t="n">
-        <v>16551549</v>
+        <v>16369181</v>
       </c>
       <c r="BL196" t="n">
-        <v>2951</v>
+        <v>2919</v>
       </c>
       <c r="BM196" t="n">
-        <v>5608.793290410031</v>
+        <v>5607.804385063378</v>
       </c>
     </row>
     <row r="197" spans="1:65">
@@ -39320,13 +39320,13 @@
         <v>25.2136690647482</v>
       </c>
       <c r="BK197" t="n">
-        <v>16083340</v>
+        <v>15889868</v>
       </c>
       <c r="BL197" t="n">
-        <v>2969</v>
+        <v>2937</v>
       </c>
       <c r="BM197" t="n">
-        <v>5417.089929269114</v>
+        <v>5410.237657473613</v>
       </c>
     </row>
     <row r="198" spans="1:65">
@@ -39517,13 +39517,13 @@
         <v>25.65098039215686</v>
       </c>
       <c r="BK198" t="n">
-        <v>16228498</v>
+        <v>16033330</v>
       </c>
       <c r="BL198" t="n">
-        <v>2974</v>
+        <v>2942</v>
       </c>
       <c r="BM198" t="n">
-        <v>5456.791526563551</v>
+        <v>5449.806254248811</v>
       </c>
     </row>
     <row r="199" spans="1:65">
@@ -39714,13 +39714,13 @@
         <v>26.63467492260062</v>
       </c>
       <c r="BK199" t="n">
-        <v>15741321</v>
+        <v>15554329</v>
       </c>
       <c r="BL199" t="n">
-        <v>2977</v>
+        <v>2946</v>
       </c>
       <c r="BM199" t="n">
-        <v>5287.645616392341</v>
+        <v>5279.812966734556</v>
       </c>
     </row>
     <row r="200" spans="1:65">
@@ -39911,13 +39911,13 @@
         <v>27.66339193381593</v>
       </c>
       <c r="BK200" t="n">
-        <v>15157742</v>
+        <v>14979886</v>
       </c>
       <c r="BL200" t="n">
-        <v>2987</v>
+        <v>2955</v>
       </c>
       <c r="BM200" t="n">
-        <v>5074.570472045531</v>
+        <v>5069.335363790186</v>
       </c>
     </row>
     <row r="201" spans="1:65">
@@ -40108,13 +40108,13 @@
         <v>28.34334016393442</v>
       </c>
       <c r="BK201" t="n">
-        <v>14747865</v>
+        <v>14572985</v>
       </c>
       <c r="BL201" t="n">
-        <v>3002</v>
+        <v>2970</v>
       </c>
       <c r="BM201" t="n">
-        <v>4912.679880079947</v>
+        <v>4906.728956228956</v>
       </c>
     </row>
     <row r="202" spans="1:65">
@@ -40305,13 +40305,13 @@
         <v>28.86363636363636</v>
       </c>
       <c r="BK202" t="n">
-        <v>14754488.32</v>
+        <v>14581445.44</v>
       </c>
       <c r="BL202" t="n">
-        <v>3018</v>
+        <v>2986</v>
       </c>
       <c r="BM202" t="n">
-        <v>4888.829794565939</v>
+        <v>4883.270408573343</v>
       </c>
     </row>
     <row r="203" spans="1:65">
@@ -40502,13 +40502,13 @@
         <v>32</v>
       </c>
       <c r="BK203" t="n">
-        <v>14797848.39</v>
+        <v>14632272.39</v>
       </c>
       <c r="BL203" t="n">
-        <v>3073</v>
+        <v>3041</v>
       </c>
       <c r="BM203" t="n">
-        <v>4815.44041327693</v>
+        <v>4811.664712265703</v>
       </c>
     </row>
     <row r="204" spans="1:65">
@@ -40697,13 +40697,13 @@
       </c>
       <c r="BJ204" t="s"/>
       <c r="BK204" t="n">
-        <v>14331272.4</v>
+        <v>14170761.36</v>
       </c>
       <c r="BL204" t="n">
-        <v>3077</v>
+        <v>3045</v>
       </c>
       <c r="BM204" t="n">
-        <v>4657.547091322715</v>
+        <v>4653.780413793103</v>
       </c>
     </row>
     <row r="205" spans="1:65">
@@ -40890,13 +40890,13 @@
       </c>
       <c r="BJ205" t="s"/>
       <c r="BK205" t="n">
-        <v>13982119.47</v>
+        <v>13823102.51</v>
       </c>
       <c r="BL205" t="n">
-        <v>3116</v>
+        <v>3084</v>
       </c>
       <c r="BM205" t="n">
-        <v>4487.201370346598</v>
+        <v>4482.199257457846</v>
       </c>
     </row>
     <row r="206" spans="1:65">
@@ -45801,13 +45801,13 @@
         <v>21.92747909199522</v>
       </c>
       <c r="BK230" t="n">
-        <v>5050910</v>
+        <v>4918151</v>
       </c>
       <c r="BL230" t="n">
-        <v>1176</v>
+        <v>1149</v>
       </c>
       <c r="BM230" t="n">
-        <v>4294.991496598639</v>
+        <v>4280.375108790252</v>
       </c>
     </row>
     <row r="231" spans="1:65">
@@ -45998,13 +45998,13 @@
         <v>22.98578313253012</v>
       </c>
       <c r="BK231" t="n">
-        <v>5118411</v>
+        <v>4981791</v>
       </c>
       <c r="BL231" t="n">
-        <v>1185</v>
+        <v>1158</v>
       </c>
       <c r="BM231" t="n">
-        <v>4319.33417721519</v>
+        <v>4302.064766839379</v>
       </c>
     </row>
     <row r="232" spans="1:65">
@@ -46195,13 +46195,13 @@
         <v>23.66792223572297</v>
       </c>
       <c r="BK232" t="n">
-        <v>5287436</v>
+        <v>5110262</v>
       </c>
       <c r="BL232" t="n">
-        <v>1214</v>
+        <v>1187</v>
       </c>
       <c r="BM232" t="n">
-        <v>4355.383855024712</v>
+        <v>4305.191238416175</v>
       </c>
     </row>
     <row r="233" spans="1:65">
@@ -46392,13 +46392,13 @@
         <v>23.95294117647059</v>
       </c>
       <c r="BK233" t="n">
-        <v>5197581</v>
+        <v>5027805</v>
       </c>
       <c r="BL233" t="n">
-        <v>1215</v>
+        <v>1188</v>
       </c>
       <c r="BM233" t="n">
-        <v>4277.844444444445</v>
+        <v>4232.159090909091</v>
       </c>
     </row>
     <row r="234" spans="1:65">
@@ -46589,13 +46589,13 @@
         <v>25.09189189189189</v>
       </c>
       <c r="BK234" t="n">
-        <v>5139347</v>
+        <v>4972595</v>
       </c>
       <c r="BL234" t="n">
-        <v>1213</v>
+        <v>1186</v>
       </c>
       <c r="BM234" t="n">
-        <v>4236.889530090684</v>
+        <v>4192.744519392917</v>
       </c>
     </row>
     <row r="235" spans="1:65">
@@ -46786,13 +46786,13 @@
         <v>26.7273631840796</v>
       </c>
       <c r="BK235" t="n">
-        <v>5000981</v>
+        <v>4828262</v>
       </c>
       <c r="BL235" t="n">
-        <v>1216</v>
+        <v>1189</v>
       </c>
       <c r="BM235" t="n">
-        <v>4112.648848684211</v>
+        <v>4060.775441547519</v>
       </c>
     </row>
     <row r="236" spans="1:65">
@@ -46983,13 +46983,13 @@
         <v>27.05238095238095</v>
       </c>
       <c r="BK236" t="n">
-        <v>4352648</v>
+        <v>4186112</v>
       </c>
       <c r="BL236" t="n">
-        <v>1088</v>
+        <v>1061</v>
       </c>
       <c r="BM236" t="n">
-        <v>4000.595588235294</v>
+        <v>3945.440150801131</v>
       </c>
     </row>
     <row r="237" spans="1:65">
@@ -47180,13 +47180,13 @@
         <v>28.17779171894605</v>
       </c>
       <c r="BK237" t="n">
-        <v>4747888</v>
+        <v>4582162</v>
       </c>
       <c r="BL237" t="n">
-        <v>1222</v>
+        <v>1195</v>
       </c>
       <c r="BM237" t="n">
-        <v>3885.342062193126</v>
+        <v>3834.445188284519</v>
       </c>
     </row>
     <row r="238" spans="1:65">
@@ -47377,13 +47377,13 @@
         <v>27.575</v>
       </c>
       <c r="BK238" t="n">
-        <v>4649633.82</v>
+        <v>4493776.86</v>
       </c>
       <c r="BL238" t="n">
-        <v>1224</v>
+        <v>1197</v>
       </c>
       <c r="BM238" t="n">
-        <v>3798.720441176471</v>
+        <v>3754.199548872181</v>
       </c>
     </row>
     <row r="239" spans="1:65">
@@ -47574,13 +47574,13 @@
         <v>28.9</v>
       </c>
       <c r="BK239" t="n">
-        <v>4526357.779999999</v>
+        <v>4378129.669999999</v>
       </c>
       <c r="BL239" t="n">
-        <v>1224</v>
+        <v>1197</v>
       </c>
       <c r="BM239" t="n">
-        <v>3698.004722222222</v>
+        <v>3657.585355054302</v>
       </c>
     </row>
     <row r="240" spans="1:65">
@@ -47769,13 +47769,13 @@
       </c>
       <c r="BJ240" t="s"/>
       <c r="BK240" t="n">
-        <v>4363455.209999999</v>
+        <v>4223674.319999999</v>
       </c>
       <c r="BL240" t="n">
-        <v>1223</v>
+        <v>1196</v>
       </c>
       <c r="BM240" t="n">
-        <v>3567.82928045789</v>
+        <v>3531.500267558528</v>
       </c>
     </row>
     <row r="241" spans="1:65">
@@ -47962,13 +47962,13 @@
       </c>
       <c r="BJ241" t="s"/>
       <c r="BK241" t="n">
-        <v>4375882.620000001</v>
+        <v>4232948.670000001</v>
       </c>
       <c r="BL241" t="n">
-        <v>1216</v>
+        <v>1189</v>
       </c>
       <c r="BM241" t="n">
-        <v>3598.587680921054</v>
+        <v>3560.091396131204</v>
       </c>
     </row>
     <row r="242" spans="1:65">
@@ -52875,13 +52875,13 @@
         <v>24.3783426183844</v>
       </c>
       <c r="BK266" t="n">
-        <v>11704806</v>
+        <v>11540304</v>
       </c>
       <c r="BL266" t="n">
-        <v>2605</v>
+        <v>2568</v>
       </c>
       <c r="BM266" t="n">
-        <v>4493.207677543186</v>
+        <v>4493.887850467289</v>
       </c>
     </row>
     <row r="267" spans="1:65">
@@ -53072,13 +53072,13 @@
         <v>24.57926580557444</v>
       </c>
       <c r="BK267" t="n">
-        <v>11938698</v>
+        <v>11788636</v>
       </c>
       <c r="BL267" t="n">
-        <v>2703</v>
+        <v>2665</v>
       </c>
       <c r="BM267" t="n">
-        <v>4416.832408435072</v>
+        <v>4423.503189493434</v>
       </c>
     </row>
     <row r="268" spans="1:65">
@@ -53269,13 +53269,13 @@
         <v>24.93164806303349</v>
       </c>
       <c r="BK268" t="n">
-        <v>12815039</v>
+        <v>12658707</v>
       </c>
       <c r="BL268" t="n">
-        <v>2845</v>
+        <v>2807</v>
       </c>
       <c r="BM268" t="n">
-        <v>4504.407381370826</v>
+        <v>4509.692554328464</v>
       </c>
     </row>
     <row r="269" spans="1:65">
@@ -53466,13 +53466,13 @@
         <v>25.30282051282051</v>
       </c>
       <c r="BK269" t="n">
-        <v>12849692</v>
+        <v>12701720</v>
       </c>
       <c r="BL269" t="n">
-        <v>2910</v>
+        <v>2872</v>
       </c>
       <c r="BM269" t="n">
-        <v>4415.701718213058</v>
+        <v>4422.604456824512</v>
       </c>
     </row>
     <row r="270" spans="1:65">
@@ -53663,13 +53663,13 @@
         <v>25.75907928388747</v>
       </c>
       <c r="BK270" t="n">
-        <v>12778450</v>
+        <v>12630326</v>
       </c>
       <c r="BL270" t="n">
-        <v>2909</v>
+        <v>2871</v>
       </c>
       <c r="BM270" t="n">
-        <v>4392.729460295634</v>
+        <v>4399.277603622431</v>
       </c>
     </row>
     <row r="271" spans="1:65">
@@ -53860,13 +53860,13 @@
         <v>26.76012738853503</v>
       </c>
       <c r="BK271" t="n">
-        <v>12592452</v>
+        <v>12445202</v>
       </c>
       <c r="BL271" t="n">
-        <v>2915</v>
+        <v>2877</v>
       </c>
       <c r="BM271" t="n">
-        <v>4319.880617495712</v>
+        <v>4325.756690997567</v>
       </c>
     </row>
     <row r="272" spans="1:65">
@@ -54057,13 +54057,13 @@
         <v>27.97311761045426</v>
       </c>
       <c r="BK272" t="n">
-        <v>12570268</v>
+        <v>12433468</v>
       </c>
       <c r="BL272" t="n">
-        <v>2998</v>
+        <v>2960</v>
       </c>
       <c r="BM272" t="n">
-        <v>4192.884589726485</v>
+        <v>4200.495945945946</v>
       </c>
     </row>
     <row r="273" spans="1:65">
@@ -54254,13 +54254,13 @@
         <v>28.80375</v>
       </c>
       <c r="BK273" t="n">
-        <v>12152569</v>
+        <v>12014933</v>
       </c>
       <c r="BL273" t="n">
-        <v>3028</v>
+        <v>2990</v>
       </c>
       <c r="BM273" t="n">
-        <v>4013.397952443857</v>
+        <v>4018.372240802676</v>
       </c>
     </row>
     <row r="274" spans="1:65">
@@ -54451,13 +54451,13 @@
         <v>29.67570621468927</v>
       </c>
       <c r="BK274" t="n">
-        <v>11952834.46</v>
+        <v>11912989.42</v>
       </c>
       <c r="BL274" t="n">
-        <v>3010</v>
+        <v>2998</v>
       </c>
       <c r="BM274" t="n">
-        <v>3971.041348837208</v>
+        <v>3973.645570380252</v>
       </c>
     </row>
     <row r="275" spans="1:65">
@@ -54648,13 +54648,13 @@
         <v>29.23183229813664</v>
       </c>
       <c r="BK275" t="n">
-        <v>11760412.22000001</v>
+        <v>11719585.22000001</v>
       </c>
       <c r="BL275" t="n">
-        <v>3071</v>
+        <v>3059</v>
       </c>
       <c r="BM275" t="n">
-        <v>3829.505770107459</v>
+        <v>3831.181830663618</v>
       </c>
     </row>
     <row r="276" spans="1:65">
@@ -54843,13 +54843,13 @@
       </c>
       <c r="BJ276" t="s"/>
       <c r="BK276" t="n">
-        <v>11319729.57000001</v>
+        <v>11279924.61000001</v>
       </c>
       <c r="BL276" t="n">
-        <v>3071</v>
+        <v>3059</v>
       </c>
       <c r="BM276" t="n">
-        <v>3686.007675024425</v>
+        <v>3687.454923177512</v>
       </c>
     </row>
     <row r="277" spans="1:65">
@@ -55036,13 +55036,13 @@
       </c>
       <c r="BJ277" t="s"/>
       <c r="BK277" t="n">
-        <v>11373865.65</v>
+        <v>11335258.65</v>
       </c>
       <c r="BL277" t="n">
-        <v>3072</v>
+        <v>3060</v>
       </c>
       <c r="BM277" t="n">
-        <v>3702.430224609374</v>
+        <v>3704.332892156862</v>
       </c>
     </row>
     <row r="278" spans="1:65">
@@ -55233,13 +55233,13 @@
         <v>27.74</v>
       </c>
       <c r="BK278" t="n">
-        <v>3274089</v>
+        <v>2912145</v>
       </c>
       <c r="BL278" t="n">
-        <v>508</v>
+        <v>472</v>
       </c>
       <c r="BM278" t="n">
-        <v>6445.057086614173</v>
+        <v>6169.798728813559</v>
       </c>
     </row>
     <row r="279" spans="1:65">
@@ -55430,13 +55430,13 @@
         <v>28.91218637992831</v>
       </c>
       <c r="BK279" t="n">
-        <v>3154139</v>
+        <v>2936194</v>
       </c>
       <c r="BL279" t="n">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="BM279" t="n">
-        <v>6184.586274509804</v>
+        <v>6181.461052631579</v>
       </c>
     </row>
     <row r="280" spans="1:65">
@@ -55627,13 +55627,13 @@
         <v>29.84130434782609</v>
       </c>
       <c r="BK280" t="n">
-        <v>3448914</v>
+        <v>3035217</v>
       </c>
       <c r="BL280" t="n">
-        <v>516</v>
+        <v>479</v>
       </c>
       <c r="BM280" t="n">
-        <v>6683.941860465116</v>
+        <v>6336.56993736952</v>
       </c>
     </row>
     <row r="281" spans="1:65">
@@ -55824,13 +55824,13 @@
         <v>30.24666666666667</v>
       </c>
       <c r="BK281" t="n">
-        <v>3400939</v>
+        <v>3017360</v>
       </c>
       <c r="BL281" t="n">
-        <v>520</v>
+        <v>483</v>
       </c>
       <c r="BM281" t="n">
-        <v>6540.267307692307</v>
+        <v>6247.122153209109</v>
       </c>
     </row>
     <row r="282" spans="1:65">
@@ -56021,13 +56021,13 @@
         <v>33.88589743589743</v>
       </c>
       <c r="BK282" t="n">
-        <v>3327669</v>
+        <v>2957404</v>
       </c>
       <c r="BL282" t="n">
-        <v>516</v>
+        <v>481</v>
       </c>
       <c r="BM282" t="n">
-        <v>6448.970930232558</v>
+        <v>6148.449064449064</v>
       </c>
     </row>
     <row r="283" spans="1:65">
@@ -56218,13 +56218,13 @@
         <v>35.13390557939914</v>
       </c>
       <c r="BK283" t="n">
-        <v>3259393</v>
+        <v>2855686</v>
       </c>
       <c r="BL283" t="n">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="BM283" t="n">
-        <v>6304.435203094778</v>
+        <v>5949.345833333334</v>
       </c>
     </row>
     <row r="284" spans="1:65">
@@ -56415,13 +56415,13 @@
         <v>35.49646017699115</v>
       </c>
       <c r="BK284" t="n">
-        <v>3021413</v>
+        <v>2652042</v>
       </c>
       <c r="BL284" t="n">
-        <v>516</v>
+        <v>479</v>
       </c>
       <c r="BM284" t="n">
-        <v>5855.451550387597</v>
+        <v>5536.622129436326</v>
       </c>
     </row>
     <row r="285" spans="1:65">
@@ -56612,13 +56612,13 @@
         <v>39.12608695652174</v>
       </c>
       <c r="BK285" t="n">
-        <v>3062551</v>
+        <v>2733547</v>
       </c>
       <c r="BL285" t="n">
-        <v>516</v>
+        <v>478</v>
       </c>
       <c r="BM285" t="n">
-        <v>5935.176356589147</v>
+        <v>5718.717573221757</v>
       </c>
     </row>
     <row r="286" spans="1:65">
@@ -56809,13 +56809,13 @@
         <v>36.41116071428571</v>
       </c>
       <c r="BK286" t="n">
-        <v>3229209.290000001</v>
+        <v>3001090.25</v>
       </c>
       <c r="BL286" t="n">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="BM286" t="n">
-        <v>5903.490475319928</v>
+        <v>5738.222275334609</v>
       </c>
     </row>
     <row r="287" spans="1:65">
@@ -57004,13 +57004,13 @@
       </c>
       <c r="BJ287" t="s"/>
       <c r="BK287" t="n">
-        <v>3289991.09</v>
+        <v>3050158.13</v>
       </c>
       <c r="BL287" t="n">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="BM287" t="n">
-        <v>5833.317535460993</v>
+        <v>5648.440981481482</v>
       </c>
     </row>
     <row r="288" spans="1:65">
@@ -57199,13 +57199,13 @@
       </c>
       <c r="BJ288" t="s"/>
       <c r="BK288" t="n">
-        <v>3283786.350000001</v>
+        <v>3064521.390000001</v>
       </c>
       <c r="BL288" t="n">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="BM288" t="n">
-        <v>5491.281521739132</v>
+        <v>5338.887439024391</v>
       </c>
     </row>
     <row r="289" spans="1:65">
@@ -57392,13 +57392,13 @@
       </c>
       <c r="BJ289" t="s"/>
       <c r="BK289" t="n">
-        <v>3285046.89</v>
+        <v>3068275.89</v>
       </c>
       <c r="BL289" t="n">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="BM289" t="n">
-        <v>5521.087210084033</v>
+        <v>5382.940157894736</v>
       </c>
     </row>
     <row r="290" spans="1:65">
@@ -57587,13 +57587,13 @@
       </c>
       <c r="BJ290" t="s"/>
       <c r="BK290" t="n">
-        <v>2648928</v>
+        <v>2202560</v>
       </c>
       <c r="BL290" t="n">
-        <v>283</v>
+        <v>209</v>
       </c>
       <c r="BM290" t="n">
-        <v>9360.169611307421</v>
+        <v>10538.56459330143</v>
       </c>
     </row>
     <row r="291" spans="1:65">
@@ -57782,13 +57782,13 @@
         <v>12.7</v>
       </c>
       <c r="BK291" t="n">
-        <v>3135686</v>
+        <v>2668894</v>
       </c>
       <c r="BL291" t="n">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="BM291" t="n">
-        <v>10115.11612903226</v>
+        <v>11308.87288135593</v>
       </c>
     </row>
     <row r="292" spans="1:65">
@@ -57977,13 +57977,13 @@
         <v>14.1</v>
       </c>
       <c r="BK292" t="n">
-        <v>3301320</v>
+        <v>2742102</v>
       </c>
       <c r="BL292" t="n">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="BM292" t="n">
-        <v>10649.41935483871</v>
+        <v>11619.07627118644</v>
       </c>
     </row>
     <row r="293" spans="1:65">
@@ -58172,13 +58172,13 @@
         <v>16.4</v>
       </c>
       <c r="BK293" t="n">
-        <v>3306817</v>
+        <v>2770413</v>
       </c>
       <c r="BL293" t="n">
-        <v>314</v>
+        <v>241</v>
       </c>
       <c r="BM293" t="n">
-        <v>10531.26433121019</v>
+        <v>11495.48962655602</v>
       </c>
     </row>
     <row r="294" spans="1:65">
@@ -58367,13 +58367,13 @@
         <v>17.8</v>
       </c>
       <c r="BK294" t="n">
-        <v>3419207</v>
+        <v>2869847</v>
       </c>
       <c r="BL294" t="n">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="BM294" t="n">
-        <v>11029.7</v>
+        <v>11957.69583333333</v>
       </c>
     </row>
     <row r="295" spans="1:65">
@@ -58562,13 +58562,13 @@
         <v>19.7</v>
       </c>
       <c r="BK295" t="n">
-        <v>3429494</v>
+        <v>2879774</v>
       </c>
       <c r="BL295" t="n">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="BM295" t="n">
-        <v>10991.96794871795</v>
+        <v>11999.05833333333</v>
       </c>
     </row>
     <row r="296" spans="1:65">
@@ -58757,13 +58757,13 @@
         <v>27</v>
       </c>
       <c r="BK296" t="n">
-        <v>3517672</v>
+        <v>2909509</v>
       </c>
       <c r="BL296" t="n">
-        <v>304</v>
+        <v>231</v>
       </c>
       <c r="BM296" t="n">
-        <v>11571.28947368421</v>
+        <v>12595.27705627706</v>
       </c>
     </row>
     <row r="297" spans="1:65">
@@ -58952,13 +58952,13 @@
         <v>26.7</v>
       </c>
       <c r="BK297" t="n">
-        <v>3593690</v>
+        <v>2990618</v>
       </c>
       <c r="BL297" t="n">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="BM297" t="n">
-        <v>11195.29595015576</v>
+        <v>12010.5140562249</v>
       </c>
     </row>
     <row r="298" spans="1:65">
@@ -59147,13 +59147,13 @@
         <v>25.9</v>
       </c>
       <c r="BK298" t="n">
-        <v>3882999.819999999</v>
+        <v>3268669.779999999</v>
       </c>
       <c r="BL298" t="n">
-        <v>326</v>
+        <v>253</v>
       </c>
       <c r="BM298" t="n">
-        <v>11911.04239263804</v>
+        <v>12919.64339920948</v>
       </c>
     </row>
     <row r="299" spans="1:65">
@@ -59340,13 +59340,13 @@
       </c>
       <c r="BJ299" t="s"/>
       <c r="BK299" t="n">
-        <v>3845776.13</v>
+        <v>3273226.91</v>
       </c>
       <c r="BL299" t="n">
-        <v>325</v>
+        <v>252</v>
       </c>
       <c r="BM299" t="n">
-        <v>11833.15732307692</v>
+        <v>12988.99567460317</v>
       </c>
     </row>
     <row r="300" spans="1:65">
@@ -59535,13 +59535,13 @@
       </c>
       <c r="BJ300" t="s"/>
       <c r="BK300" t="n">
-        <v>3721151.52</v>
+        <v>3176315.29</v>
       </c>
       <c r="BL300" t="n">
-        <v>325</v>
+        <v>252</v>
       </c>
       <c r="BM300" t="n">
-        <v>11449.69698461538</v>
+        <v>12604.42575396825</v>
       </c>
     </row>
     <row r="301" spans="1:65">
@@ -59728,13 +59728,13 @@
       </c>
       <c r="BJ301" t="s"/>
       <c r="BK301" t="n">
-        <v>3340380.01</v>
+        <v>2817535.03</v>
       </c>
       <c r="BL301" t="n">
-        <v>322</v>
+        <v>249</v>
       </c>
       <c r="BM301" t="n">
-        <v>10373.85096273292</v>
+        <v>11315.40172690763</v>
       </c>
     </row>
     <row r="302" spans="1:65">
@@ -59919,13 +59919,13 @@
       <c r="BI302" t="s"/>
       <c r="BJ302" t="s"/>
       <c r="BK302" t="n">
-        <v>1826652</v>
+        <v>1692336</v>
       </c>
       <c r="BL302" t="n">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="BM302" t="n">
-        <v>9272.345177664974</v>
+        <v>9247.737704918032</v>
       </c>
     </row>
     <row r="303" spans="1:65">
@@ -60110,13 +60110,13 @@
       <c r="BI303" t="s"/>
       <c r="BJ303" t="s"/>
       <c r="BK303" t="n">
-        <v>1813649</v>
+        <v>1677884</v>
       </c>
       <c r="BL303" t="n">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="BM303" t="n">
-        <v>9159.843434343435</v>
+        <v>9168.765027322404</v>
       </c>
     </row>
     <row r="304" spans="1:65">
@@ -60301,13 +60301,13 @@
       <c r="BI304" t="s"/>
       <c r="BJ304" t="s"/>
       <c r="BK304" t="n">
-        <v>1708486</v>
+        <v>1550041</v>
       </c>
       <c r="BL304" t="n">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="BM304" t="n">
-        <v>8628.717171717171</v>
+        <v>8470.169398907105</v>
       </c>
     </row>
     <row r="305" spans="1:65">
@@ -60492,13 +60492,13 @@
       <c r="BI305" t="s"/>
       <c r="BJ305" t="s"/>
       <c r="BK305" t="n">
-        <v>1650797</v>
+        <v>1411327</v>
       </c>
       <c r="BL305" t="n">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="BM305" t="n">
-        <v>7503.622727272727</v>
+        <v>7628.794594594595</v>
       </c>
     </row>
     <row r="306" spans="1:65">
@@ -60683,13 +60683,13 @@
       <c r="BI306" t="s"/>
       <c r="BJ306" t="s"/>
       <c r="BK306" t="n">
-        <v>1626777</v>
+        <v>1388812</v>
       </c>
       <c r="BL306" t="n">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="BM306" t="n">
-        <v>7394.440909090909</v>
+        <v>7507.091891891891</v>
       </c>
     </row>
     <row r="307" spans="1:65">
@@ -60874,13 +60874,13 @@
       <c r="BI307" t="s"/>
       <c r="BJ307" t="s"/>
       <c r="BK307" t="n">
-        <v>1543808</v>
+        <v>1319283</v>
       </c>
       <c r="BL307" t="n">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="BM307" t="n">
-        <v>7081.688073394495</v>
+        <v>7209.196721311476</v>
       </c>
     </row>
     <row r="308" spans="1:65">
@@ -61065,13 +61065,13 @@
       <c r="BI308" t="s"/>
       <c r="BJ308" t="s"/>
       <c r="BK308" t="n">
-        <v>1425153</v>
+        <v>1260729</v>
       </c>
       <c r="BL308" t="n">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="BM308" t="n">
-        <v>6507.54794520548</v>
+        <v>6814.751351351351</v>
       </c>
     </row>
     <row r="309" spans="1:65">
@@ -61256,13 +61256,13 @@
       <c r="BI309" t="s"/>
       <c r="BJ309" t="s"/>
       <c r="BK309" t="n">
-        <v>1462470</v>
+        <v>1295088</v>
       </c>
       <c r="BL309" t="n">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="BM309" t="n">
-        <v>6647.590909090909</v>
+        <v>6962.83870967742</v>
       </c>
     </row>
     <row r="310" spans="1:65">
@@ -61447,13 +61447,13 @@
       <c r="BI310" t="s"/>
       <c r="BJ310" t="s"/>
       <c r="BK310" t="n">
-        <v>1380678.76</v>
+        <v>1293879.76</v>
       </c>
       <c r="BL310" t="n">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="BM310" t="n">
-        <v>6163.744464285714</v>
+        <v>6190.812248803827</v>
       </c>
     </row>
     <row r="311" spans="1:65">
@@ -61638,13 +61638,13 @@
       <c r="BI311" t="s"/>
       <c r="BJ311" t="s"/>
       <c r="BK311" t="n">
-        <v>1430740.04</v>
+        <v>1364023.04</v>
       </c>
       <c r="BL311" t="n">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="BM311" t="n">
-        <v>5863.688688524591</v>
+        <v>5956.43248908297</v>
       </c>
     </row>
     <row r="312" spans="1:65">
@@ -61829,13 +61829,13 @@
       <c r="BI312" t="s"/>
       <c r="BJ312" t="s"/>
       <c r="BK312" t="n">
-        <v>1491358.12</v>
+        <v>1439603.06</v>
       </c>
       <c r="BL312" t="n">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="BM312" t="n">
-        <v>5735.992769230768</v>
+        <v>5852.044959349593</v>
       </c>
     </row>
     <row r="313" spans="1:65">
@@ -62020,13 +62020,13 @@
       <c r="BI313" t="s"/>
       <c r="BJ313" t="s"/>
       <c r="BK313" t="n">
-        <v>1445180.02</v>
+        <v>1392596.02</v>
       </c>
       <c r="BL313" t="n">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="BM313" t="n">
-        <v>5453.509509433962</v>
+        <v>5548.191314741036</v>
       </c>
     </row>
     <row r="314" spans="1:65">
@@ -66863,13 +66863,13 @@
       <c r="BI338" t="s"/>
       <c r="BJ338" t="s"/>
       <c r="BK338" t="n">
-        <v>9318743</v>
+        <v>8841653</v>
       </c>
       <c r="BL338" t="n">
-        <v>1321</v>
+        <v>1291</v>
       </c>
       <c r="BM338" t="n">
-        <v>7054.309613928842</v>
+        <v>6848.68551510457</v>
       </c>
     </row>
     <row r="339" spans="1:65">
@@ -67054,13 +67054,13 @@
       <c r="BI339" t="s"/>
       <c r="BJ339" t="s"/>
       <c r="BK339" t="n">
-        <v>9311399</v>
+        <v>8835659</v>
       </c>
       <c r="BL339" t="n">
-        <v>1324</v>
+        <v>1294</v>
       </c>
       <c r="BM339" t="n">
-        <v>7032.778700906344</v>
+        <v>6828.17542503864</v>
       </c>
     </row>
     <row r="340" spans="1:65">
@@ -67245,13 +67245,13 @@
       <c r="BI340" t="s"/>
       <c r="BJ340" t="s"/>
       <c r="BK340" t="n">
-        <v>8864350</v>
+        <v>8451368</v>
       </c>
       <c r="BL340" t="n">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="BM340" t="n">
-        <v>6654.917417417418</v>
+        <v>6496.055342044581</v>
       </c>
     </row>
     <row r="341" spans="1:65">
@@ -67436,13 +67436,13 @@
       <c r="BI341" t="s"/>
       <c r="BJ341" t="s"/>
       <c r="BK341" t="n">
-        <v>8587197</v>
+        <v>8276763</v>
       </c>
       <c r="BL341" t="n">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="BM341" t="n">
-        <v>6446.844594594595</v>
+        <v>6361.847040737894</v>
       </c>
     </row>
     <row r="342" spans="1:65">
@@ -67627,13 +67627,13 @@
       <c r="BI342" t="s"/>
       <c r="BJ342" t="s"/>
       <c r="BK342" t="n">
-        <v>8580563</v>
+        <v>8214329</v>
       </c>
       <c r="BL342" t="n">
-        <v>1337</v>
+        <v>1306</v>
       </c>
       <c r="BM342" t="n">
-        <v>6417.773373223635</v>
+        <v>6289.685298621745</v>
       </c>
     </row>
     <row r="343" spans="1:65">
@@ -67824,13 +67824,13 @@
         <v>23.24038199181446</v>
       </c>
       <c r="BK343" t="n">
-        <v>8361050</v>
+        <v>8007354</v>
       </c>
       <c r="BL343" t="n">
-        <v>1340</v>
+        <v>1308</v>
       </c>
       <c r="BM343" t="n">
-        <v>6239.589552238806</v>
+        <v>6121.830275229358</v>
       </c>
     </row>
     <row r="344" spans="1:65">
@@ -68021,13 +68021,13 @@
         <v>24.24756097560975</v>
       </c>
       <c r="BK344" t="n">
-        <v>8014867</v>
+        <v>7720639</v>
       </c>
       <c r="BL344" t="n">
-        <v>1340</v>
+        <v>1307</v>
       </c>
       <c r="BM344" t="n">
-        <v>5981.244029850746</v>
+        <v>5907.145371078806</v>
       </c>
     </row>
     <row r="345" spans="1:65">
@@ -68218,13 +68218,13 @@
         <v>26.05683355886333</v>
       </c>
       <c r="BK345" t="n">
-        <v>7996371</v>
+        <v>7701931</v>
       </c>
       <c r="BL345" t="n">
-        <v>1373</v>
+        <v>1339</v>
       </c>
       <c r="BM345" t="n">
-        <v>5824.013838310269</v>
+        <v>5752.002240477968</v>
       </c>
     </row>
     <row r="346" spans="1:65">
@@ -68415,13 +68415,13 @@
         <v>26.52034574468085</v>
       </c>
       <c r="BK346" t="n">
-        <v>8295297.630000002</v>
+        <v>8036056.590000002</v>
       </c>
       <c r="BL346" t="n">
-        <v>1444</v>
+        <v>1417</v>
       </c>
       <c r="BM346" t="n">
-        <v>5744.665948753463</v>
+        <v>5671.176139731829</v>
       </c>
     </row>
     <row r="347" spans="1:65">
@@ -68612,13 +68612,13 @@
         <v>27.3</v>
       </c>
       <c r="BK347" t="n">
-        <v>8202195.379999998</v>
+        <v>7894765.279999998</v>
       </c>
       <c r="BL347" t="n">
-        <v>1486</v>
+        <v>1455</v>
       </c>
       <c r="BM347" t="n">
-        <v>5519.646958277253</v>
+        <v>5425.955518900342</v>
       </c>
     </row>
     <row r="348" spans="1:65">
@@ -68807,13 +68807,13 @@
       </c>
       <c r="BJ348" t="s"/>
       <c r="BK348" t="n">
-        <v>8019883.270000003</v>
+        <v>7733265.330000003</v>
       </c>
       <c r="BL348" t="n">
-        <v>1517</v>
+        <v>1486</v>
       </c>
       <c r="BM348" t="n">
-        <v>5286.673216875414</v>
+        <v>5204.081648721402</v>
       </c>
     </row>
     <row r="349" spans="1:65">
@@ -69000,13 +69000,13 @@
       </c>
       <c r="BJ349" t="s"/>
       <c r="BK349" t="n">
-        <v>8115978.239999998</v>
+        <v>7799924.249999998</v>
       </c>
       <c r="BL349" t="n">
-        <v>1531</v>
+        <v>1500</v>
       </c>
       <c r="BM349" t="n">
-        <v>5301.096172436315</v>
+        <v>5199.949499999999</v>
       </c>
     </row>
     <row r="350" spans="1:65">
